--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JT102"/>
+  <dimension ref="A1:JU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HZ18" activeCellId="0" sqref="HZ18"/>
@@ -1293,8 +1293,11 @@
       <c r="JS1" s="2" t="n">
         <v>10742</v>
       </c>
-      <c r="JT1" t="n">
+      <c r="JT1" s="2" t="n">
         <v>10751</v>
+      </c>
+      <c r="JU1" t="n">
+        <v>10763</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="1">
@@ -2137,7 +2140,10 @@
       <c r="JS2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JT2" t="n">
+      <c r="JT2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JU2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2981,8 +2987,11 @@
       <c r="JS3" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JT3" t="n">
+      <c r="JT3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="1">
@@ -3825,8 +3834,11 @@
       <c r="JS4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JT4" t="n">
+      <c r="JT4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="1">
@@ -4669,8 +4681,11 @@
       <c r="JS5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JT5" t="n">
+      <c r="JT5" s="2" t="n">
         <v>0.5</v>
+      </c>
+      <c r="JU5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="1">
@@ -5513,8 +5528,11 @@
       <c r="JS6" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="JT6" t="n">
+      <c r="JT6" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JU6" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="1">
@@ -6357,8 +6375,11 @@
       <c r="JS7" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="JT7" t="n">
+      <c r="JT7" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JU7" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="1">
@@ -7201,8 +7222,11 @@
       <c r="JS8" s="2" t="n">
         <v>-2</v>
       </c>
-      <c r="JT8" t="n">
+      <c r="JT8" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JU8" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="1">
@@ -8045,8 +8069,11 @@
       <c r="JS9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JT9" t="n">
+      <c r="JT9" s="2" t="n">
         <v>0.5</v>
+      </c>
+      <c r="JU9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="1">
@@ -8889,8 +8916,11 @@
       <c r="JS10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JT10" t="n">
+      <c r="JT10" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JU10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="1">
@@ -9733,8 +9763,11 @@
       <c r="JS11" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="JT11" t="n">
+      <c r="JT11" s="2" t="n">
         <v>228</v>
+      </c>
+      <c r="JU11" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="1">
@@ -10577,8 +10610,11 @@
       <c r="JS12" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="JT12" t="n">
+      <c r="JT12" s="2" t="n">
         <v>121</v>
+      </c>
+      <c r="JU12" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="1">
@@ -11421,8 +11457,11 @@
       <c r="JS13" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="JT13" t="n">
+      <c r="JT13" s="2" t="n">
         <v>349</v>
+      </c>
+      <c r="JU13" t="n">
+        <v>348</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="1">
@@ -12265,8 +12304,11 @@
       <c r="JS14" s="2" t="n">
         <v>2.08</v>
       </c>
-      <c r="JT14" t="n">
+      <c r="JT14" s="2" t="n">
         <v>1.88</v>
+      </c>
+      <c r="JU14" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="1">
@@ -13109,8 +13151,11 @@
       <c r="JS15" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="JT15" t="n">
+      <c r="JT15" s="2" t="n">
         <v>95</v>
+      </c>
+      <c r="JU15" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="1">
@@ -13953,8 +13998,11 @@
       <c r="JS16" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JT16" t="n">
+      <c r="JT16" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="JU16" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="1">
@@ -14797,8 +14845,11 @@
       <c r="JS17" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JT17" t="n">
+      <c r="JT17" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JU17" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="1">
@@ -15641,8 +15692,11 @@
       <c r="JS18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JT18" t="n">
+      <c r="JT18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JU18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="1">
@@ -16485,8 +16539,11 @@
       <c r="JS19" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JT19" t="n">
+      <c r="JT19" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JU19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="1">
@@ -17329,8 +17386,11 @@
       <c r="JS20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JT20" t="n">
+      <c r="JT20" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JU20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="1">
@@ -18173,8 +18233,11 @@
       <c r="JS21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JT21" t="n">
+      <c r="JT21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JU21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="1">
@@ -19017,8 +19080,11 @@
       <c r="JS22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JT22" t="n">
+      <c r="JT22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JU22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="1">
@@ -19861,8 +19927,11 @@
       <c r="JS23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JT23" t="n">
+      <c r="JT23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JU23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="1">
@@ -20705,8 +20774,11 @@
       <c r="JS24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JT24" t="n">
+      <c r="JT24" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JU24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="1">
@@ -21549,8 +21621,11 @@
       <c r="JS25" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JT25" t="n">
+      <c r="JT25" s="2" t="n">
         <v>44.4</v>
+      </c>
+      <c r="JU25" t="n">
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="1">
@@ -22393,8 +22468,11 @@
       <c r="JS26" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JT26" t="n">
+      <c r="JT26" s="2" t="n">
         <v>43.62</v>
+      </c>
+      <c r="JU26" t="n">
+        <v>20.47</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="1">
@@ -23237,8 +23315,11 @@
       <c r="JS27" s="2" t="n">
         <v>13.33</v>
       </c>
-      <c r="JT27" t="n">
+      <c r="JT27" s="2" t="n">
         <v>19.39</v>
+      </c>
+      <c r="JU27" t="n">
+        <v>15.13</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="1">
@@ -24081,7 +24162,10 @@
       <c r="JS28" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JT28" t="n">
+      <c r="JT28" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JU28" t="n">
         <v>36</v>
       </c>
     </row>
@@ -24925,8 +25009,11 @@
       <c r="JS29" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="JT29" t="n">
+      <c r="JT29" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="JU29" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="1">
@@ -25769,8 +25856,11 @@
       <c r="JS30" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JT30" t="n">
+      <c r="JT30" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JU30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="1">
@@ -26613,8 +26703,11 @@
       <c r="JS31" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JT31" t="n">
+      <c r="JT31" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JU31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="1">
@@ -27457,8 +27550,11 @@
       <c r="JS32" s="2" t="n">
         <v>2.62</v>
       </c>
-      <c r="JT32" t="n">
+      <c r="JT32" s="2" t="n">
         <v>3.67</v>
+      </c>
+      <c r="JU32" t="n">
+        <v>2.22</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="1">
@@ -28301,8 +28397,11 @@
       <c r="JS33" s="2" t="n">
         <v>3.94</v>
       </c>
-      <c r="JT33" t="n">
+      <c r="JT33" s="2" t="n">
         <v>8.25</v>
+      </c>
+      <c r="JU33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="1">
@@ -29145,8 +29244,11 @@
       <c r="JS34" s="2" t="n">
         <v>34.9</v>
       </c>
-      <c r="JT34" t="n">
+      <c r="JT34" s="2" t="n">
         <v>27.3</v>
+      </c>
+      <c r="JU34" t="n">
+        <v>41.2</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="1">
@@ -29989,8 +30091,11 @@
       <c r="JS35" s="2" t="n">
         <v>25.4</v>
       </c>
-      <c r="JT35" t="n">
+      <c r="JT35" s="2" t="n">
         <v>12.1</v>
+      </c>
+      <c r="JU35" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="1">
@@ -30833,8 +30938,11 @@
       <c r="JS36" s="2" t="n">
         <v>186.7</v>
       </c>
-      <c r="JT36" t="n">
+      <c r="JT36" s="2" t="n">
         <v>186.3</v>
+      </c>
+      <c r="JU36" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="1">
@@ -31677,8 +31785,11 @@
       <c r="JS37" s="2" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="JT37" t="n">
+      <c r="JT37" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="JU37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="1">
@@ -32521,8 +32632,11 @@
       <c r="JS38" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="JT38" t="n">
+      <c r="JT38" s="2" t="n">
         <v>27.41</v>
+      </c>
+      <c r="JU38" t="n">
+        <v>27.49</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="1">
@@ -33365,8 +33479,11 @@
       <c r="JS39" s="2" t="n">
         <v>131.5</v>
       </c>
-      <c r="JT39" t="n">
+      <c r="JT39" s="2" t="n">
         <v>133.2</v>
+      </c>
+      <c r="JU39" t="n">
+        <v>131.7</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="1">
@@ -34209,7 +34326,10 @@
       <c r="JS40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JT40" t="n">
+      <c r="JT40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JU40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35053,7 +35173,10 @@
       <c r="JS41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JT41" t="n">
+      <c r="JT41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JU41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -35897,7 +36020,10 @@
       <c r="JS42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JT42" t="n">
+      <c r="JT42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JU42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -36741,7 +36867,10 @@
       <c r="JS43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JT43" t="n">
+      <c r="JT43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JU43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -37585,8 +37714,11 @@
       <c r="JS44" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="JT44" t="n">
+      <c r="JT44" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="JU44" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="1">
@@ -38429,8 +38561,11 @@
       <c r="JS45" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="JT45" t="n">
+      <c r="JT45" s="2" t="n">
         <v>199</v>
+      </c>
+      <c r="JU45" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="1">
@@ -39273,8 +39408,11 @@
       <c r="JS46" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="JT46" t="n">
+      <c r="JT46" s="2" t="n">
         <v>248</v>
+      </c>
+      <c r="JU46" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="1">
@@ -40117,8 +40255,11 @@
       <c r="JS47" s="2" t="n">
         <v>66.2</v>
       </c>
-      <c r="JT47" t="n">
+      <c r="JT47" s="2" t="n">
         <v>71.09999999999999</v>
+      </c>
+      <c r="JU47" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="1">
@@ -40961,8 +41102,11 @@
       <c r="JS48" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="JT48" t="n">
+      <c r="JT48" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="JU48" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="1">
@@ -41805,8 +41949,11 @@
       <c r="JS49" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JT49" t="n">
+      <c r="JT49" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JU49" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="1">
@@ -42649,8 +42796,11 @@
       <c r="JS50" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JT50" t="n">
+      <c r="JT50" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JU50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="1">
@@ -43493,7 +43643,10 @@
       <c r="JS51" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JT51" t="n">
+      <c r="JT51" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JU51" t="n">
         <v>36</v>
       </c>
     </row>
@@ -44337,8 +44490,11 @@
       <c r="JS52" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JT52" t="n">
+      <c r="JT52" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JU52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="1">
@@ -45181,8 +45337,11 @@
       <c r="JS53" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JT53" t="n">
+      <c r="JT53" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JU53" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="1">
@@ -46025,8 +46184,11 @@
       <c r="JS54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JT54" t="n">
+      <c r="JT54" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JU54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="1">
@@ -46869,8 +47031,11 @@
       <c r="JS55" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JT55" t="n">
+      <c r="JT55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JU55" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="1">
@@ -47713,8 +47878,11 @@
       <c r="JS56" s="2" t="n">
         <v>81.2</v>
       </c>
-      <c r="JT56" t="n">
+      <c r="JT56" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JU56" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="1">
@@ -48557,8 +48725,11 @@
       <c r="JS57" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="JT57" t="n">
+      <c r="JT57" s="2" t="n">
         <v>221</v>
+      </c>
+      <c r="JU57" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="1">
@@ -49401,8 +49572,11 @@
       <c r="JS58" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="JT58" t="n">
+      <c r="JT58" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="JU58" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="1">
@@ -50245,8 +50419,11 @@
       <c r="JS59" s="2" t="n">
         <v>336</v>
       </c>
-      <c r="JT59" t="n">
+      <c r="JT59" s="2" t="n">
         <v>340</v>
+      </c>
+      <c r="JU59" t="n">
+        <v>358</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="1">
@@ -51089,8 +51266,11 @@
       <c r="JS60" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="JT60" t="n">
+      <c r="JT60" s="2" t="n">
         <v>1.86</v>
+      </c>
+      <c r="JU60" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="1">
@@ -51933,8 +52113,11 @@
       <c r="JS61" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JT61" t="n">
+      <c r="JT61" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="JU61" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="1">
@@ -52777,8 +52960,11 @@
       <c r="JS62" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JT62" t="n">
+      <c r="JT62" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JU62" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="1">
@@ -53621,8 +53807,11 @@
       <c r="JS63" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JT63" t="n">
+      <c r="JT63" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JU63" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="1">
@@ -54465,8 +54654,11 @@
       <c r="JS64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JT64" t="n">
+      <c r="JT64" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JU64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="1">
@@ -55309,8 +55501,11 @@
       <c r="JS65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JT65" t="n">
+      <c r="JT65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JU65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="1">
@@ -56153,8 +56348,11 @@
       <c r="JS66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JT66" t="n">
+      <c r="JT66" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JU66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="1">
@@ -56997,8 +57195,11 @@
       <c r="JS67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JT67" t="n">
+      <c r="JT67" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JU67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="1">
@@ -57841,8 +58042,11 @@
       <c r="JS68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JT68" t="n">
+      <c r="JT68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JU68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="1">
@@ -58685,8 +58889,11 @@
       <c r="JS69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JT69" t="n">
+      <c r="JT69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JU69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="1">
@@ -59529,8 +59736,11 @@
       <c r="JS70" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JT70" t="n">
+      <c r="JT70" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JU70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="1">
@@ -60373,8 +60583,11 @@
       <c r="JS71" s="2" t="n">
         <v>61.5</v>
       </c>
-      <c r="JT71" t="n">
+      <c r="JT71" s="2" t="n">
         <v>44.4</v>
+      </c>
+      <c r="JU71" t="n">
+        <v>38.5</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="1">
@@ -61217,8 +61430,11 @@
       <c r="JS72" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JT72" t="n">
+      <c r="JT72" s="2" t="n">
         <v>42.5</v>
+      </c>
+      <c r="JU72" t="n">
+        <v>35.8</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="1">
@@ -62061,8 +62277,11 @@
       <c r="JS73" s="2" t="n">
         <v>12.92</v>
       </c>
-      <c r="JT73" t="n">
+      <c r="JT73" s="2" t="n">
         <v>18.89</v>
+      </c>
+      <c r="JU73" t="n">
+        <v>13.77</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="1">
@@ -62905,8 +63124,11 @@
       <c r="JS74" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JT74" t="n">
+      <c r="JT74" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JU74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="1">
@@ -63749,8 +63971,11 @@
       <c r="JS75" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JT75" t="n">
+      <c r="JT75" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JU75" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="1">
@@ -64593,8 +64818,11 @@
       <c r="JS76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JT76" t="n">
+      <c r="JT76" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JU76" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="1">
@@ -65437,8 +65665,11 @@
       <c r="JS77" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JT77" t="n">
+      <c r="JT77" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JU77" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="1">
@@ -66281,8 +66512,11 @@
       <c r="JS78" s="2" t="n">
         <v>2.27</v>
       </c>
-      <c r="JT78" t="n">
+      <c r="JT78" s="2" t="n">
         <v>2.5</v>
+      </c>
+      <c r="JU78" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="1">
@@ -67125,8 +67359,11 @@
       <c r="JS79" s="2" t="n">
         <v>3.69</v>
       </c>
-      <c r="JT79" t="n">
+      <c r="JT79" s="2" t="n">
         <v>5.62</v>
+      </c>
+      <c r="JU79" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="1">
@@ -67969,8 +68206,11 @@
       <c r="JS80" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JT80" t="n">
+      <c r="JT80" s="2" t="n">
         <v>35.6</v>
+      </c>
+      <c r="JU80" t="n">
+        <v>43.4</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="1">
@@ -68813,8 +69053,11 @@
       <c r="JS81" s="2" t="n">
         <v>27.1</v>
       </c>
-      <c r="JT81" t="n">
+      <c r="JT81" s="2" t="n">
         <v>17.8</v>
+      </c>
+      <c r="JU81" t="n">
+        <v>18.9</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="1">
@@ -69657,8 +69900,11 @@
       <c r="JS82" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="JT82" t="n">
+      <c r="JT82" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="JU82" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="1">
@@ -70501,8 +70747,11 @@
       <c r="JS83" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="JT83" t="n">
+      <c r="JT83" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="JU83" t="n">
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="1">
@@ -71345,8 +71594,11 @@
       <c r="JS84" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JT84" t="n">
+      <c r="JT84" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="JU84" t="n">
+        <v>24.49</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="1">
@@ -72189,8 +72441,11 @@
       <c r="JS85" s="2" t="n">
         <v>120.9</v>
       </c>
-      <c r="JT85" t="n">
+      <c r="JT85" s="2" t="n">
         <v>91.40000000000001</v>
+      </c>
+      <c r="JU85" t="n">
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="1">
@@ -73033,8 +73288,11 @@
       <c r="JS86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JT86" t="n">
+      <c r="JT86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JU86" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="1">
@@ -73877,8 +74135,11 @@
       <c r="JS87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JT87" t="n">
+      <c r="JT87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JU87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="1">
@@ -74721,8 +74982,11 @@
       <c r="JS88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JT88" t="n">
+      <c r="JT88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JU88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="1">
@@ -75565,8 +75829,11 @@
       <c r="JS89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JT89" t="n">
+      <c r="JT89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JU89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="1">
@@ -76409,8 +76676,11 @@
       <c r="JS90" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="JT90" t="n">
+      <c r="JT90" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="JU90" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="1">
@@ -77253,8 +77523,11 @@
       <c r="JS91" s="2" t="n">
         <v>182</v>
       </c>
-      <c r="JT91" t="n">
+      <c r="JT91" s="2" t="n">
         <v>192</v>
+      </c>
+      <c r="JU91" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="1">
@@ -78097,8 +78370,11 @@
       <c r="JS92" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="JT92" t="n">
+      <c r="JT92" s="2" t="n">
         <v>240</v>
+      </c>
+      <c r="JU92" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="1">
@@ -78941,8 +79217,11 @@
       <c r="JS93" s="2" t="n">
         <v>68.2</v>
       </c>
-      <c r="JT93" t="n">
+      <c r="JT93" s="2" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="JU93" t="n">
+        <v>70.7</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="1">
@@ -79785,8 +80064,11 @@
       <c r="JS94" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JT94" t="n">
+      <c r="JT94" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JU94" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="1">
@@ -80629,8 +80911,11 @@
       <c r="JS95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JT95" t="n">
+      <c r="JT95" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JU95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="1">
@@ -81473,8 +81758,11 @@
       <c r="JS96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JT96" t="n">
+      <c r="JT96" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JU96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="1">
@@ -82317,8 +82605,11 @@
       <c r="JS97" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JT97" t="n">
+      <c r="JT97" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JU97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="1">
@@ -83161,8 +83452,11 @@
       <c r="JS98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JT98" t="n">
+      <c r="JT98" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JU98" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="1">
@@ -84005,8 +84299,11 @@
       <c r="JS99" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JT99" t="n">
+      <c r="JT99" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JU99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="1">
@@ -84849,8 +85146,11 @@
       <c r="JS100" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JT100" t="n">
+      <c r="JT100" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JU100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="1">
@@ -85693,8 +85993,11 @@
       <c r="JS101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JT101" t="n">
+      <c r="JT101" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JU101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="1">
@@ -86537,8 +86840,11 @@
       <c r="JS102" s="2" t="n">
         <v>56.2</v>
       </c>
-      <c r="JT102" t="n">
+      <c r="JT102" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JU102" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JU102"/>
+  <dimension ref="A1:JV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HZ18" activeCellId="0" sqref="HZ18"/>
@@ -1296,8 +1296,11 @@
       <c r="JT1" s="2" t="n">
         <v>10751</v>
       </c>
-      <c r="JU1" t="n">
+      <c r="JU1" s="2" t="n">
         <v>10763</v>
+      </c>
+      <c r="JV1" t="n">
+        <v>10770</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="1">
@@ -2143,7 +2146,10 @@
       <c r="JT2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JU2" t="n">
+      <c r="JU2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JV2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2990,8 +2996,11 @@
       <c r="JT3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JU3" t="n">
+      <c r="JU3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="1">
@@ -3837,7 +3846,10 @@
       <c r="JT4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JU4" t="n">
+      <c r="JU4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4684,8 +4696,11 @@
       <c r="JT5" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="JU5" t="n">
+      <c r="JU5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JV5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="1">
@@ -5531,8 +5546,11 @@
       <c r="JT6" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JU6" t="n">
+      <c r="JU6" s="2" t="n">
         <v>108</v>
+      </c>
+      <c r="JV6" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="1">
@@ -6378,8 +6396,11 @@
       <c r="JT7" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JU7" t="n">
+      <c r="JU7" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="JV7" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="1">
@@ -7225,8 +7246,11 @@
       <c r="JT8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JU8" t="n">
+      <c r="JU8" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JV8" t="n">
+        <v>-14</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="1">
@@ -8072,8 +8096,11 @@
       <c r="JT9" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="JU9" t="n">
+      <c r="JU9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JV9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="1">
@@ -8919,8 +8946,11 @@
       <c r="JT10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JU10" t="n">
+      <c r="JU10" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JV10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="1">
@@ -9766,8 +9796,11 @@
       <c r="JT11" s="2" t="n">
         <v>228</v>
       </c>
-      <c r="JU11" t="n">
+      <c r="JU11" s="2" t="n">
         <v>209</v>
+      </c>
+      <c r="JV11" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="1">
@@ -10613,8 +10646,11 @@
       <c r="JT12" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="JU12" t="n">
+      <c r="JU12" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="JV12" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="1">
@@ -11460,8 +11496,11 @@
       <c r="JT13" s="2" t="n">
         <v>349</v>
       </c>
-      <c r="JU13" t="n">
+      <c r="JU13" s="2" t="n">
         <v>348</v>
+      </c>
+      <c r="JV13" t="n">
+        <v>356</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="1">
@@ -12307,8 +12346,11 @@
       <c r="JT14" s="2" t="n">
         <v>1.88</v>
       </c>
-      <c r="JU14" t="n">
+      <c r="JU14" s="2" t="n">
         <v>1.5</v>
+      </c>
+      <c r="JV14" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="1">
@@ -13154,8 +13196,11 @@
       <c r="JT15" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="JU15" t="n">
+      <c r="JU15" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="JV15" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="1">
@@ -14001,8 +14046,11 @@
       <c r="JT16" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="JU16" t="n">
+      <c r="JU16" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JV16" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="1">
@@ -14848,8 +14896,11 @@
       <c r="JT17" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JU17" t="n">
+      <c r="JU17" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JV17" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="1">
@@ -15695,8 +15746,11 @@
       <c r="JT18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JU18" t="n">
+      <c r="JU18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JV18" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="1">
@@ -16542,7 +16596,10 @@
       <c r="JT19" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JU19" t="n">
+      <c r="JU19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JV19" t="n">
         <v>20</v>
       </c>
     </row>
@@ -17389,8 +17446,11 @@
       <c r="JT20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JU20" t="n">
+      <c r="JU20" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JV20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="1">
@@ -18236,8 +18296,11 @@
       <c r="JT21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JU21" t="n">
+      <c r="JU21" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JV21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="1">
@@ -19083,8 +19146,11 @@
       <c r="JT22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JU22" t="n">
+      <c r="JU22" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JV22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="1">
@@ -19930,8 +19996,11 @@
       <c r="JT23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JU23" t="n">
+      <c r="JU23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JV23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="1">
@@ -20777,8 +20846,11 @@
       <c r="JT24" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JU24" t="n">
+      <c r="JU24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JV24" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="1">
@@ -21624,8 +21696,11 @@
       <c r="JT25" s="2" t="n">
         <v>44.4</v>
       </c>
-      <c r="JU25" t="n">
+      <c r="JU25" s="2" t="n">
         <v>73.90000000000001</v>
+      </c>
+      <c r="JV25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="1">
@@ -22471,8 +22546,11 @@
       <c r="JT26" s="2" t="n">
         <v>43.62</v>
       </c>
-      <c r="JU26" t="n">
+      <c r="JU26" s="2" t="n">
         <v>20.47</v>
+      </c>
+      <c r="JV26" t="n">
+        <v>50.86</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="1">
@@ -23318,8 +23396,11 @@
       <c r="JT27" s="2" t="n">
         <v>19.39</v>
       </c>
-      <c r="JU27" t="n">
+      <c r="JU27" s="2" t="n">
         <v>15.13</v>
+      </c>
+      <c r="JV27" t="n">
+        <v>25.43</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="1">
@@ -24165,8 +24246,11 @@
       <c r="JT28" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JU28" t="n">
+      <c r="JU28" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JV28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="1">
@@ -25012,8 +25096,11 @@
       <c r="JT29" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="JU29" t="n">
+      <c r="JU29" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JV29" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="1">
@@ -25859,8 +25946,11 @@
       <c r="JT30" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JU30" t="n">
+      <c r="JU30" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JV30" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="1">
@@ -26706,8 +26796,11 @@
       <c r="JT31" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JU31" t="n">
+      <c r="JU31" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JV31" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="1">
@@ -27553,8 +27646,11 @@
       <c r="JT32" s="2" t="n">
         <v>3.67</v>
       </c>
-      <c r="JU32" t="n">
+      <c r="JU32" s="2" t="n">
         <v>2.22</v>
+      </c>
+      <c r="JV32" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="1">
@@ -28400,8 +28496,11 @@
       <c r="JT33" s="2" t="n">
         <v>8.25</v>
       </c>
-      <c r="JU33" t="n">
+      <c r="JU33" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JV33" t="n">
+        <v>5.71</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="1">
@@ -29247,8 +29346,11 @@
       <c r="JT34" s="2" t="n">
         <v>27.3</v>
       </c>
-      <c r="JU34" t="n">
+      <c r="JU34" s="2" t="n">
         <v>41.2</v>
+      </c>
+      <c r="JV34" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="1">
@@ -30094,8 +30196,11 @@
       <c r="JT35" s="2" t="n">
         <v>12.1</v>
       </c>
-      <c r="JU35" t="n">
+      <c r="JU35" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="JV35" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="1">
@@ -30941,8 +31046,11 @@
       <c r="JT36" s="2" t="n">
         <v>186.3</v>
       </c>
-      <c r="JU36" t="n">
+      <c r="JU36" s="2" t="n">
         <v>187</v>
+      </c>
+      <c r="JV36" t="n">
+        <v>186.8</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="1">
@@ -31788,8 +31896,11 @@
       <c r="JT37" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="JU37" t="n">
+      <c r="JU37" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="JV37" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="1">
@@ -32635,8 +32746,11 @@
       <c r="JT38" s="2" t="n">
         <v>27.41</v>
       </c>
-      <c r="JU38" t="n">
+      <c r="JU38" s="2" t="n">
         <v>27.49</v>
+      </c>
+      <c r="JV38" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="1">
@@ -33482,8 +33596,11 @@
       <c r="JT39" s="2" t="n">
         <v>133.2</v>
       </c>
-      <c r="JU39" t="n">
+      <c r="JU39" s="2" t="n">
         <v>131.7</v>
+      </c>
+      <c r="JV39" t="n">
+        <v>108.4</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="1">
@@ -34329,8 +34446,11 @@
       <c r="JT40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JU40" t="n">
+      <c r="JU40" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JV40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="1">
@@ -35176,8 +35296,11 @@
       <c r="JT41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JU41" t="n">
+      <c r="JU41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JV41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="1">
@@ -36023,8 +36146,11 @@
       <c r="JT42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JU42" t="n">
+      <c r="JU42" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JV42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="1">
@@ -36870,8 +36996,11 @@
       <c r="JT43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JU43" t="n">
+      <c r="JU43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JV43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="1">
@@ -37717,8 +37846,11 @@
       <c r="JT44" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="JU44" t="n">
+      <c r="JU44" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="JV44" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="1">
@@ -38564,8 +38696,11 @@
       <c r="JT45" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="JU45" t="n">
+      <c r="JU45" s="2" t="n">
         <v>201</v>
+      </c>
+      <c r="JV45" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="1">
@@ -39411,8 +39546,11 @@
       <c r="JT46" s="2" t="n">
         <v>248</v>
       </c>
-      <c r="JU46" t="n">
+      <c r="JU46" s="2" t="n">
         <v>255</v>
+      </c>
+      <c r="JV46" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="1">
@@ -40258,8 +40396,11 @@
       <c r="JT47" s="2" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="JU47" t="n">
+      <c r="JU47" s="2" t="n">
         <v>73.3</v>
+      </c>
+      <c r="JV47" t="n">
+        <v>69.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="1">
@@ -41105,8 +41246,11 @@
       <c r="JT48" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="JU48" t="n">
+      <c r="JU48" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JV48" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="1">
@@ -41952,8 +42096,11 @@
       <c r="JT49" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JU49" t="n">
+      <c r="JU49" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JV49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="1">
@@ -42799,8 +42946,11 @@
       <c r="JT50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JU50" t="n">
+      <c r="JU50" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JV50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="1">
@@ -43646,8 +43796,11 @@
       <c r="JT51" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JU51" t="n">
+      <c r="JU51" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JV51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="1">
@@ -44493,8 +44646,11 @@
       <c r="JT52" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JU52" t="n">
+      <c r="JU52" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JV52" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="1">
@@ -45340,8 +45496,11 @@
       <c r="JT53" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JU53" t="n">
+      <c r="JU53" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JV53" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="1">
@@ -46187,8 +46346,11 @@
       <c r="JT54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JU54" t="n">
+      <c r="JU54" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JV54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="1">
@@ -47034,8 +47196,11 @@
       <c r="JT55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JU55" t="n">
+      <c r="JU55" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JV55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="1">
@@ -47881,8 +48046,11 @@
       <c r="JT56" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JU56" t="n">
+      <c r="JU56" s="2" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="JV56" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="1">
@@ -48728,8 +48896,11 @@
       <c r="JT57" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="JU57" t="n">
+      <c r="JU57" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="JV57" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="1">
@@ -49575,8 +49746,11 @@
       <c r="JT58" s="2" t="n">
         <v>119</v>
       </c>
-      <c r="JU58" t="n">
+      <c r="JU58" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="JV58" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="1">
@@ -50422,8 +50596,11 @@
       <c r="JT59" s="2" t="n">
         <v>340</v>
       </c>
-      <c r="JU59" t="n">
+      <c r="JU59" s="2" t="n">
         <v>358</v>
+      </c>
+      <c r="JV59" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="1">
@@ -51269,8 +51446,11 @@
       <c r="JT60" s="2" t="n">
         <v>1.86</v>
       </c>
-      <c r="JU60" t="n">
+      <c r="JU60" s="2" t="n">
         <v>1.52</v>
+      </c>
+      <c r="JV60" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="1">
@@ -52116,8 +52296,11 @@
       <c r="JT61" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="JU61" t="n">
+      <c r="JU61" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="JV61" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="1">
@@ -52963,8 +53146,11 @@
       <c r="JT62" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JU62" t="n">
+      <c r="JU62" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JV62" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="1">
@@ -53810,8 +53996,11 @@
       <c r="JT63" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JU63" t="n">
+      <c r="JU63" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JV63" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="1">
@@ -54657,7 +54846,10 @@
       <c r="JT64" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JU64" t="n">
+      <c r="JU64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JV64" t="n">
         <v>20</v>
       </c>
     </row>
@@ -55504,8 +55696,11 @@
       <c r="JT65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JU65" t="n">
+      <c r="JU65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JV65" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="1">
@@ -56351,8 +56546,11 @@
       <c r="JT66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JU66" t="n">
+      <c r="JU66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JV66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="1">
@@ -57198,8 +57396,11 @@
       <c r="JT67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JU67" t="n">
+      <c r="JU67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JV67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="1">
@@ -58045,8 +58246,11 @@
       <c r="JT68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JU68" t="n">
+      <c r="JU68" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JV68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="1">
@@ -58892,8 +59096,11 @@
       <c r="JT69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JU69" t="n">
+      <c r="JU69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JV69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="1">
@@ -59739,8 +59946,11 @@
       <c r="JT70" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JU70" t="n">
+      <c r="JU70" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JV70" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="1">
@@ -60586,8 +60796,11 @@
       <c r="JT71" s="2" t="n">
         <v>44.4</v>
       </c>
-      <c r="JU71" t="n">
+      <c r="JU71" s="2" t="n">
         <v>38.5</v>
+      </c>
+      <c r="JV71" t="n">
+        <v>34.8</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="1">
@@ -61433,8 +61646,11 @@
       <c r="JT72" s="2" t="n">
         <v>42.5</v>
       </c>
-      <c r="JU72" t="n">
+      <c r="JU72" s="2" t="n">
         <v>35.8</v>
+      </c>
+      <c r="JV72" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="1">
@@ -62280,8 +62496,11 @@
       <c r="JT73" s="2" t="n">
         <v>18.89</v>
       </c>
-      <c r="JU73" t="n">
+      <c r="JU73" s="2" t="n">
         <v>13.77</v>
+      </c>
+      <c r="JV73" t="n">
+        <v>17.39</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="1">
@@ -63127,8 +63346,11 @@
       <c r="JT74" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JU74" t="n">
+      <c r="JU74" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JV74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="1">
@@ -63974,8 +64196,11 @@
       <c r="JT75" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JU75" t="n">
+      <c r="JU75" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JV75" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="1">
@@ -64821,7 +65046,10 @@
       <c r="JT76" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JU76" t="n">
+      <c r="JU76" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JV76" t="n">
         <v>33</v>
       </c>
     </row>
@@ -65668,8 +65896,11 @@
       <c r="JT77" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JU77" t="n">
+      <c r="JU77" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JV77" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="1">
@@ -66515,8 +66746,11 @@
       <c r="JT78" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="JU78" t="n">
+      <c r="JU78" s="2" t="n">
         <v>2.04</v>
+      </c>
+      <c r="JV78" t="n">
+        <v>2.57</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="1">
@@ -67362,8 +67596,11 @@
       <c r="JT79" s="2" t="n">
         <v>5.62</v>
       </c>
-      <c r="JU79" t="n">
+      <c r="JU79" s="2" t="n">
         <v>5.3</v>
+      </c>
+      <c r="JV79" t="n">
+        <v>7.38</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="1">
@@ -68209,8 +68446,11 @@
       <c r="JT80" s="2" t="n">
         <v>35.6</v>
       </c>
-      <c r="JU80" t="n">
+      <c r="JU80" s="2" t="n">
         <v>43.4</v>
+      </c>
+      <c r="JV80" t="n">
+        <v>30.5</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="1">
@@ -69056,8 +69296,11 @@
       <c r="JT81" s="2" t="n">
         <v>17.8</v>
       </c>
-      <c r="JU81" t="n">
+      <c r="JU81" s="2" t="n">
         <v>18.9</v>
+      </c>
+      <c r="JV81" t="n">
+        <v>13.6</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="1">
@@ -69903,8 +70146,11 @@
       <c r="JT82" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="JU82" t="n">
+      <c r="JU82" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="JV82" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="1">
@@ -70750,8 +70996,11 @@
       <c r="JT83" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="JU83" t="n">
+      <c r="JU83" s="2" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="JV83" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="1">
@@ -71597,8 +71846,11 @@
       <c r="JT84" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="JU84" t="n">
+      <c r="JU84" s="2" t="n">
         <v>24.49</v>
+      </c>
+      <c r="JV84" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="1">
@@ -72444,8 +72696,11 @@
       <c r="JT85" s="2" t="n">
         <v>91.40000000000001</v>
       </c>
-      <c r="JU85" t="n">
+      <c r="JU85" s="2" t="n">
         <v>74.90000000000001</v>
+      </c>
+      <c r="JV85" t="n">
+        <v>118.3</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="1">
@@ -73291,8 +73546,11 @@
       <c r="JT86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JU86" t="n">
+      <c r="JU86" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JV86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="1">
@@ -74138,8 +74396,11 @@
       <c r="JT87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JU87" t="n">
+      <c r="JU87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JV87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="1">
@@ -74985,8 +75246,11 @@
       <c r="JT88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JU88" t="n">
+      <c r="JU88" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JV88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="1">
@@ -75832,8 +76096,11 @@
       <c r="JT89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JU89" t="n">
+      <c r="JU89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JV89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="1">
@@ -76679,8 +76946,11 @@
       <c r="JT90" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="JU90" t="n">
+      <c r="JU90" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="JV90" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="1">
@@ -77526,8 +77796,11 @@
       <c r="JT91" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="JU91" t="n">
+      <c r="JU91" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="JV91" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="1">
@@ -78373,8 +78646,11 @@
       <c r="JT92" s="2" t="n">
         <v>240</v>
       </c>
-      <c r="JU92" t="n">
+      <c r="JU92" s="2" t="n">
         <v>253</v>
+      </c>
+      <c r="JV92" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="1">
@@ -79220,8 +79496,11 @@
       <c r="JT93" s="2" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="JU93" t="n">
+      <c r="JU93" s="2" t="n">
         <v>70.7</v>
+      </c>
+      <c r="JV93" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="1">
@@ -80067,8 +80346,11 @@
       <c r="JT94" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JU94" t="n">
+      <c r="JU94" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JV94" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="1">
@@ -80914,8 +81196,11 @@
       <c r="JT95" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JU95" t="n">
+      <c r="JU95" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JV95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="1">
@@ -81761,8 +82046,11 @@
       <c r="JT96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JU96" t="n">
+      <c r="JU96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JV96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="1">
@@ -82608,8 +82896,11 @@
       <c r="JT97" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JU97" t="n">
+      <c r="JU97" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JV97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="1">
@@ -83455,7 +83746,10 @@
       <c r="JT98" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JU98" t="n">
+      <c r="JU98" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JV98" t="n">
         <v>33</v>
       </c>
     </row>
@@ -84302,8 +84596,11 @@
       <c r="JT99" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JU99" t="n">
+      <c r="JU99" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JV99" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="1">
@@ -85149,8 +85446,11 @@
       <c r="JT100" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JU100" t="n">
+      <c r="JU100" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JV100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="1">
@@ -85996,8 +86296,11 @@
       <c r="JT101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JU101" t="n">
+      <c r="JU101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JV101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="1">
@@ -86843,8 +87146,11 @@
       <c r="JT102" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JU102" t="n">
+      <c r="JU102" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="JV102" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JV102"/>
+  <dimension ref="A1:JW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HZ18" activeCellId="0" sqref="HZ18"/>
@@ -1299,8 +1299,11 @@
       <c r="JU1" s="2" t="n">
         <v>10763</v>
       </c>
-      <c r="JV1" t="n">
+      <c r="JV1" s="2" t="n">
         <v>10770</v>
+      </c>
+      <c r="JW1" t="n">
+        <v>10781</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="1">
@@ -2149,7 +2152,10 @@
       <c r="JU2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JV2" t="n">
+      <c r="JV2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JW2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2999,8 +3005,11 @@
       <c r="JU3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JV3" t="n">
+      <c r="JV3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="1">
@@ -3849,8 +3858,11 @@
       <c r="JU4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JV4" t="n">
+      <c r="JV4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="1">
@@ -4699,8 +4711,11 @@
       <c r="JU5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JV5" t="n">
+      <c r="JV5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JW5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="1">
@@ -5549,8 +5564,11 @@
       <c r="JU6" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="JV6" t="n">
+      <c r="JV6" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JW6" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="1">
@@ -6399,8 +6417,11 @@
       <c r="JU7" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="JV7" t="n">
+      <c r="JV7" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JW7" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="1">
@@ -7249,8 +7270,11 @@
       <c r="JU8" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JV8" t="n">
+      <c r="JV8" s="2" t="n">
         <v>-14</v>
+      </c>
+      <c r="JW8" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="1">
@@ -8099,7 +8123,10 @@
       <c r="JU9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JV9" t="n">
+      <c r="JV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8949,8 +8976,11 @@
       <c r="JU10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JV10" t="n">
+      <c r="JV10" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JW10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="1">
@@ -9799,8 +9829,11 @@
       <c r="JU11" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="JV11" t="n">
+      <c r="JV11" s="2" t="n">
         <v>219</v>
+      </c>
+      <c r="JW11" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="1">
@@ -10649,8 +10682,11 @@
       <c r="JU12" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="JV12" t="n">
+      <c r="JV12" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="JW12" t="n">
+        <v>174</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="1">
@@ -11499,8 +11535,11 @@
       <c r="JU13" s="2" t="n">
         <v>348</v>
       </c>
-      <c r="JV13" t="n">
+      <c r="JV13" s="2" t="n">
         <v>356</v>
+      </c>
+      <c r="JW13" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="1">
@@ -12349,8 +12388,11 @@
       <c r="JU14" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="JV14" t="n">
+      <c r="JV14" s="2" t="n">
         <v>1.6</v>
+      </c>
+      <c r="JW14" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="1">
@@ -13199,8 +13241,11 @@
       <c r="JU15" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="JV15" t="n">
+      <c r="JV15" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="JW15" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="1">
@@ -14049,8 +14094,11 @@
       <c r="JU16" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JV16" t="n">
+      <c r="JV16" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="JW16" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="1">
@@ -14899,8 +14947,11 @@
       <c r="JU17" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JV17" t="n">
+      <c r="JV17" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JW17" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="1">
@@ -15749,8 +15800,11 @@
       <c r="JU18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JV18" t="n">
+      <c r="JV18" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JW18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="1">
@@ -16599,7 +16653,10 @@
       <c r="JU19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JV19" t="n">
+      <c r="JV19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JW19" t="n">
         <v>20</v>
       </c>
     </row>
@@ -17449,8 +17506,11 @@
       <c r="JU20" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JV20" t="n">
+      <c r="JV20" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JW20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="1">
@@ -18299,8 +18359,11 @@
       <c r="JU21" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JV21" t="n">
+      <c r="JV21" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JW21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="1">
@@ -19149,8 +19212,11 @@
       <c r="JU22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JV22" t="n">
+      <c r="JV22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JW22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="1">
@@ -19999,8 +20065,11 @@
       <c r="JU23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JV23" t="n">
+      <c r="JV23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JW23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="1">
@@ -20849,8 +20918,11 @@
       <c r="JU24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JV24" t="n">
+      <c r="JV24" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JW24" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="1">
@@ -21699,7 +21771,10 @@
       <c r="JU25" s="2" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="JV25" t="n">
+      <c r="JV25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JW25" t="n">
         <v>50</v>
       </c>
     </row>
@@ -22549,8 +22624,11 @@
       <c r="JU26" s="2" t="n">
         <v>20.47</v>
       </c>
-      <c r="JV26" t="n">
+      <c r="JV26" s="2" t="n">
         <v>50.86</v>
+      </c>
+      <c r="JW26" t="n">
+        <v>32.67</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="1">
@@ -23399,8 +23477,11 @@
       <c r="JU27" s="2" t="n">
         <v>15.13</v>
       </c>
-      <c r="JV27" t="n">
+      <c r="JV27" s="2" t="n">
         <v>25.43</v>
+      </c>
+      <c r="JW27" t="n">
+        <v>16.33</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="1">
@@ -24249,8 +24330,11 @@
       <c r="JU28" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JV28" t="n">
+      <c r="JV28" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JW28" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="1">
@@ -25099,8 +25183,11 @@
       <c r="JU29" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JV29" t="n">
+      <c r="JV29" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="JW29" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="1">
@@ -25949,8 +26036,11 @@
       <c r="JU30" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JV30" t="n">
+      <c r="JV30" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JW30" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="1">
@@ -26799,8 +26889,11 @@
       <c r="JU31" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JV31" t="n">
+      <c r="JV31" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JW31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="1">
@@ -27649,8 +27742,11 @@
       <c r="JU32" s="2" t="n">
         <v>2.22</v>
       </c>
-      <c r="JV32" t="n">
+      <c r="JV32" s="2" t="n">
         <v>2.86</v>
+      </c>
+      <c r="JW32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="1">
@@ -28499,8 +28595,11 @@
       <c r="JU33" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JV33" t="n">
+      <c r="JV33" s="2" t="n">
         <v>5.71</v>
+      </c>
+      <c r="JW33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="1">
@@ -29349,8 +29448,11 @@
       <c r="JU34" s="2" t="n">
         <v>41.2</v>
       </c>
-      <c r="JV34" t="n">
+      <c r="JV34" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JW34" t="n">
+        <v>41.7</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="1">
@@ -30199,8 +30301,11 @@
       <c r="JU35" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="JV35" t="n">
+      <c r="JV35" s="2" t="n">
         <v>17.5</v>
+      </c>
+      <c r="JW35" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="1">
@@ -31049,8 +31154,11 @@
       <c r="JU36" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="JV36" t="n">
+      <c r="JV36" s="2" t="n">
         <v>186.8</v>
+      </c>
+      <c r="JW36" t="n">
+        <v>186.6</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="1">
@@ -31899,7 +32007,10 @@
       <c r="JU37" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="JV37" t="n">
+      <c r="JV37" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="JW37" t="n">
         <v>86</v>
       </c>
     </row>
@@ -32749,8 +32860,11 @@
       <c r="JU38" s="2" t="n">
         <v>27.49</v>
       </c>
-      <c r="JV38" t="n">
+      <c r="JV38" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="JW38" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="1">
@@ -33599,8 +33713,11 @@
       <c r="JU39" s="2" t="n">
         <v>131.7</v>
       </c>
-      <c r="JV39" t="n">
+      <c r="JV39" s="2" t="n">
         <v>108.4</v>
+      </c>
+      <c r="JW39" t="n">
+        <v>109.3</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="1">
@@ -34449,8 +34566,11 @@
       <c r="JU40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JV40" t="n">
+      <c r="JV40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JW40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="1">
@@ -35299,7 +35419,10 @@
       <c r="JU41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JV41" t="n">
+      <c r="JV41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JW41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36149,7 +36272,10 @@
       <c r="JU42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JV42" t="n">
+      <c r="JV42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JW42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36999,8 +37125,11 @@
       <c r="JU43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JV43" t="n">
+      <c r="JV43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JW43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="1">
@@ -37849,8 +37978,11 @@
       <c r="JU44" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="JV44" t="n">
+      <c r="JV44" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="JW44" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="1">
@@ -38699,8 +38831,11 @@
       <c r="JU45" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="JV45" t="n">
+      <c r="JV45" s="2" t="n">
         <v>198</v>
+      </c>
+      <c r="JW45" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="1">
@@ -39549,8 +39684,11 @@
       <c r="JU46" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="JV46" t="n">
+      <c r="JV46" s="2" t="n">
         <v>249</v>
+      </c>
+      <c r="JW46" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="1">
@@ -40399,8 +40537,11 @@
       <c r="JU47" s="2" t="n">
         <v>73.3</v>
       </c>
-      <c r="JV47" t="n">
+      <c r="JV47" s="2" t="n">
         <v>69.90000000000001</v>
+      </c>
+      <c r="JW47" t="n">
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="1">
@@ -41249,8 +41390,11 @@
       <c r="JU48" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JV48" t="n">
+      <c r="JV48" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="JW48" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="1">
@@ -42099,8 +42243,11 @@
       <c r="JU49" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JV49" t="n">
+      <c r="JV49" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JW49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="1">
@@ -42949,8 +43096,11 @@
       <c r="JU50" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JV50" t="n">
+      <c r="JV50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JW50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="1">
@@ -43799,8 +43949,11 @@
       <c r="JU51" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JV51" t="n">
+      <c r="JV51" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JW51" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="1">
@@ -44649,8 +44802,11 @@
       <c r="JU52" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JV52" t="n">
+      <c r="JV52" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JW52" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="1">
@@ -45499,8 +45655,11 @@
       <c r="JU53" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JV53" t="n">
+      <c r="JV53" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JW53" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="1">
@@ -46349,7 +46508,10 @@
       <c r="JU54" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JV54" t="n">
+      <c r="JV54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47199,8 +47361,11 @@
       <c r="JU55" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JV55" t="n">
+      <c r="JV55" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JW55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="1">
@@ -48049,8 +48214,11 @@
       <c r="JU56" s="2" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="JV56" t="n">
+      <c r="JV56" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="JW56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="1">
@@ -48899,8 +49067,11 @@
       <c r="JU57" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="JV57" t="n">
+      <c r="JV57" s="2" t="n">
         <v>229</v>
+      </c>
+      <c r="JW57" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="1">
@@ -49749,8 +49920,11 @@
       <c r="JU58" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="JV58" t="n">
+      <c r="JV58" s="2" t="n">
         <v>171</v>
+      </c>
+      <c r="JW58" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="1">
@@ -50599,8 +50773,11 @@
       <c r="JU59" s="2" t="n">
         <v>358</v>
       </c>
-      <c r="JV59" t="n">
+      <c r="JV59" s="2" t="n">
         <v>400</v>
+      </c>
+      <c r="JW59" t="n">
+        <v>364</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="1">
@@ -51449,8 +51626,11 @@
       <c r="JU60" s="2" t="n">
         <v>1.52</v>
       </c>
-      <c r="JV60" t="n">
+      <c r="JV60" s="2" t="n">
         <v>1.34</v>
+      </c>
+      <c r="JW60" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="1">
@@ -52299,8 +52479,11 @@
       <c r="JU61" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="JV61" t="n">
+      <c r="JV61" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JW61" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="1">
@@ -53149,8 +53332,11 @@
       <c r="JU62" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JV62" t="n">
+      <c r="JV62" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="JW62" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="1">
@@ -53999,8 +54185,11 @@
       <c r="JU63" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JV63" t="n">
+      <c r="JV63" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JW63" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="1">
@@ -54849,7 +55038,10 @@
       <c r="JU64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JV64" t="n">
+      <c r="JV64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JW64" t="n">
         <v>20</v>
       </c>
     </row>
@@ -55699,8 +55891,11 @@
       <c r="JU65" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JV65" t="n">
+      <c r="JV65" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JW65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="1">
@@ -56549,8 +56744,11 @@
       <c r="JU66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JV66" t="n">
+      <c r="JV66" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JW66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="1">
@@ -57399,8 +57597,11 @@
       <c r="JU67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JV67" t="n">
+      <c r="JV67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JW67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="1">
@@ -58249,7 +58450,10 @@
       <c r="JU68" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JV68" t="n">
+      <c r="JV68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JW68" t="n">
         <v>10</v>
       </c>
     </row>
@@ -59099,8 +59303,11 @@
       <c r="JU69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JV69" t="n">
+      <c r="JV69" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JW69" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="1">
@@ -59949,8 +60156,11 @@
       <c r="JU70" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JV70" t="n">
+      <c r="JV70" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JW70" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="1">
@@ -60799,8 +61009,11 @@
       <c r="JU71" s="2" t="n">
         <v>38.5</v>
       </c>
-      <c r="JV71" t="n">
+      <c r="JV71" s="2" t="n">
         <v>34.8</v>
+      </c>
+      <c r="JW71" t="n">
+        <v>41.4</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="1">
@@ -61649,8 +61862,11 @@
       <c r="JU72" s="2" t="n">
         <v>35.8</v>
       </c>
-      <c r="JV72" t="n">
+      <c r="JV72" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JW72" t="n">
+        <v>30.33</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="1">
@@ -62499,8 +62715,11 @@
       <c r="JU73" s="2" t="n">
         <v>13.77</v>
       </c>
-      <c r="JV73" t="n">
+      <c r="JV73" s="2" t="n">
         <v>17.39</v>
+      </c>
+      <c r="JW73" t="n">
+        <v>12.55</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="1">
@@ -63349,8 +63568,11 @@
       <c r="JU74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JV74" t="n">
+      <c r="JV74" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JW74" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="1">
@@ -64199,8 +64421,11 @@
       <c r="JU75" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JV75" t="n">
+      <c r="JV75" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JW75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="1">
@@ -65049,8 +65274,11 @@
       <c r="JU76" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JV76" t="n">
+      <c r="JV76" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JW76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="1">
@@ -65899,8 +66127,11 @@
       <c r="JU77" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JV77" t="n">
+      <c r="JV77" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JW77" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="1">
@@ -66749,8 +66980,11 @@
       <c r="JU78" s="2" t="n">
         <v>2.04</v>
       </c>
-      <c r="JV78" t="n">
+      <c r="JV78" s="2" t="n">
         <v>2.57</v>
+      </c>
+      <c r="JW78" t="n">
+        <v>2.21</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="1">
@@ -67599,8 +67833,11 @@
       <c r="JU79" s="2" t="n">
         <v>5.3</v>
       </c>
-      <c r="JV79" t="n">
+      <c r="JV79" s="2" t="n">
         <v>7.38</v>
+      </c>
+      <c r="JW79" t="n">
+        <v>5.33</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="1">
@@ -68449,8 +68686,11 @@
       <c r="JU80" s="2" t="n">
         <v>43.4</v>
       </c>
-      <c r="JV80" t="n">
+      <c r="JV80" s="2" t="n">
         <v>30.5</v>
+      </c>
+      <c r="JW80" t="n">
+        <v>34.4</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="1">
@@ -69299,8 +69539,11 @@
       <c r="JU81" s="2" t="n">
         <v>18.9</v>
       </c>
-      <c r="JV81" t="n">
+      <c r="JV81" s="2" t="n">
         <v>13.6</v>
+      </c>
+      <c r="JW81" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="1">
@@ -70149,8 +70392,11 @@
       <c r="JU82" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="JV82" t="n">
+      <c r="JV82" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="JW82" t="n">
+        <v>189.3</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="1">
@@ -70999,8 +71245,11 @@
       <c r="JU83" s="2" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="JV83" t="n">
+      <c r="JV83" s="2" t="n">
         <v>87.7</v>
+      </c>
+      <c r="JW83" t="n">
+        <v>87.8</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="1">
@@ -71849,8 +72098,11 @@
       <c r="JU84" s="2" t="n">
         <v>24.49</v>
       </c>
-      <c r="JV84" t="n">
+      <c r="JV84" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JW84" t="n">
+        <v>27.16</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="1">
@@ -72699,8 +72951,11 @@
       <c r="JU85" s="2" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="JV85" t="n">
+      <c r="JV85" s="2" t="n">
         <v>118.3</v>
+      </c>
+      <c r="JW85" t="n">
+        <v>114.2</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="1">
@@ -73549,8 +73804,11 @@
       <c r="JU86" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JV86" t="n">
+      <c r="JV86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JW86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="1">
@@ -74399,8 +74657,11 @@
       <c r="JU87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JV87" t="n">
+      <c r="JV87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JW87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="1">
@@ -75249,8 +75510,11 @@
       <c r="JU88" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JV88" t="n">
+      <c r="JV88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JW88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="1">
@@ -76099,8 +76363,11 @@
       <c r="JU89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JV89" t="n">
+      <c r="JV89" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JW89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="1">
@@ -76949,8 +77216,11 @@
       <c r="JU90" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="JV90" t="n">
+      <c r="JV90" s="2" t="n">
         <v>161</v>
+      </c>
+      <c r="JW90" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="1">
@@ -77799,8 +78069,11 @@
       <c r="JU91" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="JV91" t="n">
+      <c r="JV91" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="JW91" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="1">
@@ -78649,8 +78922,11 @@
       <c r="JU92" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="JV92" t="n">
+      <c r="JV92" s="2" t="n">
         <v>268</v>
+      </c>
+      <c r="JW92" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="1">
@@ -79499,8 +79775,11 @@
       <c r="JU93" s="2" t="n">
         <v>70.7</v>
       </c>
-      <c r="JV93" t="n">
+      <c r="JV93" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="JW93" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="1">
@@ -80349,8 +80628,11 @@
       <c r="JU94" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JV94" t="n">
+      <c r="JV94" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JW94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="1">
@@ -81199,8 +81481,11 @@
       <c r="JU95" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JV95" t="n">
+      <c r="JV95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JW95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="1">
@@ -82049,8 +82334,11 @@
       <c r="JU96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JV96" t="n">
+      <c r="JV96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JW96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="1">
@@ -82899,8 +83187,11 @@
       <c r="JU97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JV97" t="n">
+      <c r="JV97" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JW97" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="1">
@@ -83749,8 +84040,11 @@
       <c r="JU98" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JV98" t="n">
+      <c r="JV98" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JW98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="1">
@@ -84599,8 +84893,11 @@
       <c r="JU99" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JV99" t="n">
+      <c r="JV99" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JW99" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="1">
@@ -85449,7 +85746,10 @@
       <c r="JU100" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JV100" t="n">
+      <c r="JV100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JW100" t="n">
         <v>4</v>
       </c>
     </row>
@@ -86299,8 +86599,11 @@
       <c r="JU101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JV101" t="n">
+      <c r="JV101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JW101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="1">
@@ -87149,8 +87452,11 @@
       <c r="JU102" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="JV102" t="n">
+      <c r="JV102" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="JW102" t="n">
+        <v>41.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JX102"/>
+  <dimension ref="A1:KA102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HZ18" activeCellId="0" sqref="HZ18"/>
@@ -1305,8 +1305,17 @@
       <c r="JW1" s="2" t="n">
         <v>10781</v>
       </c>
-      <c r="JX1" t="n">
+      <c r="JX1" s="2" t="n">
         <v>10958</v>
+      </c>
+      <c r="JY1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="JZ1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="KA1" t="n">
+        <v>10803</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="1">
@@ -2161,7 +2170,16 @@
       <c r="JW2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JX2" t="n">
+      <c r="JX2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JY2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JZ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KA2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3017,8 +3035,17 @@
       <c r="JW3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JX3" t="n">
+      <c r="JX3" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JY3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="1">
@@ -3873,8 +3900,17 @@
       <c r="JW4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JX4" t="n">
+      <c r="JX4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JY4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="1">
@@ -4729,8 +4765,17 @@
       <c r="JW5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JX5" t="n">
+      <c r="JX5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="1">
@@ -5585,7 +5630,16 @@
       <c r="JW6" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="JX6" t="n">
+      <c r="JX6" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="JY6" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="JZ6" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="KA6" t="n">
         <v>78</v>
       </c>
     </row>
@@ -6441,8 +6495,17 @@
       <c r="JW7" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="JX7" t="n">
+      <c r="JX7" s="2" t="n">
         <v>122</v>
+      </c>
+      <c r="JY7" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="JZ7" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="KA7" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="1">
@@ -7297,8 +7360,17 @@
       <c r="JW8" s="2" t="n">
         <v>-5</v>
       </c>
-      <c r="JX8" t="n">
+      <c r="JX8" s="2" t="n">
         <v>-44</v>
+      </c>
+      <c r="JY8" s="2" t="n">
+        <v>-18</v>
+      </c>
+      <c r="JZ8" s="2" t="n">
+        <v>-18</v>
+      </c>
+      <c r="KA8" t="n">
+        <v>-18</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="1">
@@ -8153,7 +8225,16 @@
       <c r="JW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JX9" t="n">
+      <c r="JX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9009,8 +9090,17 @@
       <c r="JW10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JX10" t="n">
+      <c r="JX10" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JY10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JZ10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KA10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="1">
@@ -9865,8 +9955,17 @@
       <c r="JW11" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="JX11" t="n">
+      <c r="JX11" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="JY11" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="JZ11" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="KA11" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="1">
@@ -10721,8 +10820,17 @@
       <c r="JW12" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="JX12" t="n">
+      <c r="JX12" s="2" t="n">
         <v>164</v>
+      </c>
+      <c r="JY12" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JZ12" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="KA12" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="1">
@@ -11577,8 +11685,17 @@
       <c r="JW13" s="2" t="n">
         <v>392</v>
       </c>
-      <c r="JX13" t="n">
+      <c r="JX13" s="2" t="n">
         <v>381</v>
+      </c>
+      <c r="JY13" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="JZ13" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="KA13" t="n">
+        <v>349</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="1">
@@ -12433,8 +12550,17 @@
       <c r="JW14" s="2" t="n">
         <v>1.25</v>
       </c>
-      <c r="JX14" t="n">
+      <c r="JX14" s="2" t="n">
         <v>1.32</v>
+      </c>
+      <c r="JY14" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JZ14" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="KA14" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="1">
@@ -13289,8 +13415,17 @@
       <c r="JW15" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="JX15" t="n">
+      <c r="JX15" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="JY15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JZ15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="KA15" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="1">
@@ -14145,8 +14280,17 @@
       <c r="JW16" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="JX16" t="n">
+      <c r="JX16" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JY16" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JZ16" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KA16" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="1">
@@ -15001,8 +15145,17 @@
       <c r="JW17" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JX17" t="n">
+      <c r="JX17" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JY17" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JZ17" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KA17" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="1">
@@ -15857,8 +16010,17 @@
       <c r="JW18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JX18" t="n">
+      <c r="JX18" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JY18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JZ18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KA18" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="1">
@@ -16713,8 +16875,17 @@
       <c r="JW19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JX19" t="n">
+      <c r="JX19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JY19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JZ19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KA19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="1">
@@ -17569,7 +17740,16 @@
       <c r="JW20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JX20" t="n">
+      <c r="JX20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JY20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JZ20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KA20" t="n">
         <v>11</v>
       </c>
     </row>
@@ -18425,8 +18605,17 @@
       <c r="JW21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JX21" t="n">
+      <c r="JX21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JY21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="1">
@@ -19281,8 +19470,17 @@
       <c r="JW22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JX22" t="n">
+      <c r="JX22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JY22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JZ22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KA22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="1">
@@ -20137,8 +20335,17 @@
       <c r="JW23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JX23" t="n">
+      <c r="JX23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JY23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="1">
@@ -20993,7 +21200,16 @@
       <c r="JW24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JX24" t="n">
+      <c r="JX24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JY24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JZ24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KA24" t="n">
         <v>23</v>
       </c>
     </row>
@@ -21849,7 +22065,16 @@
       <c r="JW25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JX25" t="n">
+      <c r="JX25" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="JY25" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="JZ25" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="KA25" t="n">
         <v>47.8</v>
       </c>
     </row>
@@ -22705,8 +22930,17 @@
       <c r="JW26" s="2" t="n">
         <v>32.67</v>
       </c>
-      <c r="JX26" t="n">
+      <c r="JX26" s="2" t="n">
         <v>34.64</v>
+      </c>
+      <c r="JY26" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="JZ26" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="KA26" t="n">
+        <v>31.73</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="1">
@@ -23561,8 +23795,17 @@
       <c r="JW27" s="2" t="n">
         <v>16.33</v>
       </c>
-      <c r="JX27" t="n">
+      <c r="JX27" s="2" t="n">
         <v>16.57</v>
+      </c>
+      <c r="JY27" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="JZ27" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="KA27" t="n">
+        <v>15.17</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="1">
@@ -24417,8 +24660,17 @@
       <c r="JW28" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JX28" t="n">
+      <c r="JX28" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JY28" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JZ28" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KA28" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="1">
@@ -25273,7 +25525,16 @@
       <c r="JW29" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="JX29" t="n">
+      <c r="JX29" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JY29" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JZ29" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KA29" t="n">
         <v>76</v>
       </c>
     </row>
@@ -26129,8 +26390,17 @@
       <c r="JW30" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JX30" t="n">
+      <c r="JX30" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JY30" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JZ30" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KA30" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="1">
@@ -26985,8 +27255,17 @@
       <c r="JW31" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JX31" t="n">
+      <c r="JX31" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JY31" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JZ31" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KA31" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="1">
@@ -27841,8 +28120,17 @@
       <c r="JW32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JX32" t="n">
+      <c r="JX32" s="2" t="n">
         <v>2.43</v>
+      </c>
+      <c r="JY32" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="JZ32" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="KA32" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="1">
@@ -28697,8 +28985,17 @@
       <c r="JW33" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JX33" t="n">
+      <c r="JX33" s="2" t="n">
         <v>5.09</v>
+      </c>
+      <c r="JY33" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="JZ33" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="KA33" t="n">
+        <v>5.55</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="1">
@@ -29553,8 +29850,17 @@
       <c r="JW34" s="2" t="n">
         <v>41.7</v>
       </c>
-      <c r="JX34" t="n">
+      <c r="JX34" s="2" t="n">
         <v>33.9</v>
+      </c>
+      <c r="JY34" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="JZ34" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="KA34" t="n">
+        <v>36.1</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="1">
@@ -30409,8 +30715,17 @@
       <c r="JW35" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JX35" t="n">
+      <c r="JX35" s="2" t="n">
         <v>19.6</v>
+      </c>
+      <c r="JY35" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JZ35" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KA35" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="1">
@@ -31265,8 +31580,17 @@
       <c r="JW36" s="2" t="n">
         <v>186.6</v>
       </c>
-      <c r="JX36" t="n">
+      <c r="JX36" s="2" t="n">
         <v>186.2</v>
+      </c>
+      <c r="JY36" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="JZ36" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="KA36" t="n">
+        <v>186.1</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="1">
@@ -32121,8 +32445,17 @@
       <c r="JW37" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="JX37" t="n">
+      <c r="JX37" s="2" t="n">
         <v>85.09999999999999</v>
+      </c>
+      <c r="JY37" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="JZ37" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="KA37" t="n">
+        <v>85.2</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="1">
@@ -32977,8 +33310,17 @@
       <c r="JW38" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="JX38" t="n">
+      <c r="JX38" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JY38" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="JZ38" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="KA38" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="1">
@@ -33833,8 +34175,17 @@
       <c r="JW39" s="2" t="n">
         <v>109.3</v>
       </c>
-      <c r="JX39" t="n">
+      <c r="JX39" s="2" t="n">
         <v>106.9</v>
+      </c>
+      <c r="JY39" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="JZ39" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="KA39" t="n">
+        <v>113.5</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="1">
@@ -34689,8 +35040,17 @@
       <c r="JW40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JX40" t="n">
+      <c r="JX40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JY40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="1">
@@ -35545,7 +35905,16 @@
       <c r="JW41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JX41" t="n">
+      <c r="JX41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JY41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36401,8 +36770,17 @@
       <c r="JW42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JX42" t="n">
+      <c r="JX42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JY42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="1">
@@ -37257,7 +37635,16 @@
       <c r="JW43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JX43" t="n">
+      <c r="JX43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JY43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -38113,8 +38500,17 @@
       <c r="JW44" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="JX44" t="n">
+      <c r="JX44" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="JY44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="JZ44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KA44" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="1">
@@ -38969,8 +39365,17 @@
       <c r="JW45" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="JX45" t="n">
+      <c r="JX45" s="2" t="n">
         <v>235</v>
+      </c>
+      <c r="JY45" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="JZ45" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="KA45" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="1">
@@ -39825,8 +40230,17 @@
       <c r="JW46" s="2" t="n">
         <v>273</v>
       </c>
-      <c r="JX46" t="n">
+      <c r="JX46" s="2" t="n">
         <v>271</v>
+      </c>
+      <c r="JY46" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="JZ46" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="KA46" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="1">
@@ -40681,8 +41095,17 @@
       <c r="JW47" s="2" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="JX47" t="n">
+      <c r="JX47" s="2" t="n">
         <v>71.09999999999999</v>
+      </c>
+      <c r="JY47" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="JZ47" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="KA47" t="n">
+        <v>68.2</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="1">
@@ -41537,7 +41960,16 @@
       <c r="JW48" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="JX48" t="n">
+      <c r="JX48" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JY48" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JZ48" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KA48" t="n">
         <v>76</v>
       </c>
     </row>
@@ -42393,8 +42825,17 @@
       <c r="JW49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JX49" t="n">
+      <c r="JX49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JY49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="1">
@@ -43249,8 +43690,17 @@
       <c r="JW50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JX50" t="n">
+      <c r="JX50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JY50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JZ50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KA50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="1">
@@ -44105,8 +44555,17 @@
       <c r="JW51" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JX51" t="n">
+      <c r="JX51" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JY51" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JZ51" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KA51" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="1">
@@ -44961,8 +45420,17 @@
       <c r="JW52" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JX52" t="n">
+      <c r="JX52" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JY52" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JZ52" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KA52" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="1">
@@ -45817,8 +46285,17 @@
       <c r="JW53" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JX53" t="n">
+      <c r="JX53" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JY53" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JZ53" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="KA53" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="1">
@@ -46673,8 +47150,17 @@
       <c r="JW54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JX54" t="n">
+      <c r="JX54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JY54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="1">
@@ -47529,8 +48015,17 @@
       <c r="JW55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JX55" t="n">
+      <c r="JX55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JY55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="1">
@@ -48385,8 +48880,17 @@
       <c r="JW56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JX56" t="n">
+      <c r="JX56" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="JY56" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JZ56" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="KA56" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="1">
@@ -49241,8 +49745,17 @@
       <c r="JW57" s="2" t="n">
         <v>239</v>
       </c>
-      <c r="JX57" t="n">
+      <c r="JX57" s="2" t="n">
         <v>238</v>
+      </c>
+      <c r="JY57" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="JZ57" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="KA57" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="1">
@@ -50097,8 +50610,17 @@
       <c r="JW58" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="JX58" t="n">
+      <c r="JX58" s="2" t="n">
         <v>129</v>
+      </c>
+      <c r="JY58" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="JZ58" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KA58" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="1">
@@ -50953,8 +51475,17 @@
       <c r="JW59" s="2" t="n">
         <v>364</v>
       </c>
-      <c r="JX59" t="n">
+      <c r="JX59" s="2" t="n">
         <v>367</v>
+      </c>
+      <c r="JY59" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="JZ59" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="KA59" t="n">
+        <v>381</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="1">
@@ -51809,8 +52340,17 @@
       <c r="JW60" s="2" t="n">
         <v>1.91</v>
       </c>
-      <c r="JX60" t="n">
+      <c r="JX60" s="2" t="n">
         <v>1.84</v>
+      </c>
+      <c r="JY60" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="JZ60" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="KA60" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="1">
@@ -52665,8 +53205,17 @@
       <c r="JW61" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="JX61" t="n">
+      <c r="JX61" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="JY61" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JZ61" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KA61" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="1">
@@ -53521,8 +54070,17 @@
       <c r="JW62" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JX62" t="n">
+      <c r="JX62" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JY62" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JZ62" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KA62" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="1">
@@ -54377,8 +54935,17 @@
       <c r="JW63" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JX63" t="n">
+      <c r="JX63" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JY63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JZ63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KA63" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="1">
@@ -55233,8 +55800,17 @@
       <c r="JW64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JX64" t="n">
+      <c r="JX64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JY64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JZ64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KA64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="1">
@@ -56089,8 +56665,17 @@
       <c r="JW65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JX65" t="n">
+      <c r="JX65" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JY65" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JZ65" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KA65" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="1">
@@ -56945,8 +57530,17 @@
       <c r="JW66" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JX66" t="n">
+      <c r="JX66" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JY66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JZ66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KA66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="1">
@@ -57801,8 +58395,17 @@
       <c r="JW67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JX67" t="n">
+      <c r="JX67" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JY67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="1">
@@ -58657,8 +59260,17 @@
       <c r="JW68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JX68" t="n">
+      <c r="JX68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JY68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="1">
@@ -59513,8 +60125,17 @@
       <c r="JW69" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JX69" t="n">
+      <c r="JX69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JY69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="1">
@@ -60369,8 +60990,17 @@
       <c r="JW70" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JX70" t="n">
+      <c r="JX70" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JY70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JZ70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KA70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="1">
@@ -61225,8 +61855,17 @@
       <c r="JW71" s="2" t="n">
         <v>41.4</v>
       </c>
-      <c r="JX71" t="n">
+      <c r="JX71" s="2" t="n">
         <v>56.2</v>
+      </c>
+      <c r="JY71" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JZ71" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="KA71" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="1">
@@ -62081,8 +62720,17 @@
       <c r="JW72" s="2" t="n">
         <v>30.33</v>
       </c>
-      <c r="JX72" t="n">
+      <c r="JX72" s="2" t="n">
         <v>20.39</v>
+      </c>
+      <c r="JY72" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="JZ72" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="KA72" t="n">
+        <v>25.4</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="1">
@@ -62937,8 +63585,17 @@
       <c r="JW73" s="2" t="n">
         <v>12.55</v>
       </c>
-      <c r="JX73" t="n">
+      <c r="JX73" s="2" t="n">
         <v>11.47</v>
+      </c>
+      <c r="JY73" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="JZ73" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="KA73" t="n">
+        <v>18.14</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="1">
@@ -63793,8 +64450,17 @@
       <c r="JW74" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JX74" t="n">
+      <c r="JX74" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JY74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JZ74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KA74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="1">
@@ -64649,8 +65315,17 @@
       <c r="JW75" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JX75" t="n">
+      <c r="JX75" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JY75" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JZ75" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KA75" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="1">
@@ -65505,8 +66180,17 @@
       <c r="JW76" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JX76" t="n">
+      <c r="JX76" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JY76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JZ76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KA76" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="1">
@@ -66361,8 +67045,17 @@
       <c r="JW77" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JX77" t="n">
+      <c r="JX77" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="JY77" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JZ77" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KA77" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="1">
@@ -67217,8 +67910,17 @@
       <c r="JW78" s="2" t="n">
         <v>2.21</v>
       </c>
-      <c r="JX78" t="n">
+      <c r="JX78" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JY78" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="JZ78" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="KA78" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="1">
@@ -68073,8 +68775,17 @@
       <c r="JW79" s="2" t="n">
         <v>5.33</v>
       </c>
-      <c r="JX79" t="n">
+      <c r="JX79" s="2" t="n">
         <v>3.56</v>
+      </c>
+      <c r="JY79" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="JZ79" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="KA79" t="n">
+        <v>3.53</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="1">
@@ -68929,8 +69640,17 @@
       <c r="JW80" s="2" t="n">
         <v>34.4</v>
       </c>
-      <c r="JX80" t="n">
+      <c r="JX80" s="2" t="n">
         <v>43.8</v>
+      </c>
+      <c r="JY80" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="JZ80" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="KA80" t="n">
+        <v>39.6</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="1">
@@ -69785,8 +70505,17 @@
       <c r="JW81" s="2" t="n">
         <v>18.8</v>
       </c>
-      <c r="JX81" t="n">
+      <c r="JX81" s="2" t="n">
         <v>28.1</v>
+      </c>
+      <c r="JY81" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="JZ81" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KA81" t="n">
+        <v>28.3</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="1">
@@ -70641,8 +71370,17 @@
       <c r="JW82" s="2" t="n">
         <v>189.3</v>
       </c>
-      <c r="JX82" t="n">
+      <c r="JX82" s="2" t="n">
         <v>186.4</v>
+      </c>
+      <c r="JY82" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="JZ82" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="KA82" t="n">
+        <v>186.8</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="1">
@@ -71497,8 +72235,17 @@
       <c r="JW83" s="2" t="n">
         <v>87.8</v>
       </c>
-      <c r="JX83" t="n">
+      <c r="JX83" s="2" t="n">
         <v>85.3</v>
+      </c>
+      <c r="JY83" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="JZ83" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="KA83" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="1">
@@ -72353,8 +73100,17 @@
       <c r="JW84" s="2" t="n">
         <v>27.16</v>
       </c>
-      <c r="JX84" t="n">
+      <c r="JX84" s="2" t="n">
         <v>24.24</v>
+      </c>
+      <c r="JY84" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="JZ84" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="KA84" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="1">
@@ -73209,8 +73965,17 @@
       <c r="JW85" s="2" t="n">
         <v>114.2</v>
       </c>
-      <c r="JX85" t="n">
+      <c r="JX85" s="2" t="n">
         <v>82.59999999999999</v>
+      </c>
+      <c r="JY85" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JZ85" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="KA85" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="1">
@@ -74065,8 +74830,17 @@
       <c r="JW86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JX86" t="n">
+      <c r="JX86" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JY86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="1">
@@ -74921,8 +75695,17 @@
       <c r="JW87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JX87" t="n">
+      <c r="JX87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JY87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="1">
@@ -75777,8 +76560,17 @@
       <c r="JW88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JX88" t="n">
+      <c r="JX88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JY88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="1">
@@ -76633,8 +77425,17 @@
       <c r="JW89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JX89" t="n">
+      <c r="JX89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JY89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="1">
@@ -77489,8 +78290,17 @@
       <c r="JW90" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="JX90" t="n">
+      <c r="JX90" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="JY90" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="JZ90" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="KA90" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="1">
@@ -78345,8 +79155,17 @@
       <c r="JW91" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="JX91" t="n">
+      <c r="JX91" s="2" t="n">
         <v>209</v>
+      </c>
+      <c r="JY91" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="JZ91" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="KA91" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="1">
@@ -79201,8 +80020,17 @@
       <c r="JW92" s="2" t="n">
         <v>265</v>
       </c>
-      <c r="JX92" t="n">
+      <c r="JX92" s="2" t="n">
         <v>263</v>
+      </c>
+      <c r="JY92" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="JZ92" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="KA92" t="n">
+        <v>301</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="1">
@@ -80057,8 +80885,17 @@
       <c r="JW93" s="2" t="n">
         <v>72.8</v>
       </c>
-      <c r="JX93" t="n">
+      <c r="JX93" s="2" t="n">
         <v>71.7</v>
+      </c>
+      <c r="JY93" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JZ93" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="KA93" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="1">
@@ -80913,8 +81750,17 @@
       <c r="JW94" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JX94" t="n">
+      <c r="JX94" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JY94" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JZ94" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KA94" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="1">
@@ -81769,8 +82615,17 @@
       <c r="JW95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JX95" t="n">
+      <c r="JX95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JY95" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JZ95" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KA95" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="1">
@@ -82625,8 +83480,17 @@
       <c r="JW96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JX96" t="n">
+      <c r="JX96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JY96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JZ96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KA96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="1">
@@ -83481,8 +84345,17 @@
       <c r="JW97" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JX97" t="n">
+      <c r="JX97" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JY97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JZ97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KA97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="1">
@@ -84337,8 +85210,17 @@
       <c r="JW98" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JX98" t="n">
+      <c r="JX98" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JY98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JZ98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KA98" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="1">
@@ -85193,8 +86075,17 @@
       <c r="JW99" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="JX99" t="n">
+      <c r="JX99" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JY99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JZ99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KA99" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="1">
@@ -86049,8 +86940,17 @@
       <c r="JW100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JX100" t="n">
+      <c r="JX100" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JY100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KA100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="1">
@@ -86905,8 +87805,17 @@
       <c r="JW101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JX101" t="n">
+      <c r="JX101" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JY101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="1">
@@ -87761,8 +88670,17 @@
       <c r="JW102" s="2" t="n">
         <v>41.7</v>
       </c>
-      <c r="JX102" t="n">
+      <c r="JX102" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="JY102" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="JZ102" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="KA102" t="n">
+        <v>53.3</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KA102"/>
+  <dimension ref="A1:KH102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HZ18" activeCellId="0" sqref="HZ18"/>
@@ -1314,7 +1314,28 @@
       <c r="JZ1" s="2" t="n">
         <v>10803</v>
       </c>
-      <c r="KA1" t="n">
+      <c r="KA1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="KB1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="KC1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="KD1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="KE1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="KF1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="KG1" s="2" t="n">
+        <v>10803</v>
+      </c>
+      <c r="KH1" t="n">
         <v>10803</v>
       </c>
     </row>
@@ -2179,7 +2200,28 @@
       <c r="JZ2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KA2" t="n">
+      <c r="KA2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KB2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KC2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KD2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KE2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KF2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KG2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KH2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3044,7 +3086,28 @@
       <c r="JZ3" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KA3" t="n">
+      <c r="KA3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KH3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3909,7 +3972,28 @@
       <c r="JZ4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KA4" t="n">
+      <c r="KA4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4774,7 +4858,28 @@
       <c r="JZ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KA5" t="n">
+      <c r="KA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5639,7 +5744,28 @@
       <c r="JZ6" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="KA6" t="n">
+      <c r="KA6" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="KB6" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="KC6" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="KD6" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="KE6" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="KF6" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="KG6" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="KH6" t="n">
         <v>78</v>
       </c>
     </row>
@@ -6504,7 +6630,28 @@
       <c r="JZ7" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="KA7" t="n">
+      <c r="KA7" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="KB7" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="KC7" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="KD7" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="KE7" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="KF7" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="KG7" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="KH7" t="n">
         <v>96</v>
       </c>
     </row>
@@ -7369,7 +7516,28 @@
       <c r="JZ8" s="2" t="n">
         <v>-18</v>
       </c>
-      <c r="KA8" t="n">
+      <c r="KA8" s="2" t="n">
+        <v>-18</v>
+      </c>
+      <c r="KB8" s="2" t="n">
+        <v>-18</v>
+      </c>
+      <c r="KC8" s="2" t="n">
+        <v>-18</v>
+      </c>
+      <c r="KD8" s="2" t="n">
+        <v>-18</v>
+      </c>
+      <c r="KE8" s="2" t="n">
+        <v>-18</v>
+      </c>
+      <c r="KF8" s="2" t="n">
+        <v>-18</v>
+      </c>
+      <c r="KG8" s="2" t="n">
+        <v>-18</v>
+      </c>
+      <c r="KH8" t="n">
         <v>-18</v>
       </c>
     </row>
@@ -8234,7 +8402,28 @@
       <c r="JZ9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KA9" t="n">
+      <c r="KA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9099,7 +9288,28 @@
       <c r="JZ10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KA10" t="n">
+      <c r="KA10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KB10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KC10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KD10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KE10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KF10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KG10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KH10" t="n">
         <v>11</v>
       </c>
     </row>
@@ -9964,7 +10174,28 @@
       <c r="JZ11" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="KA11" t="n">
+      <c r="KA11" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="KB11" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="KC11" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="KD11" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="KE11" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="KF11" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="KG11" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="KH11" t="n">
         <v>213</v>
       </c>
     </row>
@@ -10829,7 +11060,28 @@
       <c r="JZ12" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="KA12" t="n">
+      <c r="KA12" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="KB12" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="KC12" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="KD12" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="KE12" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="KF12" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="KG12" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="KH12" t="n">
         <v>136</v>
       </c>
     </row>
@@ -11694,7 +11946,28 @@
       <c r="JZ13" s="2" t="n">
         <v>349</v>
       </c>
-      <c r="KA13" t="n">
+      <c r="KA13" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="KB13" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="KC13" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="KD13" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="KE13" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="KF13" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="KG13" s="2" t="n">
+        <v>349</v>
+      </c>
+      <c r="KH13" t="n">
         <v>349</v>
       </c>
     </row>
@@ -12559,7 +12832,28 @@
       <c r="JZ14" s="2" t="n">
         <v>1.57</v>
       </c>
-      <c r="KA14" t="n">
+      <c r="KA14" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="KB14" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="KC14" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="KD14" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="KE14" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="KF14" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="KG14" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="KH14" t="n">
         <v>1.57</v>
       </c>
     </row>
@@ -13424,7 +13718,28 @@
       <c r="JZ15" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="KA15" t="n">
+      <c r="KA15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="KB15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="KC15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="KD15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="KE15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="KF15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="KG15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="KH15" t="n">
         <v>81</v>
       </c>
     </row>
@@ -14289,7 +14604,28 @@
       <c r="JZ16" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KA16" t="n">
+      <c r="KA16" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KB16" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KC16" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KD16" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KE16" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KF16" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KG16" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KH16" t="n">
         <v>51</v>
       </c>
     </row>
@@ -15154,7 +15490,28 @@
       <c r="JZ17" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KA17" t="n">
+      <c r="KA17" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KB17" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KC17" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KD17" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KE17" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KF17" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KG17" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KH17" t="n">
         <v>23</v>
       </c>
     </row>
@@ -16019,7 +16376,28 @@
       <c r="JZ18" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KA18" t="n">
+      <c r="KA18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KB18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KC18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KD18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KE18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KF18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KG18" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KH18" t="n">
         <v>27</v>
       </c>
     </row>
@@ -16884,7 +17262,28 @@
       <c r="JZ19" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KA19" t="n">
+      <c r="KA19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KB19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KC19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KD19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KE19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KF19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KG19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KH19" t="n">
         <v>23</v>
       </c>
     </row>
@@ -17749,7 +18148,28 @@
       <c r="JZ20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KA20" t="n">
+      <c r="KA20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KB20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KC20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KD20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KE20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KF20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KG20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KH20" t="n">
         <v>11</v>
       </c>
     </row>
@@ -18614,7 +19034,28 @@
       <c r="JZ21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KA21" t="n">
+      <c r="KA21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH21" t="n">
         <v>7</v>
       </c>
     </row>
@@ -19479,7 +19920,28 @@
       <c r="JZ22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KA22" t="n">
+      <c r="KA22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KB22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KC22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KD22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KE22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KF22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KG22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KH22" t="n">
         <v>11</v>
       </c>
     </row>
@@ -20344,7 +20806,28 @@
       <c r="JZ23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KA23" t="n">
+      <c r="KA23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21209,7 +21692,28 @@
       <c r="JZ24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KA24" t="n">
+      <c r="KA24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KB24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KC24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KD24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KE24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KF24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KG24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KH24" t="n">
         <v>23</v>
       </c>
     </row>
@@ -22074,7 +22578,28 @@
       <c r="JZ25" s="2" t="n">
         <v>47.8</v>
       </c>
-      <c r="KA25" t="n">
+      <c r="KA25" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="KB25" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="KC25" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="KD25" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="KE25" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="KF25" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="KG25" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="KH25" t="n">
         <v>47.8</v>
       </c>
     </row>
@@ -22939,7 +23464,28 @@
       <c r="JZ26" s="2" t="n">
         <v>31.73</v>
       </c>
-      <c r="KA26" t="n">
+      <c r="KA26" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="KB26" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="KC26" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="KD26" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="KE26" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="KF26" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="KG26" s="2" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="KH26" t="n">
         <v>31.73</v>
       </c>
     </row>
@@ -23804,7 +24350,28 @@
       <c r="JZ27" s="2" t="n">
         <v>15.17</v>
       </c>
-      <c r="KA27" t="n">
+      <c r="KA27" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="KB27" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="KC27" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="KD27" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="KE27" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="KF27" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="KG27" s="2" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="KH27" t="n">
         <v>15.17</v>
       </c>
     </row>
@@ -24669,7 +25236,28 @@
       <c r="JZ28" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KA28" t="n">
+      <c r="KA28" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KB28" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KC28" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KD28" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KE28" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KF28" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KG28" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KH28" t="n">
         <v>29</v>
       </c>
     </row>
@@ -25534,7 +26122,28 @@
       <c r="JZ29" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="KA29" t="n">
+      <c r="KA29" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KB29" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KC29" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KD29" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KE29" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KF29" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KG29" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KH29" t="n">
         <v>76</v>
       </c>
     </row>
@@ -26399,7 +27008,28 @@
       <c r="JZ30" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KA30" t="n">
+      <c r="KA30" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KB30" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KC30" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KD30" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KE30" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KF30" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KG30" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KH30" t="n">
         <v>37</v>
       </c>
     </row>
@@ -27264,7 +27894,28 @@
       <c r="JZ31" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KA31" t="n">
+      <c r="KA31" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KB31" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KC31" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KD31" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KE31" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KF31" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KG31" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KH31" t="n">
         <v>61</v>
       </c>
     </row>
@@ -28129,7 +28780,28 @@
       <c r="JZ32" s="2" t="n">
         <v>2.65</v>
       </c>
-      <c r="KA32" t="n">
+      <c r="KA32" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="KB32" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="KC32" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="KD32" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="KE32" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="KF32" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="KG32" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="KH32" t="n">
         <v>2.65</v>
       </c>
     </row>
@@ -28994,7 +29666,28 @@
       <c r="JZ33" s="2" t="n">
         <v>5.55</v>
       </c>
-      <c r="KA33" t="n">
+      <c r="KA33" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="KB33" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="KC33" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="KD33" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="KE33" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="KF33" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="KG33" s="2" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="KH33" t="n">
         <v>5.55</v>
       </c>
     </row>
@@ -29859,7 +30552,28 @@
       <c r="JZ34" s="2" t="n">
         <v>36.1</v>
       </c>
-      <c r="KA34" t="n">
+      <c r="KA34" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="KB34" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="KC34" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="KD34" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="KE34" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="KF34" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="KG34" s="2" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="KH34" t="n">
         <v>36.1</v>
       </c>
     </row>
@@ -30724,7 +31438,28 @@
       <c r="JZ35" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KA35" t="n">
+      <c r="KA35" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KB35" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KC35" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KD35" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KE35" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KF35" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KG35" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KH35" t="n">
         <v>18</v>
       </c>
     </row>
@@ -31589,7 +32324,28 @@
       <c r="JZ36" s="2" t="n">
         <v>186.1</v>
       </c>
-      <c r="KA36" t="n">
+      <c r="KA36" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="KB36" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="KC36" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="KD36" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="KE36" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="KF36" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="KG36" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="KH36" t="n">
         <v>186.1</v>
       </c>
     </row>
@@ -32454,7 +33210,28 @@
       <c r="JZ37" s="2" t="n">
         <v>85.2</v>
       </c>
-      <c r="KA37" t="n">
+      <c r="KA37" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="KB37" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="KC37" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="KD37" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="KE37" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="KF37" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="KG37" s="2" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="KH37" t="n">
         <v>85.2</v>
       </c>
     </row>
@@ -33319,7 +34096,28 @@
       <c r="JZ38" s="2" t="n">
         <v>26.33</v>
       </c>
-      <c r="KA38" t="n">
+      <c r="KA38" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="KB38" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="KC38" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="KD38" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="KE38" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="KF38" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="KG38" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="KH38" t="n">
         <v>26.33</v>
       </c>
     </row>
@@ -34184,7 +34982,28 @@
       <c r="JZ39" s="2" t="n">
         <v>113.5</v>
       </c>
-      <c r="KA39" t="n">
+      <c r="KA39" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="KB39" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="KC39" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="KD39" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="KE39" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="KF39" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="KG39" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="KH39" t="n">
         <v>113.5</v>
       </c>
     </row>
@@ -35049,7 +35868,28 @@
       <c r="JZ40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KA40" t="n">
+      <c r="KA40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KG40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KH40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -35914,7 +36754,28 @@
       <c r="JZ41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KA41" t="n">
+      <c r="KA41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KB41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KC41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KD41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KE41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KF41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KG41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KH41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36779,7 +37640,28 @@
       <c r="JZ42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KA42" t="n">
+      <c r="KA42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KB42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KC42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KD42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KE42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KF42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KG42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KH42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37644,7 +38526,28 @@
       <c r="JZ43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KA43" t="n">
+      <c r="KA43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -38509,7 +39412,28 @@
       <c r="JZ44" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="KA44" t="n">
+      <c r="KA44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KB44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KC44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KD44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KE44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KF44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KG44" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KH44" t="n">
         <v>144</v>
       </c>
     </row>
@@ -39374,7 +40298,28 @@
       <c r="JZ45" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="KA45" t="n">
+      <c r="KA45" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="KB45" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="KC45" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="KD45" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="KE45" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="KF45" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="KG45" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="KH45" t="n">
         <v>204</v>
       </c>
     </row>
@@ -40239,7 +41184,28 @@
       <c r="JZ46" s="2" t="n">
         <v>238</v>
       </c>
-      <c r="KA46" t="n">
+      <c r="KA46" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="KB46" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="KC46" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="KD46" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="KE46" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="KF46" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="KG46" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="KH46" t="n">
         <v>238</v>
       </c>
     </row>
@@ -41104,7 +42070,28 @@
       <c r="JZ47" s="2" t="n">
         <v>68.2</v>
       </c>
-      <c r="KA47" t="n">
+      <c r="KA47" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="KB47" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="KC47" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="KD47" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="KE47" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="KF47" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="KG47" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="KH47" t="n">
         <v>68.2</v>
       </c>
     </row>
@@ -41969,7 +42956,28 @@
       <c r="JZ48" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="KA48" t="n">
+      <c r="KA48" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KB48" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KC48" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KD48" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KE48" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KF48" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KG48" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KH48" t="n">
         <v>76</v>
       </c>
     </row>
@@ -42834,7 +43842,28 @@
       <c r="JZ49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KA49" t="n">
+      <c r="KA49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KG49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KH49" t="n">
         <v>8</v>
       </c>
     </row>
@@ -43699,7 +44728,28 @@
       <c r="JZ50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KA50" t="n">
+      <c r="KA50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KB50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KC50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KD50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KE50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KF50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KG50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KH50" t="n">
         <v>11</v>
       </c>
     </row>
@@ -44564,7 +45614,28 @@
       <c r="JZ51" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KA51" t="n">
+      <c r="KA51" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KB51" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KC51" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KD51" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KE51" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KF51" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KG51" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KH51" t="n">
         <v>29</v>
       </c>
     </row>
@@ -45429,7 +46500,28 @@
       <c r="JZ52" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KA52" t="n">
+      <c r="KA52" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KB52" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KC52" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KD52" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KE52" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KF52" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KG52" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KH52" t="n">
         <v>37</v>
       </c>
     </row>
@@ -46294,7 +47386,28 @@
       <c r="JZ53" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KA53" t="n">
+      <c r="KA53" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="KB53" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="KC53" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="KD53" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="KE53" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="KF53" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="KG53" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="KH53" t="n">
         <v>58</v>
       </c>
     </row>
@@ -47159,7 +48272,28 @@
       <c r="JZ54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KA54" t="n">
+      <c r="KA54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KG54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH54" t="n">
         <v>5</v>
       </c>
     </row>
@@ -48024,7 +49158,28 @@
       <c r="JZ55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KA55" t="n">
+      <c r="KA55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH55" t="n">
         <v>7</v>
       </c>
     </row>
@@ -48889,7 +50044,28 @@
       <c r="JZ56" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="KA56" t="n">
+      <c r="KA56" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="KB56" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="KC56" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="KD56" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="KE56" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="KF56" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="KG56" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="KH56" t="n">
         <v>63.6</v>
       </c>
     </row>
@@ -49754,7 +50930,28 @@
       <c r="JZ57" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="KA57" t="n">
+      <c r="KA57" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="KB57" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="KC57" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="KD57" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="KE57" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="KF57" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="KG57" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="KH57" t="n">
         <v>215</v>
       </c>
     </row>
@@ -50619,7 +51816,28 @@
       <c r="JZ58" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="KA58" t="n">
+      <c r="KA58" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KB58" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KC58" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KD58" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KE58" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KF58" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KG58" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KH58" t="n">
         <v>166</v>
       </c>
     </row>
@@ -51484,7 +52702,28 @@
       <c r="JZ59" s="2" t="n">
         <v>381</v>
       </c>
-      <c r="KA59" t="n">
+      <c r="KA59" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="KB59" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="KC59" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="KD59" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="KE59" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="KF59" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="KG59" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="KH59" t="n">
         <v>381</v>
       </c>
     </row>
@@ -52349,7 +53588,28 @@
       <c r="JZ60" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="KA60" t="n">
+      <c r="KA60" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="KB60" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="KC60" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="KD60" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="KE60" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="KF60" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="KG60" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="KH60" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -53214,7 +54474,28 @@
       <c r="JZ61" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="KA61" t="n">
+      <c r="KA61" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KB61" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KC61" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KD61" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KE61" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KF61" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KG61" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KH61" t="n">
         <v>103</v>
       </c>
     </row>
@@ -54079,7 +55360,28 @@
       <c r="JZ62" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KA62" t="n">
+      <c r="KA62" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KB62" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KC62" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KD62" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KE62" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KF62" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KG62" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KH62" t="n">
         <v>41</v>
       </c>
     </row>
@@ -54944,7 +56246,28 @@
       <c r="JZ63" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KA63" t="n">
+      <c r="KA63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KB63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KC63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KD63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KE63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KF63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KG63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KH63" t="n">
         <v>31</v>
       </c>
     </row>
@@ -55809,7 +57132,28 @@
       <c r="JZ64" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KA64" t="n">
+      <c r="KA64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KB64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KC64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KD64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KE64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KF64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KG64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KH64" t="n">
         <v>23</v>
       </c>
     </row>
@@ -56674,7 +58018,28 @@
       <c r="JZ65" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KA65" t="n">
+      <c r="KA65" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KB65" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KC65" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KD65" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KE65" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KF65" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KG65" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KH65" t="n">
         <v>27</v>
       </c>
     </row>
@@ -57539,7 +58904,28 @@
       <c r="JZ66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KA66" t="n">
+      <c r="KA66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KB66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KC66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KD66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KE66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KF66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KG66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KH66" t="n">
         <v>15</v>
       </c>
     </row>
@@ -58404,7 +59790,28 @@
       <c r="JZ67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KA67" t="n">
+      <c r="KA67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KG67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KH67" t="n">
         <v>8</v>
       </c>
     </row>
@@ -59269,7 +60676,28 @@
       <c r="JZ68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KA68" t="n">
+      <c r="KA68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KH68" t="n">
         <v>6</v>
       </c>
     </row>
@@ -60134,7 +61562,28 @@
       <c r="JZ69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KA69" t="n">
+      <c r="KA69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -60999,7 +62448,28 @@
       <c r="JZ70" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KA70" t="n">
+      <c r="KA70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KB70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KC70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KD70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KE70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KF70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KG70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KH70" t="n">
         <v>21</v>
       </c>
     </row>
@@ -61864,7 +63334,28 @@
       <c r="JZ71" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="KA71" t="n">
+      <c r="KA71" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="KB71" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="KC71" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="KD71" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="KE71" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="KF71" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="KG71" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="KH71" t="n">
         <v>71.40000000000001</v>
       </c>
     </row>
@@ -62729,7 +64220,28 @@
       <c r="JZ72" s="2" t="n">
         <v>25.4</v>
       </c>
-      <c r="KA72" t="n">
+      <c r="KA72" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="KB72" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="KC72" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="KD72" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="KE72" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="KF72" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="KG72" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="KH72" t="n">
         <v>25.4</v>
       </c>
     </row>
@@ -63594,7 +65106,28 @@
       <c r="JZ73" s="2" t="n">
         <v>18.14</v>
       </c>
-      <c r="KA73" t="n">
+      <c r="KA73" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="KB73" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="KC73" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="KD73" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="KE73" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="KF73" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="KG73" s="2" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="KH73" t="n">
         <v>18.14</v>
       </c>
     </row>
@@ -64459,7 +65992,28 @@
       <c r="JZ74" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KA74" t="n">
+      <c r="KA74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KB74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KC74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KD74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KE74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KF74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KG74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KH74" t="n">
         <v>35</v>
       </c>
     </row>
@@ -65324,7 +66878,28 @@
       <c r="JZ75" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KA75" t="n">
+      <c r="KA75" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KB75" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KC75" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KD75" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KE75" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KF75" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KG75" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KH75" t="n">
         <v>75</v>
       </c>
     </row>
@@ -66189,7 +67764,28 @@
       <c r="JZ76" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KA76" t="n">
+      <c r="KA76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KB76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KC76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KD76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KE76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KF76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KG76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KH76" t="n">
         <v>48</v>
       </c>
     </row>
@@ -67054,7 +68650,28 @@
       <c r="JZ77" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KA77" t="n">
+      <c r="KA77" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KB77" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KC77" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KD77" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KE77" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KF77" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KG77" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KH77" t="n">
         <v>53</v>
       </c>
     </row>
@@ -67919,7 +69536,28 @@
       <c r="JZ78" s="2" t="n">
         <v>2.52</v>
       </c>
-      <c r="KA78" t="n">
+      <c r="KA78" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="KB78" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="KC78" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="KD78" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="KE78" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="KF78" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="KG78" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="KH78" t="n">
         <v>2.52</v>
       </c>
     </row>
@@ -68784,7 +70422,28 @@
       <c r="JZ79" s="2" t="n">
         <v>3.53</v>
       </c>
-      <c r="KA79" t="n">
+      <c r="KA79" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="KB79" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="KC79" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="KD79" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="KE79" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="KF79" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="KG79" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="KH79" t="n">
         <v>3.53</v>
       </c>
     </row>
@@ -69649,7 +71308,28 @@
       <c r="JZ80" s="2" t="n">
         <v>39.6</v>
       </c>
-      <c r="KA80" t="n">
+      <c r="KA80" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="KB80" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="KC80" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="KD80" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="KE80" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="KF80" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="KG80" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="KH80" t="n">
         <v>39.6</v>
       </c>
     </row>
@@ -70514,7 +72194,28 @@
       <c r="JZ81" s="2" t="n">
         <v>28.3</v>
       </c>
-      <c r="KA81" t="n">
+      <c r="KA81" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KB81" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KC81" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KD81" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KE81" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KF81" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KG81" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KH81" t="n">
         <v>28.3</v>
       </c>
     </row>
@@ -71379,7 +73080,28 @@
       <c r="JZ82" s="2" t="n">
         <v>186.8</v>
       </c>
-      <c r="KA82" t="n">
+      <c r="KA82" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="KB82" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="KC82" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="KD82" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="KE82" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="KF82" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="KG82" s="2" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="KH82" t="n">
         <v>186.8</v>
       </c>
     </row>
@@ -72244,7 +73966,28 @@
       <c r="JZ83" s="2" t="n">
         <v>87.2</v>
       </c>
-      <c r="KA83" t="n">
+      <c r="KA83" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="KB83" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="KC83" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="KD83" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="KE83" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="KF83" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="KG83" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="KH83" t="n">
         <v>87.2</v>
       </c>
     </row>
@@ -73109,7 +74852,28 @@
       <c r="JZ84" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="KA84" t="n">
+      <c r="KA84" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="KB84" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="KC84" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="KD84" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="KE84" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="KF84" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="KG84" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="KH84" t="n">
         <v>25.58</v>
       </c>
     </row>
@@ -73974,7 +75738,28 @@
       <c r="JZ85" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="KA85" t="n">
+      <c r="KA85" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="KB85" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="KC85" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="KD85" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="KE85" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="KF85" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="KG85" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="KH85" t="n">
         <v>106</v>
       </c>
     </row>
@@ -74839,7 +76624,28 @@
       <c r="JZ86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KA86" t="n">
+      <c r="KA86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KG86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH86" t="n">
         <v>5</v>
       </c>
     </row>
@@ -75704,7 +77510,28 @@
       <c r="JZ87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KA87" t="n">
+      <c r="KA87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KG87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -76569,7 +78396,28 @@
       <c r="JZ88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KA88" t="n">
+      <c r="KA88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KG88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -77434,7 +79282,28 @@
       <c r="JZ89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KA89" t="n">
+      <c r="KA89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KG89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KH89" t="n">
         <v>8</v>
       </c>
     </row>
@@ -78299,7 +80168,28 @@
       <c r="JZ90" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="KA90" t="n">
+      <c r="KA90" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="KB90" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="KC90" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="KD90" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="KE90" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="KF90" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="KG90" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="KH90" t="n">
         <v>135</v>
       </c>
     </row>
@@ -79164,7 +81054,28 @@
       <c r="JZ91" s="2" t="n">
         <v>249</v>
       </c>
-      <c r="KA91" t="n">
+      <c r="KA91" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="KB91" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="KC91" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="KD91" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="KE91" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="KF91" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="KG91" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="KH91" t="n">
         <v>249</v>
       </c>
     </row>
@@ -80029,7 +81940,28 @@
       <c r="JZ92" s="2" t="n">
         <v>301</v>
       </c>
-      <c r="KA92" t="n">
+      <c r="KA92" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="KB92" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="KC92" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="KD92" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="KE92" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="KF92" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="KG92" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="KH92" t="n">
         <v>301</v>
       </c>
     </row>
@@ -80894,7 +82826,28 @@
       <c r="JZ93" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="KA93" t="n">
+      <c r="KA93" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="KB93" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="KC93" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="KD93" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="KE93" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="KF93" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="KG93" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="KH93" t="n">
         <v>79</v>
       </c>
     </row>
@@ -81759,7 +83712,28 @@
       <c r="JZ94" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KA94" t="n">
+      <c r="KA94" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KB94" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KC94" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KD94" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KE94" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KF94" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KG94" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KH94" t="n">
         <v>75</v>
       </c>
     </row>
@@ -82624,7 +84598,28 @@
       <c r="JZ95" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KA95" t="n">
+      <c r="KA95" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KB95" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KC95" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KD95" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KE95" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KF95" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KG95" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KH95" t="n">
         <v>18</v>
       </c>
     </row>
@@ -83489,7 +85484,28 @@
       <c r="JZ96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KA96" t="n">
+      <c r="KA96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KB96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KC96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KD96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KE96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KF96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KG96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KH96" t="n">
         <v>13</v>
       </c>
     </row>
@@ -84354,7 +86370,28 @@
       <c r="JZ97" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KA97" t="n">
+      <c r="KA97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KB97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KC97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KD97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KE97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KF97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KG97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KH97" t="n">
         <v>35</v>
       </c>
     </row>
@@ -85219,7 +87256,28 @@
       <c r="JZ98" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KA98" t="n">
+      <c r="KA98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KB98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KC98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KD98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KE98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KF98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KG98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KH98" t="n">
         <v>48</v>
       </c>
     </row>
@@ -86084,7 +88142,28 @@
       <c r="JZ99" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KA99" t="n">
+      <c r="KA99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KB99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KC99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KD99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KE99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KF99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KG99" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KH99" t="n">
         <v>37</v>
       </c>
     </row>
@@ -86949,7 +89028,28 @@
       <c r="JZ100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KA100" t="n">
+      <c r="KA100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KB100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KC100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KD100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KG100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH100" t="n">
         <v>2</v>
       </c>
     </row>
@@ -87814,7 +89914,28 @@
       <c r="JZ101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KA101" t="n">
+      <c r="KA101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KG101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KH101" t="n">
         <v>8</v>
       </c>
     </row>
@@ -88679,7 +90800,28 @@
       <c r="JZ102" s="2" t="n">
         <v>53.3</v>
       </c>
-      <c r="KA102" t="n">
+      <c r="KA102" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="KB102" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="KC102" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="KD102" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="KE102" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="KF102" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="KG102" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="KH102" t="n">
         <v>53.3</v>
       </c>
     </row>

--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KH102"/>
+  <dimension ref="A1:KI102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HZ18" activeCellId="0" sqref="HZ18"/>
@@ -1335,8 +1335,11 @@
       <c r="KG1" s="2" t="n">
         <v>10803</v>
       </c>
-      <c r="KH1" t="n">
+      <c r="KH1" s="2" t="n">
         <v>10803</v>
+      </c>
+      <c r="KI1" t="n">
+        <v>10812</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="1">
@@ -2221,7 +2224,10 @@
       <c r="KG2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KH2" t="n">
+      <c r="KH2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KI2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3107,8 +3113,11 @@
       <c r="KG3" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KH3" t="n">
+      <c r="KH3" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="1">
@@ -3993,8 +4002,11 @@
       <c r="KG4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KH4" t="n">
+      <c r="KH4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="1">
@@ -4879,8 +4891,11 @@
       <c r="KG5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KH5" t="n">
+      <c r="KH5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KI5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="1">
@@ -5765,8 +5780,11 @@
       <c r="KG6" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="KH6" t="n">
+      <c r="KH6" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="KI6" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="1">
@@ -6651,8 +6669,11 @@
       <c r="KG7" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="KH7" t="n">
+      <c r="KH7" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="KI7" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="1">
@@ -7537,8 +7558,11 @@
       <c r="KG8" s="2" t="n">
         <v>-18</v>
       </c>
-      <c r="KH8" t="n">
+      <c r="KH8" s="2" t="n">
         <v>-18</v>
+      </c>
+      <c r="KI8" t="n">
+        <v>-24</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="1">
@@ -8423,7 +8447,10 @@
       <c r="KG9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KH9" t="n">
+      <c r="KH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9309,8 +9336,11 @@
       <c r="KG10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KH10" t="n">
+      <c r="KH10" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KI10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="1">
@@ -10195,8 +10225,11 @@
       <c r="KG11" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="KH11" t="n">
+      <c r="KH11" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="KI11" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="1">
@@ -11081,8 +11114,11 @@
       <c r="KG12" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="KH12" t="n">
+      <c r="KH12" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="KI12" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="1">
@@ -11967,8 +12003,11 @@
       <c r="KG13" s="2" t="n">
         <v>349</v>
       </c>
-      <c r="KH13" t="n">
+      <c r="KH13" s="2" t="n">
         <v>349</v>
+      </c>
+      <c r="KI13" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="1">
@@ -12853,8 +12892,11 @@
       <c r="KG14" s="2" t="n">
         <v>1.57</v>
       </c>
-      <c r="KH14" t="n">
+      <c r="KH14" s="2" t="n">
         <v>1.57</v>
+      </c>
+      <c r="KI14" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="1">
@@ -13739,8 +13781,11 @@
       <c r="KG15" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="KH15" t="n">
+      <c r="KH15" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="KI15" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="1">
@@ -14625,8 +14670,11 @@
       <c r="KG16" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KH16" t="n">
+      <c r="KH16" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KI16" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="1">
@@ -15511,8 +15559,11 @@
       <c r="KG17" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KH17" t="n">
+      <c r="KH17" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KI17" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="1">
@@ -16397,8 +16448,11 @@
       <c r="KG18" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KH18" t="n">
+      <c r="KH18" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KI18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="1">
@@ -17283,8 +17337,11 @@
       <c r="KG19" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KH19" t="n">
+      <c r="KH19" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KI19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="1">
@@ -18169,8 +18226,11 @@
       <c r="KG20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KH20" t="n">
+      <c r="KH20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KI20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="1">
@@ -19055,8 +19115,11 @@
       <c r="KG21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KH21" t="n">
+      <c r="KH21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KI21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="1">
@@ -19941,8 +20004,11 @@
       <c r="KG22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KH22" t="n">
+      <c r="KH22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KI22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="1">
@@ -20827,8 +20893,11 @@
       <c r="KG23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KH23" t="n">
+      <c r="KH23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KI23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="1">
@@ -21713,8 +21782,11 @@
       <c r="KG24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KH24" t="n">
+      <c r="KH24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KI24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="1">
@@ -22599,8 +22671,11 @@
       <c r="KG25" s="2" t="n">
         <v>47.8</v>
       </c>
-      <c r="KH25" t="n">
+      <c r="KH25" s="2" t="n">
         <v>47.8</v>
+      </c>
+      <c r="KI25" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="1">
@@ -23485,8 +23560,11 @@
       <c r="KG26" s="2" t="n">
         <v>31.73</v>
       </c>
-      <c r="KH26" t="n">
+      <c r="KH26" s="2" t="n">
         <v>31.73</v>
+      </c>
+      <c r="KI26" t="n">
+        <v>56.5</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="1">
@@ -24371,8 +24449,11 @@
       <c r="KG27" s="2" t="n">
         <v>15.17</v>
       </c>
-      <c r="KH27" t="n">
+      <c r="KH27" s="2" t="n">
         <v>15.17</v>
+      </c>
+      <c r="KI27" t="n">
+        <v>18.83</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="1">
@@ -25257,8 +25338,11 @@
       <c r="KG28" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KH28" t="n">
+      <c r="KH28" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KI28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="1">
@@ -26143,8 +26227,11 @@
       <c r="KG29" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="KH29" t="n">
+      <c r="KH29" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="KI29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="1">
@@ -27029,8 +27116,11 @@
       <c r="KG30" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KH30" t="n">
+      <c r="KH30" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KI30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="1">
@@ -27915,8 +28005,11 @@
       <c r="KG31" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KH31" t="n">
+      <c r="KH31" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KI31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="1">
@@ -28801,8 +28894,11 @@
       <c r="KG32" s="2" t="n">
         <v>2.65</v>
       </c>
-      <c r="KH32" t="n">
+      <c r="KH32" s="2" t="n">
         <v>2.65</v>
+      </c>
+      <c r="KI32" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="1">
@@ -29687,8 +29783,11 @@
       <c r="KG33" s="2" t="n">
         <v>5.55</v>
       </c>
-      <c r="KH33" t="n">
+      <c r="KH33" s="2" t="n">
         <v>5.55</v>
+      </c>
+      <c r="KI33" t="n">
+        <v>8.83</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="1">
@@ -30573,8 +30672,11 @@
       <c r="KG34" s="2" t="n">
         <v>36.1</v>
       </c>
-      <c r="KH34" t="n">
+      <c r="KH34" s="2" t="n">
         <v>36.1</v>
+      </c>
+      <c r="KI34" t="n">
+        <v>28.3</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="1">
@@ -31459,8 +31561,11 @@
       <c r="KG35" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KH35" t="n">
+      <c r="KH35" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KI35" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="1">
@@ -32345,8 +32450,11 @@
       <c r="KG36" s="2" t="n">
         <v>186.1</v>
       </c>
-      <c r="KH36" t="n">
+      <c r="KH36" s="2" t="n">
         <v>186.1</v>
+      </c>
+      <c r="KI36" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="1">
@@ -33231,8 +33339,11 @@
       <c r="KG37" s="2" t="n">
         <v>85.2</v>
       </c>
-      <c r="KH37" t="n">
+      <c r="KH37" s="2" t="n">
         <v>85.2</v>
+      </c>
+      <c r="KI37" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="1">
@@ -34117,8 +34228,11 @@
       <c r="KG38" s="2" t="n">
         <v>26.33</v>
       </c>
-      <c r="KH38" t="n">
+      <c r="KH38" s="2" t="n">
         <v>26.33</v>
+      </c>
+      <c r="KI38" t="n">
+        <v>26.58</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="1">
@@ -35003,8 +35117,11 @@
       <c r="KG39" s="2" t="n">
         <v>113.5</v>
       </c>
-      <c r="KH39" t="n">
+      <c r="KH39" s="2" t="n">
         <v>113.5</v>
+      </c>
+      <c r="KI39" t="n">
+        <v>112.3</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="1">
@@ -35889,8 +36006,11 @@
       <c r="KG40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KH40" t="n">
+      <c r="KH40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KI40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="1">
@@ -36775,8 +36895,11 @@
       <c r="KG41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KH41" t="n">
+      <c r="KH41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KI41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="1">
@@ -37661,8 +37784,11 @@
       <c r="KG42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KH42" t="n">
+      <c r="KH42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KI42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="1">
@@ -38547,8 +38673,11 @@
       <c r="KG43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KH43" t="n">
+      <c r="KH43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KI43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="1">
@@ -39433,8 +39562,11 @@
       <c r="KG44" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="KH44" t="n">
+      <c r="KH44" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="KI44" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="1">
@@ -40319,8 +40451,11 @@
       <c r="KG45" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="KH45" t="n">
+      <c r="KH45" s="2" t="n">
         <v>204</v>
+      </c>
+      <c r="KI45" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="1">
@@ -41205,8 +41340,11 @@
       <c r="KG46" s="2" t="n">
         <v>238</v>
       </c>
-      <c r="KH46" t="n">
+      <c r="KH46" s="2" t="n">
         <v>238</v>
+      </c>
+      <c r="KI46" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="1">
@@ -42091,8 +42229,11 @@
       <c r="KG47" s="2" t="n">
         <v>68.2</v>
       </c>
-      <c r="KH47" t="n">
+      <c r="KH47" s="2" t="n">
         <v>68.2</v>
+      </c>
+      <c r="KI47" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="1">
@@ -42977,8 +43118,11 @@
       <c r="KG48" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="KH48" t="n">
+      <c r="KH48" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="KI48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="1">
@@ -43863,8 +44007,11 @@
       <c r="KG49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KH49" t="n">
+      <c r="KH49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KI49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="1">
@@ -44749,7 +44896,10 @@
       <c r="KG50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KH50" t="n">
+      <c r="KH50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KI50" t="n">
         <v>11</v>
       </c>
     </row>
@@ -45635,8 +45785,11 @@
       <c r="KG51" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KH51" t="n">
+      <c r="KH51" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KI51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="1">
@@ -46521,8 +46674,11 @@
       <c r="KG52" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KH52" t="n">
+      <c r="KH52" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KI52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="1">
@@ -47407,8 +47563,11 @@
       <c r="KG53" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KH53" t="n">
+      <c r="KH53" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KI53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="1">
@@ -48293,8 +48452,11 @@
       <c r="KG54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KH54" t="n">
+      <c r="KH54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KI54" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="1">
@@ -49179,8 +49341,11 @@
       <c r="KG55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KH55" t="n">
+      <c r="KH55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KI55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="1">
@@ -50065,8 +50230,11 @@
       <c r="KG56" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="KH56" t="n">
+      <c r="KH56" s="2" t="n">
         <v>63.6</v>
+      </c>
+      <c r="KI56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="1">
@@ -50951,8 +51119,11 @@
       <c r="KG57" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="KH57" t="n">
+      <c r="KH57" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="KI57" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="1">
@@ -51837,8 +52008,11 @@
       <c r="KG58" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="KH58" t="n">
+      <c r="KH58" s="2" t="n">
         <v>166</v>
+      </c>
+      <c r="KI58" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="1">
@@ -52723,8 +52897,11 @@
       <c r="KG59" s="2" t="n">
         <v>381</v>
       </c>
-      <c r="KH59" t="n">
+      <c r="KH59" s="2" t="n">
         <v>381</v>
+      </c>
+      <c r="KI59" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="1">
@@ -53609,8 +53786,11 @@
       <c r="KG60" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="KH60" t="n">
+      <c r="KH60" s="2" t="n">
         <v>1.3</v>
+      </c>
+      <c r="KI60" t="n">
+        <v>2.02</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="1">
@@ -54495,8 +54675,11 @@
       <c r="KG61" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="KH61" t="n">
+      <c r="KH61" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="KI61" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="1">
@@ -55381,8 +55564,11 @@
       <c r="KG62" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KH62" t="n">
+      <c r="KH62" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KI62" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="1">
@@ -56267,8 +56453,11 @@
       <c r="KG63" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KH63" t="n">
+      <c r="KH63" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KI63" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="1">
@@ -57153,8 +57342,11 @@
       <c r="KG64" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KH64" t="n">
+      <c r="KH64" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KI64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="1">
@@ -58039,8 +58231,11 @@
       <c r="KG65" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KH65" t="n">
+      <c r="KH65" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KI65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="1">
@@ -58925,8 +59120,11 @@
       <c r="KG66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KH66" t="n">
+      <c r="KH66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KI66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="1">
@@ -59811,8 +60009,11 @@
       <c r="KG67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KH67" t="n">
+      <c r="KH67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KI67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="1">
@@ -60697,8 +60898,11 @@
       <c r="KG68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KH68" t="n">
+      <c r="KH68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KI68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="1">
@@ -61583,8 +61787,11 @@
       <c r="KG69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KH69" t="n">
+      <c r="KH69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KI69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="1">
@@ -62469,8 +62676,11 @@
       <c r="KG70" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KH70" t="n">
+      <c r="KH70" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KI70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="1">
@@ -63355,8 +63565,11 @@
       <c r="KG71" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="KH71" t="n">
+      <c r="KH71" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="KI71" t="n">
+        <v>64.7</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="1">
@@ -64241,8 +64454,11 @@
       <c r="KG72" s="2" t="n">
         <v>25.4</v>
       </c>
-      <c r="KH72" t="n">
+      <c r="KH72" s="2" t="n">
         <v>25.4</v>
+      </c>
+      <c r="KI72" t="n">
+        <v>34.55</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="1">
@@ -65127,8 +65343,11 @@
       <c r="KG73" s="2" t="n">
         <v>18.14</v>
       </c>
-      <c r="KH73" t="n">
+      <c r="KH73" s="2" t="n">
         <v>18.14</v>
+      </c>
+      <c r="KI73" t="n">
+        <v>22.35</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="1">
@@ -66013,8 +66232,11 @@
       <c r="KG74" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KH74" t="n">
+      <c r="KH74" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KI74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="1">
@@ -66899,8 +67121,11 @@
       <c r="KG75" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KH75" t="n">
+      <c r="KH75" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KI75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="1">
@@ -67785,8 +68010,11 @@
       <c r="KG76" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KH76" t="n">
+      <c r="KH76" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KI76" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="1">
@@ -68671,7 +68899,10 @@
       <c r="KG77" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KH77" t="n">
+      <c r="KH77" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KI77" t="n">
         <v>53</v>
       </c>
     </row>
@@ -69557,8 +69788,11 @@
       <c r="KG78" s="2" t="n">
         <v>2.52</v>
       </c>
-      <c r="KH78" t="n">
+      <c r="KH78" s="2" t="n">
         <v>2.52</v>
+      </c>
+      <c r="KI78" t="n">
+        <v>3.12</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="1">
@@ -70443,8 +70677,11 @@
       <c r="KG79" s="2" t="n">
         <v>3.53</v>
       </c>
-      <c r="KH79" t="n">
+      <c r="KH79" s="2" t="n">
         <v>3.53</v>
+      </c>
+      <c r="KI79" t="n">
+        <v>4.82</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="1">
@@ -71329,8 +71566,11 @@
       <c r="KG80" s="2" t="n">
         <v>39.6</v>
       </c>
-      <c r="KH80" t="n">
+      <c r="KH80" s="2" t="n">
         <v>39.6</v>
+      </c>
+      <c r="KI80" t="n">
+        <v>30.2</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="1">
@@ -72215,8 +72455,11 @@
       <c r="KG81" s="2" t="n">
         <v>28.3</v>
       </c>
-      <c r="KH81" t="n">
+      <c r="KH81" s="2" t="n">
         <v>28.3</v>
+      </c>
+      <c r="KI81" t="n">
+        <v>20.8</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="1">
@@ -73101,8 +73344,11 @@
       <c r="KG82" s="2" t="n">
         <v>186.8</v>
       </c>
-      <c r="KH82" t="n">
+      <c r="KH82" s="2" t="n">
         <v>186.8</v>
+      </c>
+      <c r="KI82" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="1">
@@ -73987,8 +74233,11 @@
       <c r="KG83" s="2" t="n">
         <v>87.2</v>
       </c>
-      <c r="KH83" t="n">
+      <c r="KH83" s="2" t="n">
         <v>87.2</v>
+      </c>
+      <c r="KI83" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="1">
@@ -74873,7 +75122,10 @@
       <c r="KG84" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="KH84" t="n">
+      <c r="KH84" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="KI84" t="n">
         <v>25.58</v>
       </c>
     </row>
@@ -75759,8 +76011,11 @@
       <c r="KG85" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="KH85" t="n">
+      <c r="KH85" s="2" t="n">
         <v>106</v>
+      </c>
+      <c r="KI85" t="n">
+        <v>95.5</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="1">
@@ -76645,8 +76900,11 @@
       <c r="KG86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KH86" t="n">
+      <c r="KH86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KI86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="1">
@@ -77531,8 +77789,11 @@
       <c r="KG87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KH87" t="n">
+      <c r="KH87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KI87" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="1">
@@ -78417,7 +78678,10 @@
       <c r="KG88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KH88" t="n">
+      <c r="KH88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KI88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -79303,8 +79567,11 @@
       <c r="KG89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KH89" t="n">
+      <c r="KH89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KI89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="1">
@@ -80189,8 +80456,11 @@
       <c r="KG90" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="KH90" t="n">
+      <c r="KH90" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="KI90" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="1">
@@ -81075,8 +81345,11 @@
       <c r="KG91" s="2" t="n">
         <v>249</v>
       </c>
-      <c r="KH91" t="n">
+      <c r="KH91" s="2" t="n">
         <v>249</v>
+      </c>
+      <c r="KI91" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="1">
@@ -81961,8 +82234,11 @@
       <c r="KG92" s="2" t="n">
         <v>301</v>
       </c>
-      <c r="KH92" t="n">
+      <c r="KH92" s="2" t="n">
         <v>301</v>
+      </c>
+      <c r="KI92" t="n">
+        <v>285</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="1">
@@ -82847,8 +83123,11 @@
       <c r="KG93" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="KH93" t="n">
+      <c r="KH93" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="KI93" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="1">
@@ -83733,8 +84012,11 @@
       <c r="KG94" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KH94" t="n">
+      <c r="KH94" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KI94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="1">
@@ -84619,8 +84901,11 @@
       <c r="KG95" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KH95" t="n">
+      <c r="KH95" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KI95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="1">
@@ -85505,8 +85790,11 @@
       <c r="KG96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KH96" t="n">
+      <c r="KH96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KI96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="1">
@@ -86391,8 +86679,11 @@
       <c r="KG97" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KH97" t="n">
+      <c r="KH97" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KI97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="1">
@@ -87277,8 +87568,11 @@
       <c r="KG98" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KH98" t="n">
+      <c r="KH98" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KI98" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="1">
@@ -88163,8 +88457,11 @@
       <c r="KG99" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KH99" t="n">
+      <c r="KH99" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KI99" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="1">
@@ -89049,8 +89346,11 @@
       <c r="KG100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KH100" t="n">
+      <c r="KH100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KI100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="1">
@@ -89935,8 +90235,11 @@
       <c r="KG101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KH101" t="n">
+      <c r="KH101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KI101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="1">
@@ -90821,8 +91124,11 @@
       <c r="KG102" s="2" t="n">
         <v>53.3</v>
       </c>
-      <c r="KH102" t="n">
+      <c r="KH102" s="2" t="n">
         <v>53.3</v>
+      </c>
+      <c r="KI102" t="n">
+        <v>45.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KN102"/>
+  <dimension ref="A1:KO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KB100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KI101" activeCellId="0" sqref="KI101"/>
@@ -1359,8 +1359,11 @@
       <c r="KM1" s="2" t="n">
         <v>10837</v>
       </c>
-      <c r="KN1" t="n">
+      <c r="KN1" s="2" t="n">
         <v>10847</v>
+      </c>
+      <c r="KO1" t="n">
+        <v>10855</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="3">
@@ -2263,7 +2266,10 @@
       <c r="KM2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KN2" t="n">
+      <c r="KN2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KO2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3167,8 +3173,11 @@
       <c r="KM3" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN3" t="n">
+      <c r="KN3" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="3">
@@ -4071,8 +4080,11 @@
       <c r="KM4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KN4" t="n">
+      <c r="KN4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="3">
@@ -4975,7 +4987,10 @@
       <c r="KM5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KN5" t="n">
+      <c r="KN5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5879,8 +5894,11 @@
       <c r="KM6" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KN6" t="n">
+      <c r="KN6" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KO6" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="3">
@@ -6783,8 +6801,11 @@
       <c r="KM7" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KN7" t="n">
+      <c r="KN7" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="KO7" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="3">
@@ -7687,8 +7708,11 @@
       <c r="KM8" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="KN8" t="n">
+      <c r="KN8" s="2" t="n">
         <v>-10</v>
+      </c>
+      <c r="KO8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="3">
@@ -8591,8 +8615,11 @@
       <c r="KM9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KN9" t="n">
+      <c r="KN9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KO9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="3">
@@ -9495,8 +9522,11 @@
       <c r="KM10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KN10" t="n">
+      <c r="KN10" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KO10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="3">
@@ -10399,8 +10429,11 @@
       <c r="KM11" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="KN11" t="n">
+      <c r="KN11" s="2" t="n">
         <v>204</v>
+      </c>
+      <c r="KO11" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="3">
@@ -11303,8 +11336,11 @@
       <c r="KM12" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="KN12" t="n">
+      <c r="KN12" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="KO12" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="3">
@@ -12207,8 +12243,11 @@
       <c r="KM13" s="2" t="n">
         <v>384</v>
       </c>
-      <c r="KN13" t="n">
+      <c r="KN13" s="2" t="n">
         <v>358</v>
+      </c>
+      <c r="KO13" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="3">
@@ -13111,8 +13150,11 @@
       <c r="KM14" s="2" t="n">
         <v>1.72</v>
       </c>
-      <c r="KN14" t="n">
+      <c r="KN14" s="2" t="n">
         <v>1.32</v>
+      </c>
+      <c r="KO14" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="3">
@@ -14015,8 +14057,11 @@
       <c r="KM15" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="KN15" t="n">
+      <c r="KN15" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KO15" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="3">
@@ -14919,8 +14964,11 @@
       <c r="KM16" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KN16" t="n">
+      <c r="KN16" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KO16" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="3">
@@ -15823,8 +15871,11 @@
       <c r="KM17" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KN17" t="n">
+      <c r="KN17" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KO17" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="3">
@@ -16727,8 +16778,11 @@
       <c r="KM18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN18" t="n">
+      <c r="KN18" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KO18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="3">
@@ -17631,8 +17685,11 @@
       <c r="KM19" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KN19" t="n">
+      <c r="KN19" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KO19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="3">
@@ -18535,8 +18592,11 @@
       <c r="KM20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN20" t="n">
+      <c r="KN20" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KO20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="3">
@@ -19439,8 +19499,11 @@
       <c r="KM21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KN21" t="n">
+      <c r="KN21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KO21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="3">
@@ -20343,7 +20406,10 @@
       <c r="KM22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KN22" t="n">
+      <c r="KN22" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KO22" t="n">
         <v>12</v>
       </c>
     </row>
@@ -21247,8 +21313,11 @@
       <c r="KM23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KN23" t="n">
+      <c r="KN23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KO23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="3">
@@ -22151,8 +22220,11 @@
       <c r="KM24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KN24" t="n">
+      <c r="KN24" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KO24" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="3">
@@ -23055,8 +23127,11 @@
       <c r="KM25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KN25" t="n">
+      <c r="KN25" s="2" t="n">
         <v>40.9</v>
+      </c>
+      <c r="KO25" t="n">
+        <v>53.3</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="3">
@@ -23959,8 +24034,11 @@
       <c r="KM26" s="2" t="n">
         <v>38.4</v>
       </c>
-      <c r="KN26" t="n">
+      <c r="KN26" s="2" t="n">
         <v>39.78</v>
+      </c>
+      <c r="KO26" t="n">
+        <v>22.62</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="3">
@@ -24863,8 +24941,11 @@
       <c r="KM27" s="2" t="n">
         <v>19.2</v>
       </c>
-      <c r="KN27" t="n">
+      <c r="KN27" s="2" t="n">
         <v>16.27</v>
+      </c>
+      <c r="KO27" t="n">
+        <v>12.07</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="3">
@@ -25767,8 +25848,11 @@
       <c r="KM28" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KN28" t="n">
+      <c r="KN28" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KO28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="3">
@@ -26671,8 +26755,11 @@
       <c r="KM29" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KN29" t="n">
+      <c r="KN29" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KO29" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="3">
@@ -27575,8 +27662,11 @@
       <c r="KM30" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KN30" t="n">
+      <c r="KN30" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KO30" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="3">
@@ -28479,8 +28569,11 @@
       <c r="KM31" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KN31" t="n">
+      <c r="KN31" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KO31" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="3">
@@ -29383,8 +29476,11 @@
       <c r="KM32" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KN32" t="n">
+      <c r="KN32" s="2" t="n">
         <v>2.05</v>
+      </c>
+      <c r="KO32" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="3">
@@ -30287,8 +30383,11 @@
       <c r="KM33" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KN33" t="n">
+      <c r="KN33" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KO33" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="3">
@@ -31191,8 +31290,11 @@
       <c r="KM34" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KN34" t="n">
+      <c r="KN34" s="2" t="n">
         <v>46.7</v>
+      </c>
+      <c r="KO34" t="n">
+        <v>59.6</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="3">
@@ -32095,8 +32197,11 @@
       <c r="KM35" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="KN35" t="n">
+      <c r="KN35" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KO35" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="3">
@@ -32999,8 +33104,11 @@
       <c r="KM36" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="KN36" t="n">
+      <c r="KN36" s="2" t="n">
         <v>187.1</v>
+      </c>
+      <c r="KO36" t="n">
+        <v>186.4</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="3">
@@ -33903,8 +34011,11 @@
       <c r="KM37" s="2" t="n">
         <v>85.5</v>
       </c>
-      <c r="KN37" t="n">
+      <c r="KN37" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="KO37" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="3">
@@ -34807,8 +34918,11 @@
       <c r="KM38" s="2" t="n">
         <v>26.91</v>
       </c>
-      <c r="KN38" t="n">
+      <c r="KN38" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="KO38" t="n">
+        <v>26.74</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="3">
@@ -35711,8 +35825,11 @@
       <c r="KM39" s="2" t="n">
         <v>126.6</v>
       </c>
-      <c r="KN39" t="n">
+      <c r="KN39" s="2" t="n">
         <v>119.3</v>
+      </c>
+      <c r="KO39" t="n">
+        <v>120.2</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="3">
@@ -36615,7 +36732,10 @@
       <c r="KM40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KN40" t="n">
+      <c r="KN40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KO40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -37519,7 +37639,10 @@
       <c r="KM41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KN41" t="n">
+      <c r="KN41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KO41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38423,7 +38546,10 @@
       <c r="KM42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KN42" t="n">
+      <c r="KN42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -39327,7 +39453,10 @@
       <c r="KM43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KN43" t="n">
+      <c r="KN43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KO43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -40231,8 +40360,11 @@
       <c r="KM44" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="KN44" t="n">
+      <c r="KN44" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="KO44" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="3">
@@ -41135,8 +41267,11 @@
       <c r="KM45" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="KN45" t="n">
+      <c r="KN45" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="KO45" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="3">
@@ -42039,8 +42174,11 @@
       <c r="KM46" s="2" t="n">
         <v>270</v>
       </c>
-      <c r="KN46" t="n">
+      <c r="KN46" s="2" t="n">
         <v>262</v>
+      </c>
+      <c r="KO46" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="3">
@@ -42943,8 +43081,11 @@
       <c r="KM47" s="2" t="n">
         <v>70.3</v>
       </c>
-      <c r="KN47" t="n">
+      <c r="KN47" s="2" t="n">
         <v>73.2</v>
+      </c>
+      <c r="KO47" t="n">
+        <v>69.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="3">
@@ -43847,8 +43988,11 @@
       <c r="KM48" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KN48" t="n">
+      <c r="KN48" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KO48" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="3">
@@ -44751,8 +44895,11 @@
       <c r="KM49" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KN49" t="n">
+      <c r="KN49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KO49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="3">
@@ -45655,8 +45802,11 @@
       <c r="KM50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KN50" t="n">
+      <c r="KN50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KO50" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="3">
@@ -46559,8 +46709,11 @@
       <c r="KM51" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KN51" t="n">
+      <c r="KN51" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KO51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="3">
@@ -47463,8 +47616,11 @@
       <c r="KM52" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KN52" t="n">
+      <c r="KN52" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KO52" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="3">
@@ -48367,8 +48523,11 @@
       <c r="KM53" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KN53" t="n">
+      <c r="KN53" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="KO53" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="3">
@@ -49271,8 +49430,11 @@
       <c r="KM54" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN54" t="n">
+      <c r="KN54" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KO54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="3">
@@ -50175,8 +50337,11 @@
       <c r="KM55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KN55" t="n">
+      <c r="KN55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KO55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="3">
@@ -51079,8 +51244,11 @@
       <c r="KM56" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KN56" t="n">
+      <c r="KN56" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="KO56" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="3">
@@ -51983,8 +52151,11 @@
       <c r="KM57" s="2" t="n">
         <v>271</v>
       </c>
-      <c r="KN57" t="n">
+      <c r="KN57" s="2" t="n">
         <v>224</v>
+      </c>
+      <c r="KO57" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="3">
@@ -52887,8 +53058,11 @@
       <c r="KM58" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="KN58" t="n">
+      <c r="KN58" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="KO58" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="3">
@@ -53791,8 +53965,11 @@
       <c r="KM59" s="2" t="n">
         <v>421</v>
       </c>
-      <c r="KN59" t="n">
+      <c r="KN59" s="2" t="n">
         <v>347</v>
+      </c>
+      <c r="KO59" t="n">
+        <v>385</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="3">
@@ -54695,8 +54872,11 @@
       <c r="KM60" s="2" t="n">
         <v>1.81</v>
       </c>
-      <c r="KN60" t="n">
+      <c r="KN60" s="2" t="n">
         <v>1.82</v>
+      </c>
+      <c r="KO60" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="3">
@@ -55599,8 +55779,11 @@
       <c r="KM61" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="KN61" t="n">
+      <c r="KN61" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KO61" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="3">
@@ -56503,8 +56686,11 @@
       <c r="KM62" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KN62" t="n">
+      <c r="KN62" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KO62" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="3">
@@ -57407,8 +57593,11 @@
       <c r="KM63" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KN63" t="n">
+      <c r="KN63" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KO63" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="3">
@@ -58311,8 +58500,11 @@
       <c r="KM64" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KN64" t="n">
+      <c r="KN64" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KO64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="3">
@@ -59215,8 +59407,11 @@
       <c r="KM65" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN65" t="n">
+      <c r="KN65" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KO65" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="3">
@@ -60119,8 +60314,11 @@
       <c r="KM66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN66" t="n">
+      <c r="KN66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KO66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="3">
@@ -61023,8 +61221,11 @@
       <c r="KM67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN67" t="n">
+      <c r="KN67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KO67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="3">
@@ -61927,8 +62128,11 @@
       <c r="KM68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KN68" t="n">
+      <c r="KN68" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KO68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="3">
@@ -62831,8 +63035,11 @@
       <c r="KM69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KN69" t="n">
+      <c r="KN69" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KO69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="3">
@@ -63735,8 +63942,11 @@
       <c r="KM70" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KN70" t="n">
+      <c r="KN70" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KO70" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="3">
@@ -64639,8 +64849,11 @@
       <c r="KM71" s="2" t="n">
         <v>47.6</v>
       </c>
-      <c r="KN71" t="n">
+      <c r="KN71" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KO71" t="n">
+        <v>51.7</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="3">
@@ -65543,8 +65756,11 @@
       <c r="KM72" s="2" t="n">
         <v>42.1</v>
       </c>
-      <c r="KN72" t="n">
+      <c r="KN72" s="2" t="n">
         <v>34.7</v>
+      </c>
+      <c r="KO72" t="n">
+        <v>25.67</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="3">
@@ -66447,8 +66663,11 @@
       <c r="KM73" s="2" t="n">
         <v>20.05</v>
       </c>
-      <c r="KN73" t="n">
+      <c r="KN73" s="2" t="n">
         <v>12.85</v>
+      </c>
+      <c r="KO73" t="n">
+        <v>13.28</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="3">
@@ -67351,8 +67570,11 @@
       <c r="KM74" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KN74" t="n">
+      <c r="KN74" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KO74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="3">
@@ -68255,8 +68477,11 @@
       <c r="KM75" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KN75" t="n">
+      <c r="KN75" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KO75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="3">
@@ -69159,8 +69384,11 @@
       <c r="KM76" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KN76" t="n">
+      <c r="KN76" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KO76" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="3">
@@ -70063,8 +70291,11 @@
       <c r="KM77" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KN77" t="n">
+      <c r="KN77" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KO77" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="3">
@@ -70967,8 +71198,11 @@
       <c r="KM78" s="2" t="n">
         <v>2.67</v>
       </c>
-      <c r="KN78" t="n">
+      <c r="KN78" s="2" t="n">
         <v>2.48</v>
+      </c>
+      <c r="KO78" t="n">
+        <v>2.41</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="3">
@@ -71871,8 +72105,11 @@
       <c r="KM79" s="2" t="n">
         <v>5.6</v>
       </c>
-      <c r="KN79" t="n">
+      <c r="KN79" s="2" t="n">
         <v>6.7</v>
+      </c>
+      <c r="KO79" t="n">
+        <v>4.67</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="3">
@@ -72775,8 +73012,11 @@
       <c r="KM80" s="2" t="n">
         <v>32.1</v>
       </c>
-      <c r="KN80" t="n">
+      <c r="KN80" s="2" t="n">
         <v>32.8</v>
+      </c>
+      <c r="KO80" t="n">
+        <v>35.7</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="3">
@@ -73679,8 +73919,11 @@
       <c r="KM81" s="2" t="n">
         <v>17.9</v>
       </c>
-      <c r="KN81" t="n">
+      <c r="KN81" s="2" t="n">
         <v>14.9</v>
+      </c>
+      <c r="KO81" t="n">
+        <v>21.4</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="3">
@@ -74583,8 +74826,11 @@
       <c r="KM82" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="KN82" t="n">
+      <c r="KN82" s="2" t="n">
         <v>187.1</v>
+      </c>
+      <c r="KO82" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="3">
@@ -75487,8 +75733,11 @@
       <c r="KM83" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KN83" t="n">
+      <c r="KN83" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="KO83" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="3">
@@ -76391,8 +76640,11 @@
       <c r="KM84" s="2" t="n">
         <v>24.74</v>
       </c>
-      <c r="KN84" t="n">
+      <c r="KN84" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="KO84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="3">
@@ -77295,8 +77547,11 @@
       <c r="KM85" s="2" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="KN85" t="n">
+      <c r="KN85" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="KO85" t="n">
+        <v>80.7</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="3">
@@ -78199,8 +78454,11 @@
       <c r="KM86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN86" t="n">
+      <c r="KN86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KO86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="3">
@@ -79103,7 +79361,10 @@
       <c r="KM87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KN87" t="n">
+      <c r="KN87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO87" t="n">
         <v>7</v>
       </c>
     </row>
@@ -80007,8 +80268,11 @@
       <c r="KM88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KN88" t="n">
+      <c r="KN88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KO88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="3">
@@ -80911,8 +81175,11 @@
       <c r="KM89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KN89" t="n">
+      <c r="KN89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KO89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="3">
@@ -81815,8 +82082,11 @@
       <c r="KM90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="KN90" t="n">
+      <c r="KN90" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="KO90" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="3">
@@ -82719,8 +82989,11 @@
       <c r="KM91" s="2" t="n">
         <v>294</v>
       </c>
-      <c r="KN91" t="n">
+      <c r="KN91" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="KO91" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="3">
@@ -83623,8 +83896,11 @@
       <c r="KM92" s="2" t="n">
         <v>323</v>
       </c>
-      <c r="KN92" t="n">
+      <c r="KN92" s="2" t="n">
         <v>236</v>
+      </c>
+      <c r="KO92" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="3">
@@ -84527,8 +84803,11 @@
       <c r="KM93" s="2" t="n">
         <v>76.7</v>
       </c>
-      <c r="KN93" t="n">
+      <c r="KN93" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KO93" t="n">
+        <v>69.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="3">
@@ -85431,8 +85710,11 @@
       <c r="KM94" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KN94" t="n">
+      <c r="KN94" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KO94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="3">
@@ -86335,7 +86617,10 @@
       <c r="KM95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KN95" t="n">
+      <c r="KN95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KO95" t="n">
         <v>9</v>
       </c>
     </row>
@@ -87239,8 +87524,11 @@
       <c r="KM96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KN96" t="n">
+      <c r="KN96" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KO96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="3">
@@ -88143,8 +88431,11 @@
       <c r="KM97" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KN97" t="n">
+      <c r="KN97" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KO97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="3">
@@ -89047,8 +89338,11 @@
       <c r="KM98" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KN98" t="n">
+      <c r="KN98" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KO98" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="3">
@@ -89951,8 +90245,11 @@
       <c r="KM99" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KN99" t="n">
+      <c r="KN99" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KO99" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="3">
@@ -90855,8 +91152,11 @@
       <c r="KM100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KN100" t="n">
+      <c r="KN100" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KO100" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="3">
@@ -91759,8 +92059,11 @@
       <c r="KM101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN101" t="n">
+      <c r="KN101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KO101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="3">
@@ -92663,8 +92966,11 @@
       <c r="KM102" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="KN102" t="n">
+      <c r="KN102" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KO102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KO102"/>
+  <dimension ref="A1:KP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KB100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KI101" activeCellId="0" sqref="KI101"/>
@@ -1362,8 +1362,11 @@
       <c r="KN1" s="2" t="n">
         <v>10847</v>
       </c>
-      <c r="KO1" t="n">
+      <c r="KO1" s="2" t="n">
         <v>10855</v>
+      </c>
+      <c r="KP1" t="n">
+        <v>10861</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="3">
@@ -2269,7 +2272,10 @@
       <c r="KN2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KO2" t="n">
+      <c r="KO2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KP2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3176,8 +3182,11 @@
       <c r="KN3" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KO3" t="n">
+      <c r="KO3" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="3">
@@ -4083,7 +4092,10 @@
       <c r="KN4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KO4" t="n">
+      <c r="KO4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4990,7 +5002,10 @@
       <c r="KN5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KO5" t="n">
+      <c r="KO5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5897,8 +5912,11 @@
       <c r="KN6" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KO6" t="n">
+      <c r="KO6" s="2" t="n">
         <v>110</v>
+      </c>
+      <c r="KP6" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="3">
@@ -6804,8 +6822,11 @@
       <c r="KN7" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="KO7" t="n">
+      <c r="KO7" s="2" t="n">
         <v>104</v>
+      </c>
+      <c r="KP7" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="3">
@@ -7711,8 +7732,11 @@
       <c r="KN8" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="KO8" t="n">
+      <c r="KO8" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KP8" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="3">
@@ -8618,7 +8642,10 @@
       <c r="KN9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KO9" t="n">
+      <c r="KO9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9525,8 +9552,11 @@
       <c r="KN10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KO10" t="n">
+      <c r="KO10" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KP10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="3">
@@ -10432,8 +10462,11 @@
       <c r="KN11" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="KO11" t="n">
+      <c r="KO11" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="KP11" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="3">
@@ -11339,8 +11372,11 @@
       <c r="KN12" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="KO12" t="n">
+      <c r="KO12" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="KP12" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="3">
@@ -12246,8 +12282,11 @@
       <c r="KN13" s="2" t="n">
         <v>358</v>
       </c>
-      <c r="KO13" t="n">
+      <c r="KO13" s="2" t="n">
         <v>362</v>
+      </c>
+      <c r="KP13" t="n">
+        <v>383</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="3">
@@ -13153,8 +13192,11 @@
       <c r="KN14" s="2" t="n">
         <v>1.32</v>
       </c>
-      <c r="KO14" t="n">
+      <c r="KO14" s="2" t="n">
         <v>1.43</v>
+      </c>
+      <c r="KP14" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="3">
@@ -14060,8 +14102,11 @@
       <c r="KN15" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KO15" t="n">
+      <c r="KO15" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="KP15" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="3">
@@ -14967,8 +15012,11 @@
       <c r="KN16" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KO16" t="n">
+      <c r="KO16" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KP16" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="3">
@@ -15874,8 +15922,11 @@
       <c r="KN17" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KO17" t="n">
+      <c r="KO17" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KP17" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="3">
@@ -16781,8 +16832,11 @@
       <c r="KN18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KO18" t="n">
+      <c r="KO18" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KP18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="3">
@@ -17688,8 +17742,11 @@
       <c r="KN19" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KO19" t="n">
+      <c r="KO19" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KP19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="3">
@@ -18595,8 +18652,11 @@
       <c r="KN20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KO20" t="n">
+      <c r="KO20" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KP20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="3">
@@ -19502,8 +19562,11 @@
       <c r="KN21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KO21" t="n">
+      <c r="KO21" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KP21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="3">
@@ -20409,8 +20472,11 @@
       <c r="KN22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KO22" t="n">
+      <c r="KO22" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KP22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="3">
@@ -21316,8 +21382,11 @@
       <c r="KN23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KO23" t="n">
+      <c r="KO23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KP23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="3">
@@ -22223,8 +22292,11 @@
       <c r="KN24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KO24" t="n">
+      <c r="KO24" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KP24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="3">
@@ -23130,8 +23202,11 @@
       <c r="KN25" s="2" t="n">
         <v>40.9</v>
       </c>
-      <c r="KO25" t="n">
+      <c r="KO25" s="2" t="n">
         <v>53.3</v>
+      </c>
+      <c r="KP25" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="3">
@@ -24037,8 +24112,11 @@
       <c r="KN26" s="2" t="n">
         <v>39.78</v>
       </c>
-      <c r="KO26" t="n">
+      <c r="KO26" s="2" t="n">
         <v>22.62</v>
+      </c>
+      <c r="KP26" t="n">
+        <v>31.92</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="3">
@@ -24944,8 +25022,11 @@
       <c r="KN27" s="2" t="n">
         <v>16.27</v>
       </c>
-      <c r="KO27" t="n">
+      <c r="KO27" s="2" t="n">
         <v>12.07</v>
+      </c>
+      <c r="KP27" t="n">
+        <v>15.32</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="3">
@@ -25851,8 +25932,11 @@
       <c r="KN28" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KO28" t="n">
+      <c r="KO28" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KP28" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="3">
@@ -26758,8 +26842,11 @@
       <c r="KN29" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KO29" t="n">
+      <c r="KO29" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KP29" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="3">
@@ -27665,8 +27752,11 @@
       <c r="KN30" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KO30" t="n">
+      <c r="KO30" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KP30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="3">
@@ -28572,8 +28662,11 @@
       <c r="KN31" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KO31" t="n">
+      <c r="KO31" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KP31" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="3">
@@ -29479,8 +29572,11 @@
       <c r="KN32" s="2" t="n">
         <v>2.05</v>
       </c>
-      <c r="KO32" t="n">
+      <c r="KO32" s="2" t="n">
         <v>1.57</v>
+      </c>
+      <c r="KP32" t="n">
+        <v>2.28</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="3">
@@ -30386,8 +30482,11 @@
       <c r="KN33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KO33" t="n">
+      <c r="KO33" s="2" t="n">
         <v>2.94</v>
+      </c>
+      <c r="KP33" t="n">
+        <v>4.75</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="3">
@@ -31293,8 +31392,11 @@
       <c r="KN34" s="2" t="n">
         <v>46.7</v>
       </c>
-      <c r="KO34" t="n">
+      <c r="KO34" s="2" t="n">
         <v>59.6</v>
+      </c>
+      <c r="KP34" t="n">
+        <v>31.6</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="3">
@@ -32200,8 +32302,11 @@
       <c r="KN35" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KO35" t="n">
+      <c r="KO35" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KP35" t="n">
+        <v>21.1</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="3">
@@ -33107,8 +33212,11 @@
       <c r="KN36" s="2" t="n">
         <v>187.1</v>
       </c>
-      <c r="KO36" t="n">
+      <c r="KO36" s="2" t="n">
         <v>186.4</v>
+      </c>
+      <c r="KP36" t="n">
+        <v>186.6</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="3">
@@ -34014,8 +34122,11 @@
       <c r="KN37" s="2" t="n">
         <v>86.5</v>
       </c>
-      <c r="KO37" t="n">
+      <c r="KO37" s="2" t="n">
         <v>85.8</v>
+      </c>
+      <c r="KP37" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="3">
@@ -34921,8 +35032,11 @@
       <c r="KN38" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="KO38" t="n">
+      <c r="KO38" s="2" t="n">
         <v>26.74</v>
+      </c>
+      <c r="KP38" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="3">
@@ -35828,8 +35942,11 @@
       <c r="KN39" s="2" t="n">
         <v>119.3</v>
       </c>
-      <c r="KO39" t="n">
+      <c r="KO39" s="2" t="n">
         <v>120.2</v>
+      </c>
+      <c r="KP39" t="n">
+        <v>129.2</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="3">
@@ -36735,8 +36852,11 @@
       <c r="KN40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO40" t="n">
+      <c r="KO40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KP40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="3">
@@ -37642,8 +37762,11 @@
       <c r="KN41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KO41" t="n">
+      <c r="KO41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KP41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="3">
@@ -38549,7 +38672,10 @@
       <c r="KN42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO42" t="n">
+      <c r="KO42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -39456,8 +39582,11 @@
       <c r="KN43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO43" t="n">
+      <c r="KO43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KP43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="3">
@@ -40363,8 +40492,11 @@
       <c r="KN44" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="KO44" t="n">
+      <c r="KO44" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="KP44" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="3">
@@ -41270,8 +41402,11 @@
       <c r="KN45" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="KO45" t="n">
+      <c r="KO45" s="2" t="n">
         <v>211</v>
+      </c>
+      <c r="KP45" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="3">
@@ -42177,8 +42312,11 @@
       <c r="KN46" s="2" t="n">
         <v>262</v>
       </c>
-      <c r="KO46" t="n">
+      <c r="KO46" s="2" t="n">
         <v>250</v>
+      </c>
+      <c r="KP46" t="n">
+        <v>272</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="3">
@@ -43084,8 +43222,11 @@
       <c r="KN47" s="2" t="n">
         <v>73.2</v>
       </c>
-      <c r="KO47" t="n">
+      <c r="KO47" s="2" t="n">
         <v>69.09999999999999</v>
+      </c>
+      <c r="KP47" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="3">
@@ -43991,8 +44132,11 @@
       <c r="KN48" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KO48" t="n">
+      <c r="KO48" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KP48" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="3">
@@ -44898,8 +45042,11 @@
       <c r="KN49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KO49" t="n">
+      <c r="KO49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KP49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="3">
@@ -45805,8 +45952,11 @@
       <c r="KN50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KO50" t="n">
+      <c r="KO50" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KP50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="3">
@@ -46712,8 +46862,11 @@
       <c r="KN51" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KO51" t="n">
+      <c r="KO51" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KP51" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="3">
@@ -47619,8 +47772,11 @@
       <c r="KN52" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KO52" t="n">
+      <c r="KO52" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KP52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="3">
@@ -48526,8 +48682,11 @@
       <c r="KN53" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="KO53" t="n">
+      <c r="KO53" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KP53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="3">
@@ -49433,8 +49592,11 @@
       <c r="KN54" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KO54" t="n">
+      <c r="KO54" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KP54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="3">
@@ -50340,8 +50502,11 @@
       <c r="KN55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KO55" t="n">
+      <c r="KO55" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KP55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="3">
@@ -51247,8 +51412,11 @@
       <c r="KN56" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="KO56" t="n">
+      <c r="KO56" s="2" t="n">
         <v>68.8</v>
+      </c>
+      <c r="KP56" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="3">
@@ -52154,8 +52322,11 @@
       <c r="KN57" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="KO57" t="n">
+      <c r="KO57" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="KP57" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="3">
@@ -53061,8 +53232,11 @@
       <c r="KN58" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="KO58" t="n">
+      <c r="KO58" s="2" t="n">
         <v>171</v>
+      </c>
+      <c r="KP58" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="3">
@@ -53968,8 +54142,11 @@
       <c r="KN59" s="2" t="n">
         <v>347</v>
       </c>
-      <c r="KO59" t="n">
+      <c r="KO59" s="2" t="n">
         <v>385</v>
+      </c>
+      <c r="KP59" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="3">
@@ -54875,8 +55052,11 @@
       <c r="KN60" s="2" t="n">
         <v>1.82</v>
       </c>
-      <c r="KO60" t="n">
+      <c r="KO60" s="2" t="n">
         <v>1.25</v>
+      </c>
+      <c r="KP60" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="3">
@@ -55782,8 +55962,11 @@
       <c r="KN61" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KO61" t="n">
+      <c r="KO61" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="KP61" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="3">
@@ -56689,8 +56872,11 @@
       <c r="KN62" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KO62" t="n">
+      <c r="KO62" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KP62" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="3">
@@ -57596,8 +57782,11 @@
       <c r="KN63" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KO63" t="n">
+      <c r="KO63" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KP63" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="3">
@@ -58503,8 +58692,11 @@
       <c r="KN64" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KO64" t="n">
+      <c r="KO64" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KP64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="3">
@@ -59410,8 +59602,11 @@
       <c r="KN65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KO65" t="n">
+      <c r="KO65" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KP65" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="3">
@@ -60317,8 +60512,11 @@
       <c r="KN66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KO66" t="n">
+      <c r="KO66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KP66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="3">
@@ -61224,8 +61422,11 @@
       <c r="KN67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KO67" t="n">
+      <c r="KO67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KP67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="3">
@@ -62131,8 +62332,11 @@
       <c r="KN68" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KO68" t="n">
+      <c r="KO68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KP68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="3">
@@ -63038,8 +63242,11 @@
       <c r="KN69" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KO69" t="n">
+      <c r="KO69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KP69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="3">
@@ -63945,8 +64152,11 @@
       <c r="KN70" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KO70" t="n">
+      <c r="KO70" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KP70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="3">
@@ -64852,8 +65062,11 @@
       <c r="KN71" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KO71" t="n">
+      <c r="KO71" s="2" t="n">
         <v>51.7</v>
+      </c>
+      <c r="KP71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="3">
@@ -65759,8 +65972,11 @@
       <c r="KN72" s="2" t="n">
         <v>34.7</v>
       </c>
-      <c r="KO72" t="n">
+      <c r="KO72" s="2" t="n">
         <v>25.67</v>
+      </c>
+      <c r="KP72" t="n">
+        <v>34.4</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="3">
@@ -66666,8 +66882,11 @@
       <c r="KN73" s="2" t="n">
         <v>12.85</v>
       </c>
-      <c r="KO73" t="n">
+      <c r="KO73" s="2" t="n">
         <v>13.28</v>
+      </c>
+      <c r="KP73" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="3">
@@ -67573,8 +67792,11 @@
       <c r="KN74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KO74" t="n">
+      <c r="KO74" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KP74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="3">
@@ -68480,8 +68702,11 @@
       <c r="KN75" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KO75" t="n">
+      <c r="KO75" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KP75" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="3">
@@ -69387,8 +69612,11 @@
       <c r="KN76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KO76" t="n">
+      <c r="KO76" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KP76" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="3">
@@ -70294,8 +70522,11 @@
       <c r="KN77" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KO77" t="n">
+      <c r="KO77" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KP77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="3">
@@ -71201,8 +71432,11 @@
       <c r="KN78" s="2" t="n">
         <v>2.48</v>
       </c>
-      <c r="KO78" t="n">
+      <c r="KO78" s="2" t="n">
         <v>2.41</v>
+      </c>
+      <c r="KP78" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="3">
@@ -72108,8 +72342,11 @@
       <c r="KN79" s="2" t="n">
         <v>6.7</v>
       </c>
-      <c r="KO79" t="n">
+      <c r="KO79" s="2" t="n">
         <v>4.67</v>
+      </c>
+      <c r="KP79" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="3">
@@ -73015,8 +73252,11 @@
       <c r="KN80" s="2" t="n">
         <v>32.8</v>
       </c>
-      <c r="KO80" t="n">
+      <c r="KO80" s="2" t="n">
         <v>35.7</v>
+      </c>
+      <c r="KP80" t="n">
+        <v>32.7</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="3">
@@ -73922,8 +74162,11 @@
       <c r="KN81" s="2" t="n">
         <v>14.9</v>
       </c>
-      <c r="KO81" t="n">
+      <c r="KO81" s="2" t="n">
         <v>21.4</v>
+      </c>
+      <c r="KP81" t="n">
+        <v>19.2</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="3">
@@ -74829,8 +75072,11 @@
       <c r="KN82" s="2" t="n">
         <v>187.1</v>
       </c>
-      <c r="KO82" t="n">
+      <c r="KO82" s="2" t="n">
         <v>189.1</v>
+      </c>
+      <c r="KP82" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="3">
@@ -75736,8 +75982,11 @@
       <c r="KN83" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="KO83" t="n">
+      <c r="KO83" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="KP83" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="3">
@@ -76643,8 +76892,11 @@
       <c r="KN84" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="KO84" t="n">
+      <c r="KO84" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KP84" t="n">
+        <v>24.41</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="3">
@@ -77550,8 +77802,11 @@
       <c r="KN85" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="KO85" t="n">
+      <c r="KO85" s="2" t="n">
         <v>80.7</v>
+      </c>
+      <c r="KP85" t="n">
+        <v>76.2</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="3">
@@ -78457,8 +78712,11 @@
       <c r="KN86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KO86" t="n">
+      <c r="KO86" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KP86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="3">
@@ -79364,8 +79622,11 @@
       <c r="KN87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO87" t="n">
+      <c r="KO87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KP87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="3">
@@ -80271,7 +80532,10 @@
       <c r="KN88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KO88" t="n">
+      <c r="KO88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP88" t="n">
         <v>2</v>
       </c>
     </row>
@@ -81178,8 +81442,11 @@
       <c r="KN89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KO89" t="n">
+      <c r="KO89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KP89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="3">
@@ -82085,8 +82352,11 @@
       <c r="KN90" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="KO90" t="n">
+      <c r="KO90" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="KP90" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="3">
@@ -82992,8 +83262,11 @@
       <c r="KN91" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="KO91" t="n">
+      <c r="KO91" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="KP91" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="3">
@@ -83899,8 +84172,11 @@
       <c r="KN92" s="2" t="n">
         <v>236</v>
       </c>
-      <c r="KO92" t="n">
+      <c r="KO92" s="2" t="n">
         <v>266</v>
+      </c>
+      <c r="KP92" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="3">
@@ -84806,8 +85082,11 @@
       <c r="KN93" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KO93" t="n">
+      <c r="KO93" s="2" t="n">
         <v>69.09999999999999</v>
+      </c>
+      <c r="KP93" t="n">
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="3">
@@ -85713,8 +85992,11 @@
       <c r="KN94" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KO94" t="n">
+      <c r="KO94" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KP94" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="3">
@@ -86620,7 +86902,10 @@
       <c r="KN95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KO95" t="n">
+      <c r="KO95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KP95" t="n">
         <v>9</v>
       </c>
     </row>
@@ -87527,7 +87812,10 @@
       <c r="KN96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KO96" t="n">
+      <c r="KO96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KP96" t="n">
         <v>9</v>
       </c>
     </row>
@@ -88434,8 +88722,11 @@
       <c r="KN97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KO97" t="n">
+      <c r="KO97" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KP97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="3">
@@ -89341,8 +89632,11 @@
       <c r="KN98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KO98" t="n">
+      <c r="KO98" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KP98" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="3">
@@ -90248,8 +90542,11 @@
       <c r="KN99" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KO99" t="n">
+      <c r="KO99" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KP99" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="3">
@@ -91155,8 +91452,11 @@
       <c r="KN100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KO100" t="n">
+      <c r="KO100" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KP100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="3">
@@ -92062,8 +92362,11 @@
       <c r="KN101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KO101" t="n">
+      <c r="KO101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KP101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="3">
@@ -92969,8 +93272,11 @@
       <c r="KN102" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KO102" t="n">
+      <c r="KO102" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KP102" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KP102"/>
+  <dimension ref="A1:KQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KB100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KI101" activeCellId="0" sqref="KI101"/>
@@ -1365,8 +1365,11 @@
       <c r="KO1" s="2" t="n">
         <v>10855</v>
       </c>
-      <c r="KP1" t="n">
+      <c r="KP1" s="2" t="n">
         <v>10861</v>
+      </c>
+      <c r="KQ1" t="n">
+        <v>10868</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="3">
@@ -2275,7 +2278,10 @@
       <c r="KO2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KP2" t="n">
+      <c r="KP2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KQ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3185,8 +3191,11 @@
       <c r="KO3" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KP3" t="n">
+      <c r="KP3" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="3">
@@ -4095,8 +4104,11 @@
       <c r="KO4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP4" t="n">
+      <c r="KP4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="3">
@@ -5005,8 +5017,11 @@
       <c r="KO5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP5" t="n">
+      <c r="KP5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KQ5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="3">
@@ -5915,8 +5930,11 @@
       <c r="KO6" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="KP6" t="n">
+      <c r="KP6" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="KQ6" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="3">
@@ -6825,7 +6843,10 @@
       <c r="KO7" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="KP7" t="n">
+      <c r="KP7" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KQ7" t="n">
         <v>70</v>
       </c>
     </row>
@@ -7735,8 +7756,11 @@
       <c r="KO8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP8" t="n">
+      <c r="KP8" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KQ8" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="3">
@@ -8645,7 +8669,10 @@
       <c r="KO9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP9" t="n">
+      <c r="KP9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9555,8 +9582,11 @@
       <c r="KO10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KP10" t="n">
+      <c r="KP10" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KQ10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="3">
@@ -10465,8 +10495,11 @@
       <c r="KO11" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="KP11" t="n">
+      <c r="KP11" s="2" t="n">
         <v>228</v>
+      </c>
+      <c r="KQ11" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="3">
@@ -11375,8 +11408,11 @@
       <c r="KO12" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="KP12" t="n">
+      <c r="KP12" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="KQ12" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="3">
@@ -12285,8 +12321,11 @@
       <c r="KO13" s="2" t="n">
         <v>362</v>
       </c>
-      <c r="KP13" t="n">
+      <c r="KP13" s="2" t="n">
         <v>383</v>
+      </c>
+      <c r="KQ13" t="n">
+        <v>394</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="3">
@@ -13195,8 +13234,11 @@
       <c r="KO14" s="2" t="n">
         <v>1.43</v>
       </c>
-      <c r="KP14" t="n">
+      <c r="KP14" s="2" t="n">
         <v>1.47</v>
+      </c>
+      <c r="KQ14" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="3">
@@ -14105,8 +14147,11 @@
       <c r="KO15" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="KP15" t="n">
+      <c r="KP15" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="KQ15" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="3">
@@ -15015,8 +15060,11 @@
       <c r="KO16" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KP16" t="n">
+      <c r="KP16" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KQ16" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="3">
@@ -15925,8 +15973,11 @@
       <c r="KO17" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KP17" t="n">
+      <c r="KP17" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KQ17" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="3">
@@ -16835,8 +16886,11 @@
       <c r="KO18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KP18" t="n">
+      <c r="KP18" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KQ18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="3">
@@ -17745,8 +17799,11 @@
       <c r="KO19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KP19" t="n">
+      <c r="KP19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KQ19" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="3">
@@ -18655,8 +18712,11 @@
       <c r="KO20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KP20" t="n">
+      <c r="KP20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KQ20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="3">
@@ -19565,8 +19625,11 @@
       <c r="KO21" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KP21" t="n">
+      <c r="KP21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KQ21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="3">
@@ -20475,8 +20538,11 @@
       <c r="KO22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KP22" t="n">
+      <c r="KP22" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KQ22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="3">
@@ -21385,8 +21451,11 @@
       <c r="KO23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KP23" t="n">
+      <c r="KP23" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KQ23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="3">
@@ -22295,7 +22364,10 @@
       <c r="KO24" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KP24" t="n">
+      <c r="KP24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KQ24" t="n">
         <v>25</v>
       </c>
     </row>
@@ -23205,8 +23277,11 @@
       <c r="KO25" s="2" t="n">
         <v>53.3</v>
       </c>
-      <c r="KP25" t="n">
+      <c r="KP25" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KQ25" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="3">
@@ -24115,8 +24190,11 @@
       <c r="KO26" s="2" t="n">
         <v>22.62</v>
       </c>
-      <c r="KP26" t="n">
+      <c r="KP26" s="2" t="n">
         <v>31.92</v>
+      </c>
+      <c r="KQ26" t="n">
+        <v>30.31</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="3">
@@ -25025,8 +25103,11 @@
       <c r="KO27" s="2" t="n">
         <v>12.07</v>
       </c>
-      <c r="KP27" t="n">
+      <c r="KP27" s="2" t="n">
         <v>15.32</v>
+      </c>
+      <c r="KQ27" t="n">
+        <v>15.76</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="3">
@@ -25935,7 +26016,10 @@
       <c r="KO28" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KP28" t="n">
+      <c r="KP28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KQ28" t="n">
         <v>47</v>
       </c>
     </row>
@@ -26845,8 +26929,11 @@
       <c r="KO29" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KP29" t="n">
+      <c r="KP29" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KQ29" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="3">
@@ -27755,8 +27842,11 @@
       <c r="KO30" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KP30" t="n">
+      <c r="KP30" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KQ30" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="3">
@@ -28665,8 +28755,11 @@
       <c r="KO31" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KP31" t="n">
+      <c r="KP31" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KQ31" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="3">
@@ -29575,8 +29668,11 @@
       <c r="KO32" s="2" t="n">
         <v>1.57</v>
       </c>
-      <c r="KP32" t="n">
+      <c r="KP32" s="2" t="n">
         <v>2.28</v>
+      </c>
+      <c r="KQ32" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="3">
@@ -30485,8 +30581,11 @@
       <c r="KO33" s="2" t="n">
         <v>2.94</v>
       </c>
-      <c r="KP33" t="n">
+      <c r="KP33" s="2" t="n">
         <v>4.75</v>
+      </c>
+      <c r="KQ33" t="n">
+        <v>4.46</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="3">
@@ -31395,8 +31494,11 @@
       <c r="KO34" s="2" t="n">
         <v>59.6</v>
       </c>
-      <c r="KP34" t="n">
+      <c r="KP34" s="2" t="n">
         <v>31.6</v>
+      </c>
+      <c r="KQ34" t="n">
+        <v>39.7</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="3">
@@ -32305,8 +32407,11 @@
       <c r="KO35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KP35" t="n">
+      <c r="KP35" s="2" t="n">
         <v>21.1</v>
+      </c>
+      <c r="KQ35" t="n">
+        <v>22.4</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="3">
@@ -33215,8 +33320,11 @@
       <c r="KO36" s="2" t="n">
         <v>186.4</v>
       </c>
-      <c r="KP36" t="n">
+      <c r="KP36" s="2" t="n">
         <v>186.6</v>
+      </c>
+      <c r="KQ36" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="3">
@@ -34125,8 +34233,11 @@
       <c r="KO37" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="KP37" t="n">
+      <c r="KP37" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="KQ37" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="3">
@@ -35035,8 +35146,11 @@
       <c r="KO38" s="2" t="n">
         <v>26.74</v>
       </c>
-      <c r="KP38" t="n">
+      <c r="KP38" s="2" t="n">
         <v>27.8</v>
+      </c>
+      <c r="KQ38" t="n">
+        <v>26.66</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="3">
@@ -35945,8 +36059,11 @@
       <c r="KO39" s="2" t="n">
         <v>120.2</v>
       </c>
-      <c r="KP39" t="n">
+      <c r="KP39" s="2" t="n">
         <v>129.2</v>
+      </c>
+      <c r="KQ39" t="n">
+        <v>127.7</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="3">
@@ -36855,8 +36972,11 @@
       <c r="KO40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP40" t="n">
+      <c r="KP40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KQ40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="3">
@@ -37765,8 +37885,11 @@
       <c r="KO41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP41" t="n">
+      <c r="KP41" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KQ41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="3">
@@ -38675,7 +38798,10 @@
       <c r="KO42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP42" t="n">
+      <c r="KP42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -39585,7 +39711,10 @@
       <c r="KO43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP43" t="n">
+      <c r="KP43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KQ43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -40495,8 +40624,11 @@
       <c r="KO44" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="KP44" t="n">
+      <c r="KP44" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="KQ44" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="3">
@@ -41405,8 +41537,11 @@
       <c r="KO45" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="KP45" t="n">
+      <c r="KP45" s="2" t="n">
         <v>212</v>
+      </c>
+      <c r="KQ45" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="3">
@@ -42315,8 +42450,11 @@
       <c r="KO46" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="KP46" t="n">
+      <c r="KP46" s="2" t="n">
         <v>272</v>
+      </c>
+      <c r="KQ46" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="3">
@@ -43225,8 +43363,11 @@
       <c r="KO47" s="2" t="n">
         <v>69.09999999999999</v>
       </c>
-      <c r="KP47" t="n">
+      <c r="KP47" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KQ47" t="n">
+        <v>65.2</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="3">
@@ -44135,8 +44276,11 @@
       <c r="KO48" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KP48" t="n">
+      <c r="KP48" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KQ48" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="3">
@@ -45045,8 +45189,11 @@
       <c r="KO49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KP49" t="n">
+      <c r="KP49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KQ49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="3">
@@ -45955,8 +46102,11 @@
       <c r="KO50" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KP50" t="n">
+      <c r="KP50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KQ50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="3">
@@ -46865,7 +47015,10 @@
       <c r="KO51" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KP51" t="n">
+      <c r="KP51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KQ51" t="n">
         <v>47</v>
       </c>
     </row>
@@ -47775,8 +47928,11 @@
       <c r="KO52" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KP52" t="n">
+      <c r="KP52" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KQ52" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="3">
@@ -48685,8 +48841,11 @@
       <c r="KO53" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KP53" t="n">
+      <c r="KP53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KQ53" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="3">
@@ -49595,8 +49754,11 @@
       <c r="KO54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KP54" t="n">
+      <c r="KP54" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KQ54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="3">
@@ -50505,8 +50667,11 @@
       <c r="KO55" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KP55" t="n">
+      <c r="KP55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KQ55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="3">
@@ -51415,8 +51580,11 @@
       <c r="KO56" s="2" t="n">
         <v>68.8</v>
       </c>
-      <c r="KP56" t="n">
+      <c r="KP56" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KQ56" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="3">
@@ -52325,8 +52493,11 @@
       <c r="KO57" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="KP57" t="n">
+      <c r="KP57" s="2" t="n">
         <v>199</v>
+      </c>
+      <c r="KQ57" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="3">
@@ -53235,8 +53406,11 @@
       <c r="KO58" s="2" t="n">
         <v>171</v>
       </c>
-      <c r="KP58" t="n">
+      <c r="KP58" s="2" t="n">
         <v>145</v>
+      </c>
+      <c r="KQ58" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="3">
@@ -54145,8 +54319,11 @@
       <c r="KO59" s="2" t="n">
         <v>385</v>
       </c>
-      <c r="KP59" t="n">
+      <c r="KP59" s="2" t="n">
         <v>344</v>
+      </c>
+      <c r="KQ59" t="n">
+        <v>384</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="3">
@@ -55055,8 +55232,11 @@
       <c r="KO60" s="2" t="n">
         <v>1.25</v>
       </c>
-      <c r="KP60" t="n">
+      <c r="KP60" s="2" t="n">
         <v>1.37</v>
+      </c>
+      <c r="KQ60" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="3">
@@ -55965,8 +56145,11 @@
       <c r="KO61" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="KP61" t="n">
+      <c r="KP61" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="KQ61" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="3">
@@ -56875,8 +57058,11 @@
       <c r="KO62" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KP62" t="n">
+      <c r="KP62" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="KQ62" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="3">
@@ -57785,8 +57971,11 @@
       <c r="KO63" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KP63" t="n">
+      <c r="KP63" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KQ63" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="3">
@@ -58695,8 +58884,11 @@
       <c r="KO64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KP64" t="n">
+      <c r="KP64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KQ64" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="3">
@@ -59605,8 +59797,11 @@
       <c r="KO65" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KP65" t="n">
+      <c r="KP65" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KQ65" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="3">
@@ -60515,8 +60710,11 @@
       <c r="KO66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KP66" t="n">
+      <c r="KP66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KQ66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="3">
@@ -61425,8 +61623,11 @@
       <c r="KO67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KP67" t="n">
+      <c r="KP67" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KQ67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="3">
@@ -62335,8 +62536,11 @@
       <c r="KO68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KP68" t="n">
+      <c r="KP68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KQ68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="3">
@@ -63245,8 +63449,11 @@
       <c r="KO69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP69" t="n">
+      <c r="KP69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KQ69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="3">
@@ -64155,8 +64362,11 @@
       <c r="KO70" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KP70" t="n">
+      <c r="KP70" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KQ70" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="3">
@@ -65065,8 +65275,11 @@
       <c r="KO71" s="2" t="n">
         <v>51.7</v>
       </c>
-      <c r="KP71" t="n">
+      <c r="KP71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KQ71" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="3">
@@ -65975,8 +66188,11 @@
       <c r="KO72" s="2" t="n">
         <v>25.67</v>
       </c>
-      <c r="KP72" t="n">
+      <c r="KP72" s="2" t="n">
         <v>34.4</v>
+      </c>
+      <c r="KQ72" t="n">
+        <v>34.91</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="3">
@@ -66885,8 +67101,11 @@
       <c r="KO73" s="2" t="n">
         <v>13.28</v>
       </c>
-      <c r="KP73" t="n">
+      <c r="KP73" s="2" t="n">
         <v>17.2</v>
+      </c>
+      <c r="KQ73" t="n">
+        <v>25.6</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="3">
@@ -67795,8 +68014,11 @@
       <c r="KO74" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KP74" t="n">
+      <c r="KP74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KQ74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="3">
@@ -68705,8 +68927,11 @@
       <c r="KO75" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KP75" t="n">
+      <c r="KP75" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KQ75" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="3">
@@ -69615,8 +69840,11 @@
       <c r="KO76" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KP76" t="n">
+      <c r="KP76" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KQ76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="3">
@@ -70525,8 +70753,11 @@
       <c r="KO77" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KP77" t="n">
+      <c r="KP77" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KQ77" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="3">
@@ -71435,8 +71666,11 @@
       <c r="KO78" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="KP78" t="n">
+      <c r="KP78" s="2" t="n">
         <v>2.6</v>
+      </c>
+      <c r="KQ78" t="n">
+        <v>4.07</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="3">
@@ -72345,8 +72579,11 @@
       <c r="KO79" s="2" t="n">
         <v>4.67</v>
       </c>
-      <c r="KP79" t="n">
+      <c r="KP79" s="2" t="n">
         <v>5.2</v>
+      </c>
+      <c r="KQ79" t="n">
+        <v>5.55</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="3">
@@ -73255,8 +73492,11 @@
       <c r="KO80" s="2" t="n">
         <v>35.7</v>
       </c>
-      <c r="KP80" t="n">
+      <c r="KP80" s="2" t="n">
         <v>32.7</v>
+      </c>
+      <c r="KQ80" t="n">
+        <v>24.6</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="3">
@@ -74165,8 +74405,11 @@
       <c r="KO81" s="2" t="n">
         <v>21.4</v>
       </c>
-      <c r="KP81" t="n">
+      <c r="KP81" s="2" t="n">
         <v>19.2</v>
+      </c>
+      <c r="KQ81" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="3">
@@ -75075,8 +75318,11 @@
       <c r="KO82" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="KP82" t="n">
+      <c r="KP82" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="KQ82" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="3">
@@ -75985,7 +76231,10 @@
       <c r="KO83" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KP83" t="n">
+      <c r="KP83" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="KQ83" t="n">
         <v>86</v>
       </c>
     </row>
@@ -76895,8 +77144,11 @@
       <c r="KO84" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="KP84" t="n">
+      <c r="KP84" s="2" t="n">
         <v>24.41</v>
+      </c>
+      <c r="KQ84" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="3">
@@ -77805,8 +78057,11 @@
       <c r="KO85" s="2" t="n">
         <v>80.7</v>
       </c>
-      <c r="KP85" t="n">
+      <c r="KP85" s="2" t="n">
         <v>76.2</v>
+      </c>
+      <c r="KQ85" t="n">
+        <v>91.90000000000001</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="3">
@@ -78715,8 +78970,11 @@
       <c r="KO86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KP86" t="n">
+      <c r="KP86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KQ86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="3">
@@ -79625,8 +79883,11 @@
       <c r="KO87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP87" t="n">
+      <c r="KP87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KQ87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="3">
@@ -80535,8 +80796,11 @@
       <c r="KO88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KP88" t="n">
+      <c r="KP88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KQ88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="3">
@@ -81445,7 +81709,10 @@
       <c r="KO89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP89" t="n">
+      <c r="KP89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KQ89" t="n">
         <v>3</v>
       </c>
     </row>
@@ -82355,8 +82622,11 @@
       <c r="KO90" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="KP90" t="n">
+      <c r="KP90" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="KQ90" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="3">
@@ -83265,8 +83535,11 @@
       <c r="KO91" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="KP91" t="n">
+      <c r="KP91" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="KQ91" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="3">
@@ -84175,8 +84448,11 @@
       <c r="KO92" s="2" t="n">
         <v>266</v>
       </c>
-      <c r="KP92" t="n">
+      <c r="KP92" s="2" t="n">
         <v>248</v>
+      </c>
+      <c r="KQ92" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="3">
@@ -85085,8 +85361,11 @@
       <c r="KO93" s="2" t="n">
         <v>69.09999999999999</v>
       </c>
-      <c r="KP93" t="n">
+      <c r="KP93" s="2" t="n">
         <v>72.09999999999999</v>
+      </c>
+      <c r="KQ93" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="3">
@@ -85995,8 +86274,11 @@
       <c r="KO94" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KP94" t="n">
+      <c r="KP94" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KQ94" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="3">
@@ -86905,8 +87187,11 @@
       <c r="KO95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KP95" t="n">
+      <c r="KP95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KQ95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="3">
@@ -87815,8 +88100,11 @@
       <c r="KO96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KP96" t="n">
+      <c r="KP96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KQ96" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="3">
@@ -88725,8 +89013,11 @@
       <c r="KO97" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KP97" t="n">
+      <c r="KP97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KQ97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="3">
@@ -89635,8 +89926,11 @@
       <c r="KO98" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KP98" t="n">
+      <c r="KP98" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KQ98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="3">
@@ -90545,8 +90839,11 @@
       <c r="KO99" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KP99" t="n">
+      <c r="KP99" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KQ99" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="3">
@@ -91455,7 +91752,10 @@
       <c r="KO100" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KP100" t="n">
+      <c r="KP100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -92365,8 +92665,11 @@
       <c r="KO101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KP101" t="n">
+      <c r="KP101" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KQ101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="3">
@@ -93275,8 +93578,11 @@
       <c r="KO102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KP102" t="n">
+      <c r="KP102" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KQ102" t="n">
+        <v>45.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KQ102"/>
+  <dimension ref="A1:KR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KB100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KI101" activeCellId="0" sqref="KI101"/>
@@ -1368,8 +1368,11 @@
       <c r="KP1" s="2" t="n">
         <v>10861</v>
       </c>
-      <c r="KQ1" t="n">
+      <c r="KQ1" s="2" t="n">
         <v>10868</v>
+      </c>
+      <c r="KR1" t="n">
+        <v>10877</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="3">
@@ -2281,7 +2284,10 @@
       <c r="KP2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KQ2" t="n">
+      <c r="KQ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KR2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3194,8 +3200,11 @@
       <c r="KP3" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KQ3" t="n">
+      <c r="KQ3" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="3">
@@ -4107,8 +4116,11 @@
       <c r="KP4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KQ4" t="n">
+      <c r="KQ4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="3">
@@ -5020,7 +5032,10 @@
       <c r="KP5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KQ5" t="n">
+      <c r="KQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5933,8 +5948,11 @@
       <c r="KP6" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="KQ6" t="n">
+      <c r="KQ6" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="KR6" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="3">
@@ -6846,8 +6864,11 @@
       <c r="KP7" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KQ7" t="n">
+      <c r="KQ7" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KR7" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="3">
@@ -7759,8 +7780,11 @@
       <c r="KP8" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KQ8" t="n">
+      <c r="KQ8" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KR8" t="n">
+        <v>-81</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="3">
@@ -8672,8 +8696,11 @@
       <c r="KP9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KQ9" t="n">
+      <c r="KQ9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KR9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="3">
@@ -9585,8 +9612,11 @@
       <c r="KP10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KQ10" t="n">
+      <c r="KQ10" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KR10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="3">
@@ -10498,8 +10528,11 @@
       <c r="KP11" s="2" t="n">
         <v>228</v>
       </c>
-      <c r="KQ11" t="n">
+      <c r="KQ11" s="2" t="n">
         <v>244</v>
+      </c>
+      <c r="KR11" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="3">
@@ -11411,8 +11444,11 @@
       <c r="KP12" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="KQ12" t="n">
+      <c r="KQ12" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="KR12" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="3">
@@ -12324,8 +12360,11 @@
       <c r="KP13" s="2" t="n">
         <v>383</v>
       </c>
-      <c r="KQ13" t="n">
+      <c r="KQ13" s="2" t="n">
         <v>394</v>
+      </c>
+      <c r="KR13" t="n">
+        <v>302</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="3">
@@ -13237,8 +13276,11 @@
       <c r="KP14" s="2" t="n">
         <v>1.47</v>
       </c>
-      <c r="KQ14" t="n">
+      <c r="KQ14" s="2" t="n">
         <v>1.63</v>
+      </c>
+      <c r="KR14" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="3">
@@ -14150,8 +14192,11 @@
       <c r="KP15" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="KQ15" t="n">
+      <c r="KQ15" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KR15" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="3">
@@ -15063,8 +15108,11 @@
       <c r="KP16" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KQ16" t="n">
+      <c r="KQ16" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KR16" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="3">
@@ -15976,8 +16024,11 @@
       <c r="KP17" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KQ17" t="n">
+      <c r="KQ17" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KR17" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="3">
@@ -16889,7 +16940,10 @@
       <c r="KP18" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KQ18" t="n">
+      <c r="KQ18" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KR18" t="n">
         <v>12</v>
       </c>
     </row>
@@ -17802,8 +17856,11 @@
       <c r="KP19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KQ19" t="n">
+      <c r="KQ19" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KR19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="3">
@@ -18715,8 +18772,11 @@
       <c r="KP20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KQ20" t="n">
+      <c r="KQ20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KR20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="3">
@@ -19628,8 +19688,11 @@
       <c r="KP21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KQ21" t="n">
+      <c r="KQ21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KR21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="3">
@@ -20541,8 +20604,11 @@
       <c r="KP22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KQ22" t="n">
+      <c r="KQ22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KR22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="3">
@@ -21454,8 +21520,11 @@
       <c r="KP23" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KQ23" t="n">
+      <c r="KQ23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KR23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="3">
@@ -22367,8 +22436,11 @@
       <c r="KP24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KQ24" t="n">
+      <c r="KQ24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KR24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="3">
@@ -23280,8 +23352,11 @@
       <c r="KP25" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KQ25" t="n">
+      <c r="KQ25" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KR25" t="n">
+        <v>38.9</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="3">
@@ -24193,8 +24268,11 @@
       <c r="KP26" s="2" t="n">
         <v>31.92</v>
       </c>
-      <c r="KQ26" t="n">
+      <c r="KQ26" s="2" t="n">
         <v>30.31</v>
+      </c>
+      <c r="KR26" t="n">
+        <v>43.14</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="3">
@@ -25106,8 +25184,11 @@
       <c r="KP27" s="2" t="n">
         <v>15.32</v>
       </c>
-      <c r="KQ27" t="n">
+      <c r="KQ27" s="2" t="n">
         <v>15.76</v>
+      </c>
+      <c r="KR27" t="n">
+        <v>16.78</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="3">
@@ -26019,8 +26100,11 @@
       <c r="KP28" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KQ28" t="n">
+      <c r="KQ28" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KR28" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="3">
@@ -26932,8 +27016,11 @@
       <c r="KP29" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KQ29" t="n">
+      <c r="KQ29" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="KR29" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="3">
@@ -27845,8 +27932,11 @@
       <c r="KP30" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KQ30" t="n">
+      <c r="KQ30" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KR30" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="3">
@@ -28758,8 +28848,11 @@
       <c r="KP31" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KQ31" t="n">
+      <c r="KQ31" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KR31" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="3">
@@ -29671,8 +29764,11 @@
       <c r="KP32" s="2" t="n">
         <v>2.28</v>
       </c>
-      <c r="KQ32" t="n">
+      <c r="KQ32" s="2" t="n">
         <v>2.32</v>
+      </c>
+      <c r="KR32" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="3">
@@ -30584,8 +30680,11 @@
       <c r="KP33" s="2" t="n">
         <v>4.75</v>
       </c>
-      <c r="KQ33" t="n">
+      <c r="KQ33" s="2" t="n">
         <v>4.46</v>
+      </c>
+      <c r="KR33" t="n">
+        <v>5.43</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="3">
@@ -31497,8 +31596,11 @@
       <c r="KP34" s="2" t="n">
         <v>31.6</v>
       </c>
-      <c r="KQ34" t="n">
+      <c r="KQ34" s="2" t="n">
         <v>39.7</v>
+      </c>
+      <c r="KR34" t="n">
+        <v>36.8</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="3">
@@ -32410,8 +32512,11 @@
       <c r="KP35" s="2" t="n">
         <v>21.1</v>
       </c>
-      <c r="KQ35" t="n">
+      <c r="KQ35" s="2" t="n">
         <v>22.4</v>
+      </c>
+      <c r="KR35" t="n">
+        <v>18.4</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="3">
@@ -33323,8 +33428,11 @@
       <c r="KP36" s="2" t="n">
         <v>186.6</v>
       </c>
-      <c r="KQ36" t="n">
+      <c r="KQ36" s="2" t="n">
         <v>187.2</v>
+      </c>
+      <c r="KR36" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="3">
@@ -34236,7 +34344,10 @@
       <c r="KP37" s="2" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="KQ37" t="n">
+      <c r="KQ37" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="KR37" t="n">
         <v>86.7</v>
       </c>
     </row>
@@ -35149,8 +35260,11 @@
       <c r="KP38" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="KQ38" t="n">
+      <c r="KQ38" s="2" t="n">
         <v>26.66</v>
+      </c>
+      <c r="KR38" t="n">
+        <v>26.58</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="3">
@@ -36062,8 +36176,11 @@
       <c r="KP39" s="2" t="n">
         <v>129.2</v>
       </c>
-      <c r="KQ39" t="n">
+      <c r="KQ39" s="2" t="n">
         <v>127.7</v>
+      </c>
+      <c r="KR39" t="n">
+        <v>115.6</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="3">
@@ -36975,7 +37092,10 @@
       <c r="KP40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KQ40" t="n">
+      <c r="KQ40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -37888,8 +38008,11 @@
       <c r="KP41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KQ41" t="n">
+      <c r="KQ41" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KR41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="3">
@@ -38801,8 +38924,11 @@
       <c r="KP42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KQ42" t="n">
+      <c r="KQ42" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KR42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="3">
@@ -39714,8 +39840,11 @@
       <c r="KP43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KQ43" t="n">
+      <c r="KQ43" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KR43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="3">
@@ -40627,8 +40756,11 @@
       <c r="KP44" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="KQ44" t="n">
+      <c r="KQ44" s="2" t="n">
         <v>162</v>
+      </c>
+      <c r="KR44" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="3">
@@ -41540,8 +41672,11 @@
       <c r="KP45" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="KQ45" t="n">
+      <c r="KQ45" s="2" t="n">
         <v>209</v>
+      </c>
+      <c r="KR45" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="3">
@@ -42453,8 +42588,11 @@
       <c r="KP46" s="2" t="n">
         <v>272</v>
       </c>
-      <c r="KQ46" t="n">
+      <c r="KQ46" s="2" t="n">
         <v>257</v>
+      </c>
+      <c r="KR46" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="3">
@@ -43366,8 +43504,11 @@
       <c r="KP47" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KQ47" t="n">
+      <c r="KQ47" s="2" t="n">
         <v>65.2</v>
+      </c>
+      <c r="KR47" t="n">
+        <v>71.2</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="3">
@@ -44279,8 +44420,11 @@
       <c r="KP48" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KQ48" t="n">
+      <c r="KQ48" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="KR48" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="3">
@@ -45192,8 +45336,11 @@
       <c r="KP49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KQ49" t="n">
+      <c r="KQ49" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KR49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="3">
@@ -46105,8 +46252,11 @@
       <c r="KP50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KQ50" t="n">
+      <c r="KQ50" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KR50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="3">
@@ -47018,8 +47168,11 @@
       <c r="KP51" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KQ51" t="n">
+      <c r="KQ51" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KR51" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="3">
@@ -47931,8 +48084,11 @@
       <c r="KP52" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KQ52" t="n">
+      <c r="KQ52" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KR52" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="3">
@@ -48844,8 +49000,11 @@
       <c r="KP53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KQ53" t="n">
+      <c r="KQ53" s="2" t="n">
         <v>83</v>
+      </c>
+      <c r="KR53" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="3">
@@ -49757,8 +49916,11 @@
       <c r="KP54" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KQ54" t="n">
+      <c r="KQ54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KR54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="3">
@@ -50670,8 +50832,11 @@
       <c r="KP55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KQ55" t="n">
+      <c r="KQ55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KR55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="3">
@@ -51583,8 +51748,11 @@
       <c r="KP56" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KQ56" t="n">
+      <c r="KQ56" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="KR56" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="3">
@@ -52496,8 +52664,11 @@
       <c r="KP57" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="KQ57" t="n">
+      <c r="KQ57" s="2" t="n">
         <v>238</v>
+      </c>
+      <c r="KR57" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="3">
@@ -53409,8 +53580,11 @@
       <c r="KP58" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="KQ58" t="n">
+      <c r="KQ58" s="2" t="n">
         <v>146</v>
+      </c>
+      <c r="KR58" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="3">
@@ -54322,8 +54496,11 @@
       <c r="KP59" s="2" t="n">
         <v>344</v>
       </c>
-      <c r="KQ59" t="n">
+      <c r="KQ59" s="2" t="n">
         <v>384</v>
+      </c>
+      <c r="KR59" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="3">
@@ -55235,8 +55412,11 @@
       <c r="KP60" s="2" t="n">
         <v>1.37</v>
       </c>
-      <c r="KQ60" t="n">
+      <c r="KQ60" s="2" t="n">
         <v>1.63</v>
+      </c>
+      <c r="KR60" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="3">
@@ -56148,8 +56328,11 @@
       <c r="KP61" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="KQ61" t="n">
+      <c r="KQ61" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KR61" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="3">
@@ -57061,8 +57244,11 @@
       <c r="KP62" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="KQ62" t="n">
+      <c r="KQ62" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KR62" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="3">
@@ -57974,8 +58160,11 @@
       <c r="KP63" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KQ63" t="n">
+      <c r="KQ63" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KR63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="3">
@@ -58887,8 +59076,11 @@
       <c r="KP64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KQ64" t="n">
+      <c r="KQ64" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KR64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="3">
@@ -59800,7 +59992,10 @@
       <c r="KP65" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KQ65" t="n">
+      <c r="KQ65" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KR65" t="n">
         <v>12</v>
       </c>
     </row>
@@ -60713,8 +60908,11 @@
       <c r="KP66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KQ66" t="n">
+      <c r="KQ66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KR66" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="3">
@@ -61626,8 +61824,11 @@
       <c r="KP67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KQ67" t="n">
+      <c r="KQ67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KR67" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="3">
@@ -62539,8 +62740,11 @@
       <c r="KP68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KQ68" t="n">
+      <c r="KQ68" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KR68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="3">
@@ -63452,8 +63656,11 @@
       <c r="KP69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KQ69" t="n">
+      <c r="KQ69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KR69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="3">
@@ -64365,8 +64572,11 @@
       <c r="KP70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KQ70" t="n">
+      <c r="KQ70" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KR70" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="3">
@@ -65278,8 +65488,11 @@
       <c r="KP71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KQ71" t="n">
+      <c r="KQ71" s="2" t="n">
         <v>73.3</v>
+      </c>
+      <c r="KR71" t="n">
+        <v>58.8</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="3">
@@ -66191,8 +66404,11 @@
       <c r="KP72" s="2" t="n">
         <v>34.4</v>
       </c>
-      <c r="KQ72" t="n">
+      <c r="KQ72" s="2" t="n">
         <v>34.91</v>
+      </c>
+      <c r="KR72" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="3">
@@ -67104,8 +67320,11 @@
       <c r="KP73" s="2" t="n">
         <v>17.2</v>
       </c>
-      <c r="KQ73" t="n">
+      <c r="KQ73" s="2" t="n">
         <v>25.6</v>
+      </c>
+      <c r="KR73" t="n">
+        <v>11.18</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="3">
@@ -68017,8 +68236,11 @@
       <c r="KP74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KQ74" t="n">
+      <c r="KQ74" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KR74" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="3">
@@ -68930,8 +69152,11 @@
       <c r="KP75" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KQ75" t="n">
+      <c r="KQ75" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="KR75" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="3">
@@ -69843,8 +70068,11 @@
       <c r="KP76" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KQ76" t="n">
+      <c r="KQ76" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KR76" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="3">
@@ -70756,8 +70984,11 @@
       <c r="KP77" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KQ77" t="n">
+      <c r="KQ77" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KR77" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="3">
@@ -71669,8 +71900,11 @@
       <c r="KP78" s="2" t="n">
         <v>2.6</v>
       </c>
-      <c r="KQ78" t="n">
+      <c r="KQ78" s="2" t="n">
         <v>4.07</v>
+      </c>
+      <c r="KR78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="3">
@@ -72582,8 +72816,11 @@
       <c r="KP79" s="2" t="n">
         <v>5.2</v>
       </c>
-      <c r="KQ79" t="n">
+      <c r="KQ79" s="2" t="n">
         <v>5.55</v>
+      </c>
+      <c r="KR79" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="3">
@@ -73495,8 +73732,11 @@
       <c r="KP80" s="2" t="n">
         <v>32.7</v>
       </c>
-      <c r="KQ80" t="n">
+      <c r="KQ80" s="2" t="n">
         <v>24.6</v>
+      </c>
+      <c r="KR80" t="n">
+        <v>44.1</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="3">
@@ -74408,8 +74648,11 @@
       <c r="KP81" s="2" t="n">
         <v>19.2</v>
       </c>
-      <c r="KQ81" t="n">
+      <c r="KQ81" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KR81" t="n">
+        <v>29.4</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="3">
@@ -75321,8 +75564,11 @@
       <c r="KP82" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="KQ82" t="n">
+      <c r="KQ82" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="KR82" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="3">
@@ -76234,8 +76480,11 @@
       <c r="KP83" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KQ83" t="n">
+      <c r="KQ83" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="KR83" t="n">
+        <v>88.2</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="3">
@@ -77147,8 +77396,11 @@
       <c r="KP84" s="2" t="n">
         <v>24.41</v>
       </c>
-      <c r="KQ84" t="n">
+      <c r="KQ84" s="2" t="n">
         <v>25.16</v>
+      </c>
+      <c r="KR84" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="3">
@@ -78060,8 +78312,11 @@
       <c r="KP85" s="2" t="n">
         <v>76.2</v>
       </c>
-      <c r="KQ85" t="n">
+      <c r="KQ85" s="2" t="n">
         <v>91.90000000000001</v>
+      </c>
+      <c r="KR85" t="n">
+        <v>105.3</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="3">
@@ -78973,8 +79228,11 @@
       <c r="KP86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KQ86" t="n">
+      <c r="KQ86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KR86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="3">
@@ -79886,8 +80144,11 @@
       <c r="KP87" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KQ87" t="n">
+      <c r="KQ87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KR87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="3">
@@ -80799,8 +81060,11 @@
       <c r="KP88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KQ88" t="n">
+      <c r="KQ88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KR88" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="3">
@@ -81712,8 +81976,11 @@
       <c r="KP89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KQ89" t="n">
+      <c r="KQ89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KR89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="3">
@@ -82625,8 +82892,11 @@
       <c r="KP90" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="KQ90" t="n">
+      <c r="KQ90" s="2" t="n">
         <v>173</v>
+      </c>
+      <c r="KR90" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="3">
@@ -83538,8 +83808,11 @@
       <c r="KP91" s="2" t="n">
         <v>202</v>
       </c>
-      <c r="KQ91" t="n">
+      <c r="KQ91" s="2" t="n">
         <v>190</v>
+      </c>
+      <c r="KR91" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="3">
@@ -84451,8 +84724,11 @@
       <c r="KP92" s="2" t="n">
         <v>248</v>
       </c>
-      <c r="KQ92" t="n">
+      <c r="KQ92" s="2" t="n">
         <v>240</v>
+      </c>
+      <c r="KR92" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="3">
@@ -85364,8 +85640,11 @@
       <c r="KP93" s="2" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="KQ93" t="n">
+      <c r="KQ93" s="2" t="n">
         <v>62.5</v>
+      </c>
+      <c r="KR93" t="n">
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="3">
@@ -86277,8 +86556,11 @@
       <c r="KP94" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KQ94" t="n">
+      <c r="KQ94" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="KR94" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="3">
@@ -87190,8 +87472,11 @@
       <c r="KP95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KQ95" t="n">
+      <c r="KQ95" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KR95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="3">
@@ -88103,8 +88388,11 @@
       <c r="KP96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KQ96" t="n">
+      <c r="KQ96" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KR96" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="3">
@@ -89016,8 +89304,11 @@
       <c r="KP97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KQ97" t="n">
+      <c r="KQ97" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KR97" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="3">
@@ -89929,8 +90220,11 @@
       <c r="KP98" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KQ98" t="n">
+      <c r="KQ98" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KR98" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="3">
@@ -90842,8 +91136,11 @@
       <c r="KP99" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KQ99" t="n">
+      <c r="KQ99" s="2" t="n">
         <v>83</v>
+      </c>
+      <c r="KR99" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="3">
@@ -91755,8 +92052,11 @@
       <c r="KP100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KQ100" t="n">
+      <c r="KQ100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KR100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="3">
@@ -92668,8 +92968,11 @@
       <c r="KP101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KQ101" t="n">
+      <c r="KQ101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KR101" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="3">
@@ -93581,8 +93884,11 @@
       <c r="KP102" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KQ102" t="n">
+      <c r="KQ102" s="2" t="n">
         <v>45.5</v>
+      </c>
+      <c r="KR102" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KR102"/>
+  <dimension ref="A1:KS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KB100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KI101" activeCellId="0" sqref="KI101"/>
@@ -1371,8 +1371,11 @@
       <c r="KQ1" s="2" t="n">
         <v>10868</v>
       </c>
-      <c r="KR1" t="n">
+      <c r="KR1" s="2" t="n">
         <v>10877</v>
+      </c>
+      <c r="KS1" t="n">
+        <v>10890</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="3">
@@ -2287,7 +2290,10 @@
       <c r="KQ2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KR2" t="n">
+      <c r="KR2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KS2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3203,8 +3209,11 @@
       <c r="KQ3" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KR3" t="n">
+      <c r="KR3" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="3">
@@ -4119,8 +4128,11 @@
       <c r="KQ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KR4" t="n">
+      <c r="KR4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="3">
@@ -5035,7 +5047,10 @@
       <c r="KQ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KR5" t="n">
+      <c r="KR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5951,8 +5966,11 @@
       <c r="KQ6" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="KR6" t="n">
+      <c r="KR6" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KS6" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="3">
@@ -6867,8 +6885,11 @@
       <c r="KQ7" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KR7" t="n">
+      <c r="KR7" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="KS7" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="3">
@@ -7783,8 +7804,11 @@
       <c r="KQ8" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KR8" t="n">
+      <c r="KR8" s="2" t="n">
         <v>-81</v>
+      </c>
+      <c r="KS8" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="3">
@@ -8699,8 +8723,11 @@
       <c r="KQ9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KR9" t="n">
+      <c r="KR9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KS9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="3">
@@ -9615,8 +9642,11 @@
       <c r="KQ10" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KR10" t="n">
+      <c r="KR10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KS10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="3">
@@ -10531,8 +10561,11 @@
       <c r="KQ11" s="2" t="n">
         <v>244</v>
       </c>
-      <c r="KR11" t="n">
+      <c r="KR11" s="2" t="n">
         <v>181</v>
+      </c>
+      <c r="KS11" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="3">
@@ -11447,8 +11480,11 @@
       <c r="KQ12" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="KR12" t="n">
+      <c r="KR12" s="2" t="n">
         <v>121</v>
+      </c>
+      <c r="KS12" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="3">
@@ -12363,8 +12399,11 @@
       <c r="KQ13" s="2" t="n">
         <v>394</v>
       </c>
-      <c r="KR13" t="n">
+      <c r="KR13" s="2" t="n">
         <v>302</v>
+      </c>
+      <c r="KS13" t="n">
+        <v>347</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="3">
@@ -13279,7 +13318,10 @@
       <c r="KQ14" s="2" t="n">
         <v>1.63</v>
       </c>
-      <c r="KR14" t="n">
+      <c r="KR14" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="KS14" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -14195,8 +14237,11 @@
       <c r="KQ15" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KR15" t="n">
+      <c r="KR15" s="2" t="n">
         <v>83</v>
+      </c>
+      <c r="KS15" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="3">
@@ -15111,8 +15156,11 @@
       <c r="KQ16" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KR16" t="n">
+      <c r="KR16" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KS16" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="3">
@@ -16027,8 +16075,11 @@
       <c r="KQ17" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KR17" t="n">
+      <c r="KR17" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KS17" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="3">
@@ -16943,8 +16994,11 @@
       <c r="KQ18" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KR18" t="n">
+      <c r="KR18" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KS18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="3">
@@ -17859,8 +17913,11 @@
       <c r="KQ19" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KR19" t="n">
+      <c r="KR19" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KS19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="3">
@@ -18775,8 +18832,11 @@
       <c r="KQ20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KR20" t="n">
+      <c r="KR20" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KS20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="3">
@@ -19691,8 +19751,11 @@
       <c r="KQ21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KR21" t="n">
+      <c r="KR21" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KS21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="3">
@@ -20607,8 +20670,11 @@
       <c r="KQ22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KR22" t="n">
+      <c r="KR22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KS22" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="3">
@@ -21523,8 +21589,11 @@
       <c r="KQ23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KR23" t="n">
+      <c r="KR23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KS23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="3">
@@ -22439,8 +22508,11 @@
       <c r="KQ24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KR24" t="n">
+      <c r="KR24" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KS24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="3">
@@ -23355,8 +23427,11 @@
       <c r="KQ25" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KR25" t="n">
+      <c r="KR25" s="2" t="n">
         <v>38.9</v>
+      </c>
+      <c r="KS25" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="3">
@@ -24271,8 +24346,11 @@
       <c r="KQ26" s="2" t="n">
         <v>30.31</v>
       </c>
-      <c r="KR26" t="n">
+      <c r="KR26" s="2" t="n">
         <v>43.14</v>
+      </c>
+      <c r="KS26" t="n">
+        <v>28.92</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="3">
@@ -25187,8 +25265,11 @@
       <c r="KQ27" s="2" t="n">
         <v>15.76</v>
       </c>
-      <c r="KR27" t="n">
+      <c r="KR27" s="2" t="n">
         <v>16.78</v>
+      </c>
+      <c r="KS27" t="n">
+        <v>12.39</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="3">
@@ -26103,8 +26184,11 @@
       <c r="KQ28" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KR28" t="n">
+      <c r="KR28" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KS28" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="3">
@@ -27019,7 +27103,10 @@
       <c r="KQ29" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="KR29" t="n">
+      <c r="KR29" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="KS29" t="n">
         <v>64</v>
       </c>
     </row>
@@ -27935,8 +28022,11 @@
       <c r="KQ30" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KR30" t="n">
+      <c r="KR30" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KS30" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="3">
@@ -28851,8 +28941,11 @@
       <c r="KQ31" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KR31" t="n">
+      <c r="KR31" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KS31" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="3">
@@ -29767,8 +29860,11 @@
       <c r="KQ32" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="KR32" t="n">
+      <c r="KR32" s="2" t="n">
         <v>2.11</v>
+      </c>
+      <c r="KS32" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="3">
@@ -30683,8 +30779,11 @@
       <c r="KQ33" s="2" t="n">
         <v>4.46</v>
       </c>
-      <c r="KR33" t="n">
+      <c r="KR33" s="2" t="n">
         <v>5.43</v>
+      </c>
+      <c r="KS33" t="n">
+        <v>4.75</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="3">
@@ -31599,8 +31698,11 @@
       <c r="KQ34" s="2" t="n">
         <v>39.7</v>
       </c>
-      <c r="KR34" t="n">
+      <c r="KR34" s="2" t="n">
         <v>36.8</v>
+      </c>
+      <c r="KS34" t="n">
+        <v>45.6</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="3">
@@ -32515,8 +32617,11 @@
       <c r="KQ35" s="2" t="n">
         <v>22.4</v>
       </c>
-      <c r="KR35" t="n">
+      <c r="KR35" s="2" t="n">
         <v>18.4</v>
+      </c>
+      <c r="KS35" t="n">
+        <v>21.1</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="3">
@@ -33431,8 +33536,11 @@
       <c r="KQ36" s="2" t="n">
         <v>187.2</v>
       </c>
-      <c r="KR36" t="n">
+      <c r="KR36" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="KS36" t="n">
+        <v>187.1</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="3">
@@ -34347,8 +34455,11 @@
       <c r="KQ37" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="KR37" t="n">
+      <c r="KR37" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="KS37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="3">
@@ -35263,8 +35374,11 @@
       <c r="KQ38" s="2" t="n">
         <v>26.66</v>
       </c>
-      <c r="KR38" t="n">
+      <c r="KR38" s="2" t="n">
         <v>26.58</v>
+      </c>
+      <c r="KS38" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="3">
@@ -36179,8 +36293,11 @@
       <c r="KQ39" s="2" t="n">
         <v>127.7</v>
       </c>
-      <c r="KR39" t="n">
+      <c r="KR39" s="2" t="n">
         <v>115.6</v>
+      </c>
+      <c r="KS39" t="n">
+        <v>128.9</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="3">
@@ -37095,8 +37212,11 @@
       <c r="KQ40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KR40" t="n">
+      <c r="KR40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KS40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="3">
@@ -38011,7 +38131,10 @@
       <c r="KQ41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KR41" t="n">
+      <c r="KR41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -38927,8 +39050,11 @@
       <c r="KQ42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR42" t="n">
+      <c r="KR42" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KS42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="3">
@@ -39843,8 +39969,11 @@
       <c r="KQ43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KR43" t="n">
+      <c r="KR43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KS43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="3">
@@ -40759,8 +40888,11 @@
       <c r="KQ44" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="KR44" t="n">
+      <c r="KR44" s="2" t="n">
         <v>112</v>
+      </c>
+      <c r="KS44" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="3">
@@ -41675,8 +41807,11 @@
       <c r="KQ45" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="KR45" t="n">
+      <c r="KR45" s="2" t="n">
         <v>184</v>
+      </c>
+      <c r="KS45" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="3">
@@ -42591,8 +42726,11 @@
       <c r="KQ46" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="KR46" t="n">
+      <c r="KR46" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="KS46" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="3">
@@ -43507,8 +43645,11 @@
       <c r="KQ47" s="2" t="n">
         <v>65.2</v>
       </c>
-      <c r="KR47" t="n">
+      <c r="KR47" s="2" t="n">
         <v>71.2</v>
+      </c>
+      <c r="KS47" t="n">
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="3">
@@ -44423,7 +44564,10 @@
       <c r="KQ48" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="KR48" t="n">
+      <c r="KR48" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="KS48" t="n">
         <v>64</v>
       </c>
     </row>
@@ -45339,8 +45483,11 @@
       <c r="KQ49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KR49" t="n">
+      <c r="KR49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KS49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="3">
@@ -46255,8 +46402,11 @@
       <c r="KQ50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR50" t="n">
+      <c r="KR50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KS50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="3">
@@ -47171,8 +47321,11 @@
       <c r="KQ51" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KR51" t="n">
+      <c r="KR51" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KS51" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="3">
@@ -48087,8 +48240,11 @@
       <c r="KQ52" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KR52" t="n">
+      <c r="KR52" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KS52" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="3">
@@ -49003,8 +49159,11 @@
       <c r="KQ53" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="KR53" t="n">
+      <c r="KR53" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KS53" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="3">
@@ -49919,8 +50078,11 @@
       <c r="KQ54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KR54" t="n">
+      <c r="KR54" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KS54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="3">
@@ -50835,8 +50997,11 @@
       <c r="KQ55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KR55" t="n">
+      <c r="KR55" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KS55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="3">
@@ -51751,8 +51916,11 @@
       <c r="KQ56" s="2" t="n">
         <v>61.5</v>
       </c>
-      <c r="KR56" t="n">
+      <c r="KR56" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="KS56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="3">
@@ -52667,8 +52835,11 @@
       <c r="KQ57" s="2" t="n">
         <v>238</v>
       </c>
-      <c r="KR57" t="n">
+      <c r="KR57" s="2" t="n">
         <v>248</v>
+      </c>
+      <c r="KS57" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="3">
@@ -53583,8 +53754,11 @@
       <c r="KQ58" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="KR58" t="n">
+      <c r="KR58" s="2" t="n">
         <v>132</v>
+      </c>
+      <c r="KS58" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="3">
@@ -54499,8 +54673,11 @@
       <c r="KQ59" s="2" t="n">
         <v>384</v>
       </c>
-      <c r="KR59" t="n">
+      <c r="KR59" s="2" t="n">
         <v>380</v>
+      </c>
+      <c r="KS59" t="n">
+        <v>355</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="3">
@@ -55415,8 +55592,11 @@
       <c r="KQ60" s="2" t="n">
         <v>1.63</v>
       </c>
-      <c r="KR60" t="n">
+      <c r="KR60" s="2" t="n">
         <v>1.88</v>
+      </c>
+      <c r="KS60" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="3">
@@ -56331,8 +56511,11 @@
       <c r="KQ61" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KR61" t="n">
+      <c r="KR61" s="2" t="n">
         <v>112</v>
+      </c>
+      <c r="KS61" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="3">
@@ -57247,8 +57430,11 @@
       <c r="KQ62" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KR62" t="n">
+      <c r="KR62" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KS62" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="3">
@@ -58163,8 +58349,11 @@
       <c r="KQ63" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KR63" t="n">
+      <c r="KR63" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KS63" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="3">
@@ -59079,8 +59268,11 @@
       <c r="KQ64" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KR64" t="n">
+      <c r="KR64" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KS64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="3">
@@ -59995,8 +60187,11 @@
       <c r="KQ65" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KR65" t="n">
+      <c r="KR65" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KS65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="3">
@@ -60911,8 +61106,11 @@
       <c r="KQ66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KR66" t="n">
+      <c r="KR66" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KS66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="3">
@@ -61827,8 +62025,11 @@
       <c r="KQ67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR67" t="n">
+      <c r="KR67" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KS67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="3">
@@ -62743,8 +62944,11 @@
       <c r="KQ68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KR68" t="n">
+      <c r="KR68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KS68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="3">
@@ -63659,8 +63863,11 @@
       <c r="KQ69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KR69" t="n">
+      <c r="KR69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KS69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="3">
@@ -64575,8 +64782,11 @@
       <c r="KQ70" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KR70" t="n">
+      <c r="KR70" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KS70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="3">
@@ -65491,8 +65701,11 @@
       <c r="KQ71" s="2" t="n">
         <v>73.3</v>
       </c>
-      <c r="KR71" t="n">
+      <c r="KR71" s="2" t="n">
         <v>58.8</v>
+      </c>
+      <c r="KS71" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="3">
@@ -66407,8 +66620,11 @@
       <c r="KQ72" s="2" t="n">
         <v>34.91</v>
       </c>
-      <c r="KR72" t="n">
+      <c r="KR72" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KS72" t="n">
+        <v>32.27</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="3">
@@ -67323,8 +67539,11 @@
       <c r="KQ73" s="2" t="n">
         <v>25.6</v>
       </c>
-      <c r="KR73" t="n">
+      <c r="KR73" s="2" t="n">
         <v>11.18</v>
+      </c>
+      <c r="KS73" t="n">
+        <v>17.75</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="3">
@@ -68239,8 +68458,11 @@
       <c r="KQ74" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KR74" t="n">
+      <c r="KR74" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KS74" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="3">
@@ -69155,8 +69377,11 @@
       <c r="KQ75" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="KR75" t="n">
+      <c r="KR75" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KS75" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="3">
@@ -70071,8 +70296,11 @@
       <c r="KQ76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KR76" t="n">
+      <c r="KR76" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KS76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="3">
@@ -70987,8 +71215,11 @@
       <c r="KQ77" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KR77" t="n">
+      <c r="KR77" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KS77" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="3">
@@ -71903,8 +72134,11 @@
       <c r="KQ78" s="2" t="n">
         <v>4.07</v>
       </c>
-      <c r="KR78" t="n">
+      <c r="KR78" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KS78" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="3">
@@ -72819,8 +73053,11 @@
       <c r="KQ79" s="2" t="n">
         <v>5.55</v>
       </c>
-      <c r="KR79" t="n">
+      <c r="KR79" s="2" t="n">
         <v>3.4</v>
+      </c>
+      <c r="KS79" t="n">
+        <v>4.45</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="3">
@@ -73735,8 +73972,11 @@
       <c r="KQ80" s="2" t="n">
         <v>24.6</v>
       </c>
-      <c r="KR80" t="n">
+      <c r="KR80" s="2" t="n">
         <v>44.1</v>
+      </c>
+      <c r="KS80" t="n">
+        <v>36.7</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="3">
@@ -74651,8 +74891,11 @@
       <c r="KQ81" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KR81" t="n">
+      <c r="KR81" s="2" t="n">
         <v>29.4</v>
+      </c>
+      <c r="KS81" t="n">
+        <v>22.4</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="3">
@@ -75567,8 +75810,11 @@
       <c r="KQ82" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="KR82" t="n">
+      <c r="KR82" s="2" t="n">
         <v>188.9</v>
+      </c>
+      <c r="KS82" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="3">
@@ -76483,8 +76729,11 @@
       <c r="KQ83" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KR83" t="n">
+      <c r="KR83" s="2" t="n">
         <v>88.2</v>
+      </c>
+      <c r="KS83" t="n">
+        <v>87.8</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="3">
@@ -77399,8 +77648,11 @@
       <c r="KQ84" s="2" t="n">
         <v>25.16</v>
       </c>
-      <c r="KR84" t="n">
+      <c r="KR84" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="KS84" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="3">
@@ -78315,8 +78567,11 @@
       <c r="KQ85" s="2" t="n">
         <v>91.90000000000001</v>
       </c>
-      <c r="KR85" t="n">
+      <c r="KR85" s="2" t="n">
         <v>105.3</v>
+      </c>
+      <c r="KS85" t="n">
+        <v>124.6</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="3">
@@ -79231,8 +79486,11 @@
       <c r="KQ86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KR86" t="n">
+      <c r="KR86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KS86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="3">
@@ -80147,8 +80405,11 @@
       <c r="KQ87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR87" t="n">
+      <c r="KR87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KS87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="3">
@@ -81063,8 +81324,11 @@
       <c r="KQ88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR88" t="n">
+      <c r="KR88" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KS88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="3">
@@ -81979,8 +82243,11 @@
       <c r="KQ89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KR89" t="n">
+      <c r="KR89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KS89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="3">
@@ -82895,8 +83162,11 @@
       <c r="KQ90" s="2" t="n">
         <v>173</v>
       </c>
-      <c r="KR90" t="n">
+      <c r="KR90" s="2" t="n">
         <v>138</v>
+      </c>
+      <c r="KS90" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="3">
@@ -83811,8 +84081,11 @@
       <c r="KQ91" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="KR91" t="n">
+      <c r="KR91" s="2" t="n">
         <v>237</v>
+      </c>
+      <c r="KS91" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="3">
@@ -84727,8 +85000,11 @@
       <c r="KQ92" s="2" t="n">
         <v>240</v>
       </c>
-      <c r="KR92" t="n">
+      <c r="KR92" s="2" t="n">
         <v>295</v>
+      </c>
+      <c r="KS92" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="3">
@@ -85643,8 +85919,11 @@
       <c r="KQ93" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="KR93" t="n">
+      <c r="KR93" s="2" t="n">
         <v>77.59999999999999</v>
+      </c>
+      <c r="KS93" t="n">
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="3">
@@ -86559,8 +86838,11 @@
       <c r="KQ94" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="KR94" t="n">
+      <c r="KR94" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KS94" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="3">
@@ -87475,8 +87757,11 @@
       <c r="KQ95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KR95" t="n">
+      <c r="KR95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KS95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="3">
@@ -88391,8 +88676,11 @@
       <c r="KQ96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KR96" t="n">
+      <c r="KR96" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KS96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="3">
@@ -89307,8 +89595,11 @@
       <c r="KQ97" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KR97" t="n">
+      <c r="KR97" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KS97" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="3">
@@ -90223,8 +90514,11 @@
       <c r="KQ98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KR98" t="n">
+      <c r="KR98" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KS98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="3">
@@ -91139,8 +91433,11 @@
       <c r="KQ99" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="KR99" t="n">
+      <c r="KR99" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KS99" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="3">
@@ -92055,8 +92352,11 @@
       <c r="KQ100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KR100" t="n">
+      <c r="KR100" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KS100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="3">
@@ -92971,8 +93271,11 @@
       <c r="KQ101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR101" t="n">
+      <c r="KR101" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KS101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="3">
@@ -93887,8 +94190,11 @@
       <c r="KQ102" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="KR102" t="n">
+      <c r="KR102" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KS102" t="n">
+        <v>90.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KS102"/>
+  <dimension ref="A1:KT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KB100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KI101" activeCellId="0" sqref="KI101"/>
@@ -1374,8 +1374,11 @@
       <c r="KR1" s="2" t="n">
         <v>10877</v>
       </c>
-      <c r="KS1" t="n">
+      <c r="KS1" s="2" t="n">
         <v>10890</v>
+      </c>
+      <c r="KT1" t="n">
+        <v>10903</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="3">
@@ -2293,7 +2296,10 @@
       <c r="KR2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KS2" t="n">
+      <c r="KS2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KT2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3212,8 +3218,11 @@
       <c r="KR3" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KS3" t="n">
+      <c r="KS3" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="3">
@@ -4131,8 +4140,11 @@
       <c r="KR4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KS4" t="n">
+      <c r="KS4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="3">
@@ -5050,8 +5062,11 @@
       <c r="KR5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KS5" t="n">
+      <c r="KS5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KT5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="3">
@@ -5969,8 +5984,11 @@
       <c r="KR6" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KS6" t="n">
+      <c r="KS6" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="KT6" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="3">
@@ -6888,8 +6906,11 @@
       <c r="KR7" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="KS7" t="n">
+      <c r="KS7" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KT7" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="3">
@@ -7807,8 +7828,11 @@
       <c r="KR8" s="2" t="n">
         <v>-81</v>
       </c>
-      <c r="KS8" t="n">
+      <c r="KS8" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KT8" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="3">
@@ -8726,7 +8750,10 @@
       <c r="KR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KS9" t="n">
+      <c r="KS9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9645,8 +9672,11 @@
       <c r="KR10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KS10" t="n">
+      <c r="KS10" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KT10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="3">
@@ -10564,8 +10594,11 @@
       <c r="KR11" s="2" t="n">
         <v>181</v>
       </c>
-      <c r="KS11" t="n">
+      <c r="KS11" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="KT11" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="3">
@@ -11483,8 +11516,11 @@
       <c r="KR12" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="KS12" t="n">
+      <c r="KS12" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="KT12" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="3">
@@ -12402,8 +12438,11 @@
       <c r="KR13" s="2" t="n">
         <v>302</v>
       </c>
-      <c r="KS13" t="n">
+      <c r="KS13" s="2" t="n">
         <v>347</v>
+      </c>
+      <c r="KT13" t="n">
+        <v>345</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="3">
@@ -13321,8 +13360,11 @@
       <c r="KR14" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="KS14" t="n">
+      <c r="KS14" s="2" t="n">
         <v>1.5</v>
+      </c>
+      <c r="KT14" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="3">
@@ -14240,8 +14282,11 @@
       <c r="KR15" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="KS15" t="n">
+      <c r="KS15" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KT15" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="3">
@@ -15159,8 +15204,11 @@
       <c r="KR16" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KS16" t="n">
+      <c r="KS16" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KT16" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="3">
@@ -16078,8 +16126,11 @@
       <c r="KR17" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KS17" t="n">
+      <c r="KS17" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KT17" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="3">
@@ -16997,8 +17048,11 @@
       <c r="KR18" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KS18" t="n">
+      <c r="KS18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KT18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="3">
@@ -17916,8 +17970,11 @@
       <c r="KR19" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KS19" t="n">
+      <c r="KS19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KT19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="3">
@@ -18835,8 +18892,11 @@
       <c r="KR20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KS20" t="n">
+      <c r="KS20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KT20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="3">
@@ -19754,8 +19814,11 @@
       <c r="KR21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS21" t="n">
+      <c r="KS21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KT21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="3">
@@ -20673,8 +20736,11 @@
       <c r="KR22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KS22" t="n">
+      <c r="KS22" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KT22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="3">
@@ -21592,8 +21658,11 @@
       <c r="KR23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KS23" t="n">
+      <c r="KS23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KT23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="3">
@@ -22511,7 +22580,10 @@
       <c r="KR24" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KS24" t="n">
+      <c r="KS24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="KT24" t="n">
         <v>28</v>
       </c>
     </row>
@@ -23430,8 +23502,11 @@
       <c r="KR25" s="2" t="n">
         <v>38.9</v>
       </c>
-      <c r="KS25" t="n">
+      <c r="KS25" s="2" t="n">
         <v>42.9</v>
+      </c>
+      <c r="KT25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="3">
@@ -24349,8 +24424,11 @@
       <c r="KR26" s="2" t="n">
         <v>43.14</v>
       </c>
-      <c r="KS26" t="n">
+      <c r="KS26" s="2" t="n">
         <v>28.92</v>
+      </c>
+      <c r="KT26" t="n">
+        <v>24.64</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="3">
@@ -25268,8 +25346,11 @@
       <c r="KR27" s="2" t="n">
         <v>16.78</v>
       </c>
-      <c r="KS27" t="n">
+      <c r="KS27" s="2" t="n">
         <v>12.39</v>
+      </c>
+      <c r="KT27" t="n">
+        <v>12.32</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="3">
@@ -26187,8 +26268,11 @@
       <c r="KR28" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KS28" t="n">
+      <c r="KS28" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KT28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="3">
@@ -27106,8 +27190,11 @@
       <c r="KR29" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KS29" t="n">
+      <c r="KS29" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KT29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="3">
@@ -28025,8 +28112,11 @@
       <c r="KR30" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KS30" t="n">
+      <c r="KS30" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KT30" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="3">
@@ -28944,8 +29034,11 @@
       <c r="KR31" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KS31" t="n">
+      <c r="KS31" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KT31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="3">
@@ -29863,8 +29956,11 @@
       <c r="KR32" s="2" t="n">
         <v>2.11</v>
       </c>
-      <c r="KS32" t="n">
+      <c r="KS32" s="2" t="n">
         <v>2.04</v>
+      </c>
+      <c r="KT32" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="3">
@@ -30782,8 +30878,11 @@
       <c r="KR33" s="2" t="n">
         <v>5.43</v>
       </c>
-      <c r="KS33" t="n">
+      <c r="KS33" s="2" t="n">
         <v>4.75</v>
+      </c>
+      <c r="KT33" t="n">
+        <v>3.64</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="3">
@@ -31701,8 +31800,11 @@
       <c r="KR34" s="2" t="n">
         <v>36.8</v>
       </c>
-      <c r="KS34" t="n">
+      <c r="KS34" s="2" t="n">
         <v>45.6</v>
+      </c>
+      <c r="KT34" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="3">
@@ -32620,8 +32722,11 @@
       <c r="KR35" s="2" t="n">
         <v>18.4</v>
       </c>
-      <c r="KS35" t="n">
+      <c r="KS35" s="2" t="n">
         <v>21.1</v>
+      </c>
+      <c r="KT35" t="n">
+        <v>27.5</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="3">
@@ -33539,7 +33644,10 @@
       <c r="KR36" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="KS36" t="n">
+      <c r="KS36" s="2" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="KT36" t="n">
         <v>187.1</v>
       </c>
     </row>
@@ -34458,8 +34566,11 @@
       <c r="KR37" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="KS37" t="n">
+      <c r="KS37" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="KT37" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="3">
@@ -35377,7 +35488,10 @@
       <c r="KR38" s="2" t="n">
         <v>26.58</v>
       </c>
-      <c r="KS38" t="n">
+      <c r="KS38" s="2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="KT38" t="n">
         <v>27.8</v>
       </c>
     </row>
@@ -36296,8 +36410,11 @@
       <c r="KR39" s="2" t="n">
         <v>115.6</v>
       </c>
-      <c r="KS39" t="n">
+      <c r="KS39" s="2" t="n">
         <v>128.9</v>
+      </c>
+      <c r="KT39" t="n">
+        <v>127.6</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="3">
@@ -37215,7 +37332,10 @@
       <c r="KR40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS40" t="n">
+      <c r="KS40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KT40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -38134,8 +38254,11 @@
       <c r="KR41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KS41" t="n">
+      <c r="KS41" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KT41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="3">
@@ -39053,8 +39176,11 @@
       <c r="KR42" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KS42" t="n">
+      <c r="KS42" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="3">
@@ -39972,7 +40098,10 @@
       <c r="KR43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS43" t="n">
+      <c r="KS43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KT43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -40891,8 +41020,11 @@
       <c r="KR44" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="KS44" t="n">
+      <c r="KS44" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="KT44" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="3">
@@ -41810,8 +41942,11 @@
       <c r="KR45" s="2" t="n">
         <v>184</v>
       </c>
-      <c r="KS45" t="n">
+      <c r="KS45" s="2" t="n">
         <v>198</v>
+      </c>
+      <c r="KT45" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="3">
@@ -42729,8 +42864,11 @@
       <c r="KR46" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="KS46" t="n">
+      <c r="KS46" s="2" t="n">
         <v>234</v>
+      </c>
+      <c r="KT46" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="3">
@@ -43648,8 +43786,11 @@
       <c r="KR47" s="2" t="n">
         <v>71.2</v>
       </c>
-      <c r="KS47" t="n">
+      <c r="KS47" s="2" t="n">
         <v>67.40000000000001</v>
+      </c>
+      <c r="KT47" t="n">
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="3">
@@ -44567,8 +44708,11 @@
       <c r="KR48" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KS48" t="n">
+      <c r="KS48" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KT48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="3">
@@ -45486,8 +45630,11 @@
       <c r="KR49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KS49" t="n">
+      <c r="KS49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KT49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="3">
@@ -46405,8 +46552,11 @@
       <c r="KR50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KS50" t="n">
+      <c r="KS50" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KT50" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="3">
@@ -47324,8 +47474,11 @@
       <c r="KR51" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KS51" t="n">
+      <c r="KS51" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KT51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="3">
@@ -48243,8 +48396,11 @@
       <c r="KR52" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KS52" t="n">
+      <c r="KS52" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KT52" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="3">
@@ -49162,8 +49318,11 @@
       <c r="KR53" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KS53" t="n">
+      <c r="KS53" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="KT53" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="3">
@@ -50081,8 +50240,11 @@
       <c r="KR54" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KS54" t="n">
+      <c r="KS54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KT54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="3">
@@ -51000,8 +51162,11 @@
       <c r="KR55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS55" t="n">
+      <c r="KS55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KT55" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="3">
@@ -51919,8 +52084,11 @@
       <c r="KR56" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="KS56" t="n">
+      <c r="KS56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KT56" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="3">
@@ -52838,8 +53006,11 @@
       <c r="KR57" s="2" t="n">
         <v>248</v>
       </c>
-      <c r="KS57" t="n">
+      <c r="KS57" s="2" t="n">
         <v>198</v>
+      </c>
+      <c r="KT57" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="3">
@@ -53757,8 +53928,11 @@
       <c r="KR58" s="2" t="n">
         <v>132</v>
       </c>
-      <c r="KS58" t="n">
+      <c r="KS58" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="KT58" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="3">
@@ -54676,8 +54850,11 @@
       <c r="KR59" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="KS59" t="n">
+      <c r="KS59" s="2" t="n">
         <v>355</v>
+      </c>
+      <c r="KT59" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="3">
@@ -55595,8 +55772,11 @@
       <c r="KR60" s="2" t="n">
         <v>1.88</v>
       </c>
-      <c r="KS60" t="n">
+      <c r="KS60" s="2" t="n">
         <v>1.26</v>
+      </c>
+      <c r="KT60" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="3">
@@ -56514,8 +56694,11 @@
       <c r="KR61" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="KS61" t="n">
+      <c r="KS61" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="KT61" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="3">
@@ -57433,8 +57616,11 @@
       <c r="KR62" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KS62" t="n">
+      <c r="KS62" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KT62" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="3">
@@ -58352,8 +58538,11 @@
       <c r="KR63" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KS63" t="n">
+      <c r="KS63" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KT63" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="3">
@@ -59271,8 +59460,11 @@
       <c r="KR64" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KS64" t="n">
+      <c r="KS64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KT64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="3">
@@ -60190,8 +60382,11 @@
       <c r="KR65" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KS65" t="n">
+      <c r="KS65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KT65" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="3">
@@ -61109,8 +61304,11 @@
       <c r="KR66" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KS66" t="n">
+      <c r="KS66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KT66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="3">
@@ -62028,8 +62226,11 @@
       <c r="KR67" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KS67" t="n">
+      <c r="KS67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KT67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="3">
@@ -62947,8 +63148,11 @@
       <c r="KR68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KS68" t="n">
+      <c r="KS68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="3">
@@ -63866,8 +64070,11 @@
       <c r="KR69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KS69" t="n">
+      <c r="KS69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KT69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="3">
@@ -64785,7 +64992,10 @@
       <c r="KR70" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KS70" t="n">
+      <c r="KS70" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KT70" t="n">
         <v>20</v>
       </c>
     </row>
@@ -65704,8 +65914,11 @@
       <c r="KR71" s="2" t="n">
         <v>58.8</v>
       </c>
-      <c r="KS71" t="n">
+      <c r="KS71" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KT71" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="3">
@@ -66623,8 +66836,11 @@
       <c r="KR72" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KS72" t="n">
+      <c r="KS72" s="2" t="n">
         <v>32.27</v>
+      </c>
+      <c r="KT72" t="n">
+        <v>42.38</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="3">
@@ -67542,8 +67758,11 @@
       <c r="KR73" s="2" t="n">
         <v>11.18</v>
       </c>
-      <c r="KS73" t="n">
+      <c r="KS73" s="2" t="n">
         <v>17.75</v>
+      </c>
+      <c r="KT73" t="n">
+        <v>16.95</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="3">
@@ -68461,8 +68680,11 @@
       <c r="KR74" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KS74" t="n">
+      <c r="KS74" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KT74" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="3">
@@ -69380,8 +69602,11 @@
       <c r="KR75" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KS75" t="n">
+      <c r="KS75" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KT75" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="3">
@@ -70299,8 +70524,11 @@
       <c r="KR76" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KS76" t="n">
+      <c r="KS76" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KT76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="3">
@@ -71218,8 +71446,11 @@
       <c r="KR77" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KS77" t="n">
+      <c r="KS77" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KT77" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="3">
@@ -72137,8 +72368,11 @@
       <c r="KR78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KS78" t="n">
+      <c r="KS78" s="2" t="n">
         <v>2.45</v>
+      </c>
+      <c r="KT78" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="3">
@@ -73056,8 +73290,11 @@
       <c r="KR79" s="2" t="n">
         <v>3.4</v>
       </c>
-      <c r="KS79" t="n">
+      <c r="KS79" s="2" t="n">
         <v>4.45</v>
+      </c>
+      <c r="KT79" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="3">
@@ -73975,8 +74212,11 @@
       <c r="KR80" s="2" t="n">
         <v>44.1</v>
       </c>
-      <c r="KS80" t="n">
+      <c r="KS80" s="2" t="n">
         <v>36.7</v>
+      </c>
+      <c r="KT80" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="3">
@@ -74894,8 +75134,11 @@
       <c r="KR81" s="2" t="n">
         <v>29.4</v>
       </c>
-      <c r="KS81" t="n">
+      <c r="KS81" s="2" t="n">
         <v>22.4</v>
+      </c>
+      <c r="KT81" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="3">
@@ -75813,8 +76056,11 @@
       <c r="KR82" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="KS82" t="n">
+      <c r="KS82" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="KT82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="3">
@@ -76732,8 +76978,11 @@
       <c r="KR83" s="2" t="n">
         <v>88.2</v>
       </c>
-      <c r="KS83" t="n">
+      <c r="KS83" s="2" t="n">
         <v>87.8</v>
+      </c>
+      <c r="KT83" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="3">
@@ -77651,8 +77900,11 @@
       <c r="KR84" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="KS84" t="n">
+      <c r="KS84" s="2" t="n">
         <v>26.33</v>
+      </c>
+      <c r="KT84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="3">
@@ -78570,8 +78822,11 @@
       <c r="KR85" s="2" t="n">
         <v>105.3</v>
       </c>
-      <c r="KS85" t="n">
+      <c r="KS85" s="2" t="n">
         <v>124.6</v>
+      </c>
+      <c r="KT85" t="n">
+        <v>117.1</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="3">
@@ -79489,8 +79744,11 @@
       <c r="KR86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS86" t="n">
+      <c r="KS86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KT86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="3">
@@ -80408,8 +80666,11 @@
       <c r="KR87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KS87" t="n">
+      <c r="KS87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="3">
@@ -81327,8 +81588,11 @@
       <c r="KR88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KS88" t="n">
+      <c r="KS88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KT88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="3">
@@ -82246,8 +82510,11 @@
       <c r="KR89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS89" t="n">
+      <c r="KS89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="3">
@@ -83165,8 +83432,11 @@
       <c r="KR90" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="KS90" t="n">
+      <c r="KS90" s="2" t="n">
         <v>132</v>
+      </c>
+      <c r="KT90" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="3">
@@ -84084,8 +84354,11 @@
       <c r="KR91" s="2" t="n">
         <v>237</v>
       </c>
-      <c r="KS91" t="n">
+      <c r="KS91" s="2" t="n">
         <v>211</v>
+      </c>
+      <c r="KT91" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="3">
@@ -85003,8 +85276,11 @@
       <c r="KR92" s="2" t="n">
         <v>295</v>
       </c>
-      <c r="KS92" t="n">
+      <c r="KS92" s="2" t="n">
         <v>257</v>
+      </c>
+      <c r="KT92" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="3">
@@ -85922,8 +86198,11 @@
       <c r="KR93" s="2" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="KS93" t="n">
+      <c r="KS93" s="2" t="n">
         <v>72.40000000000001</v>
+      </c>
+      <c r="KT93" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="3">
@@ -86841,8 +87120,11 @@
       <c r="KR94" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KS94" t="n">
+      <c r="KS94" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KT94" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="3">
@@ -87760,8 +88042,11 @@
       <c r="KR95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KS95" t="n">
+      <c r="KS95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KT95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="3">
@@ -88679,7 +88964,10 @@
       <c r="KR96" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KS96" t="n">
+      <c r="KS96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KT96" t="n">
         <v>12</v>
       </c>
     </row>
@@ -89598,8 +89886,11 @@
       <c r="KR97" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KS97" t="n">
+      <c r="KS97" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KT97" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="3">
@@ -90517,8 +90808,11 @@
       <c r="KR98" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KS98" t="n">
+      <c r="KS98" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KT98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="3">
@@ -91436,8 +91730,11 @@
       <c r="KR99" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KS99" t="n">
+      <c r="KS99" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KT99" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="3">
@@ -92355,7 +92652,10 @@
       <c r="KR100" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KS100" t="n">
+      <c r="KS100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KT100" t="n">
         <v>5</v>
       </c>
     </row>
@@ -93274,8 +93574,11 @@
       <c r="KR101" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KS101" t="n">
+      <c r="KS101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KT101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="3">
@@ -94193,8 +94496,11 @@
       <c r="KR102" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KS102" t="n">
+      <c r="KS102" s="2" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="KT102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KT102"/>
+  <dimension ref="A1:KU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KB100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KI101" activeCellId="0" sqref="KI101"/>
@@ -1377,8 +1377,11 @@
       <c r="KS1" s="2" t="n">
         <v>10890</v>
       </c>
-      <c r="KT1" t="n">
+      <c r="KT1" s="2" t="n">
         <v>10903</v>
+      </c>
+      <c r="KU1" t="n">
+        <v>10909</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="3">
@@ -2299,7 +2302,10 @@
       <c r="KS2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KT2" t="n">
+      <c r="KT2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KU2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3221,8 +3227,11 @@
       <c r="KS3" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KT3" t="n">
+      <c r="KT3" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="3">
@@ -4143,8 +4152,11 @@
       <c r="KS4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KT4" t="n">
+      <c r="KT4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="3">
@@ -5065,8 +5077,11 @@
       <c r="KS5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KT5" t="n">
+      <c r="KT5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KU5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="3">
@@ -5987,8 +6002,11 @@
       <c r="KS6" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KT6" t="n">
+      <c r="KT6" s="2" t="n">
         <v>98</v>
+      </c>
+      <c r="KU6" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="3">
@@ -6909,8 +6927,11 @@
       <c r="KS7" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KT7" t="n">
+      <c r="KT7" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KU7" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="3">
@@ -7831,8 +7852,11 @@
       <c r="KS8" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KT8" t="n">
+      <c r="KT8" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KU8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="3">
@@ -8753,7 +8777,10 @@
       <c r="KS9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT9" t="n">
+      <c r="KT9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9675,8 +9702,11 @@
       <c r="KS10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KT10" t="n">
+      <c r="KT10" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KU10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="3">
@@ -10597,8 +10627,11 @@
       <c r="KS11" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="KT11" t="n">
+      <c r="KT11" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="KU11" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="3">
@@ -11519,8 +11552,11 @@
       <c r="KS12" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="KT12" t="n">
+      <c r="KT12" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="KU12" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="3">
@@ -12441,8 +12477,11 @@
       <c r="KS13" s="2" t="n">
         <v>347</v>
       </c>
-      <c r="KT13" t="n">
+      <c r="KT13" s="2" t="n">
         <v>345</v>
+      </c>
+      <c r="KU13" t="n">
+        <v>378</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="3">
@@ -13363,8 +13402,11 @@
       <c r="KS14" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="KT14" t="n">
+      <c r="KT14" s="2" t="n">
         <v>1.24</v>
+      </c>
+      <c r="KU14" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="3">
@@ -14285,8 +14327,11 @@
       <c r="KS15" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KT15" t="n">
+      <c r="KT15" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="KU15" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="3">
@@ -15207,8 +15252,11 @@
       <c r="KS16" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KT16" t="n">
+      <c r="KT16" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KU16" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="3">
@@ -16129,8 +16177,11 @@
       <c r="KS17" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KT17" t="n">
+      <c r="KT17" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KU17" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="3">
@@ -17051,8 +17102,11 @@
       <c r="KS18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KT18" t="n">
+      <c r="KT18" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KU18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="3">
@@ -17973,8 +18027,11 @@
       <c r="KS19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KT19" t="n">
+      <c r="KT19" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KU19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="3">
@@ -18895,7 +18952,10 @@
       <c r="KS20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KT20" t="n">
+      <c r="KT20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KU20" t="n">
         <v>14</v>
       </c>
     </row>
@@ -19817,8 +19877,11 @@
       <c r="KS21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KT21" t="n">
+      <c r="KT21" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KU21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="3">
@@ -20739,7 +20802,10 @@
       <c r="KS22" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KT22" t="n">
+      <c r="KT22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KU22" t="n">
         <v>11</v>
       </c>
     </row>
@@ -21661,8 +21727,11 @@
       <c r="KS23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KT23" t="n">
+      <c r="KT23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KU23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="3">
@@ -22583,8 +22652,11 @@
       <c r="KS24" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KT24" t="n">
+      <c r="KT24" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KU24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="3">
@@ -23505,8 +23577,11 @@
       <c r="KS25" s="2" t="n">
         <v>42.9</v>
       </c>
-      <c r="KT25" t="n">
+      <c r="KT25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KU25" t="n">
+        <v>53.8</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="3">
@@ -24427,8 +24502,11 @@
       <c r="KS26" s="2" t="n">
         <v>28.92</v>
       </c>
-      <c r="KT26" t="n">
+      <c r="KT26" s="2" t="n">
         <v>24.64</v>
+      </c>
+      <c r="KU26" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="3">
@@ -25349,8 +25427,11 @@
       <c r="KS27" s="2" t="n">
         <v>12.39</v>
       </c>
-      <c r="KT27" t="n">
+      <c r="KT27" s="2" t="n">
         <v>12.32</v>
+      </c>
+      <c r="KU27" t="n">
+        <v>14.54</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="3">
@@ -26271,8 +26352,11 @@
       <c r="KS28" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KT28" t="n">
+      <c r="KT28" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KU28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="3">
@@ -27193,8 +27277,11 @@
       <c r="KS29" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KT29" t="n">
+      <c r="KT29" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KU29" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="3">
@@ -28115,8 +28202,11 @@
       <c r="KS30" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KT30" t="n">
+      <c r="KT30" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KU30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="3">
@@ -29037,7 +29127,10 @@
       <c r="KS31" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KT31" t="n">
+      <c r="KT31" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KU31" t="n">
         <v>51</v>
       </c>
     </row>
@@ -29959,8 +30052,11 @@
       <c r="KS32" s="2" t="n">
         <v>2.04</v>
       </c>
-      <c r="KT32" t="n">
+      <c r="KT32" s="2" t="n">
         <v>1.82</v>
+      </c>
+      <c r="KU32" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="3">
@@ -30881,7 +30977,10 @@
       <c r="KS33" s="2" t="n">
         <v>4.75</v>
       </c>
-      <c r="KT33" t="n">
+      <c r="KT33" s="2" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="KU33" t="n">
         <v>3.64</v>
       </c>
     </row>
@@ -31803,7 +31902,10 @@
       <c r="KS34" s="2" t="n">
         <v>45.6</v>
       </c>
-      <c r="KT34" t="n">
+      <c r="KT34" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KU34" t="n">
         <v>49</v>
       </c>
     </row>
@@ -32725,7 +32827,10 @@
       <c r="KS35" s="2" t="n">
         <v>21.1</v>
       </c>
-      <c r="KT35" t="n">
+      <c r="KT35" s="2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="KU35" t="n">
         <v>27.5</v>
       </c>
     </row>
@@ -33647,8 +33752,11 @@
       <c r="KS36" s="2" t="n">
         <v>187.1</v>
       </c>
-      <c r="KT36" t="n">
+      <c r="KT36" s="2" t="n">
         <v>187.1</v>
+      </c>
+      <c r="KU36" t="n">
+        <v>186.7</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="3">
@@ -34569,8 +34677,11 @@
       <c r="KS37" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="KT37" t="n">
+      <c r="KT37" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="KU37" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="3">
@@ -35491,8 +35602,11 @@
       <c r="KS38" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="KT38" t="n">
+      <c r="KT38" s="2" t="n">
         <v>27.8</v>
+      </c>
+      <c r="KU38" t="n">
+        <v>27.16</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="3">
@@ -36413,8 +36527,11 @@
       <c r="KS39" s="2" t="n">
         <v>128.9</v>
       </c>
-      <c r="KT39" t="n">
+      <c r="KT39" s="2" t="n">
         <v>127.6</v>
+      </c>
+      <c r="KU39" t="n">
+        <v>127.3</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="3">
@@ -37335,7 +37452,10 @@
       <c r="KS40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KT40" t="n">
+      <c r="KT40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KU40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -38257,7 +38377,10 @@
       <c r="KS41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KT41" t="n">
+      <c r="KT41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KU41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39179,7 +39302,10 @@
       <c r="KS42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KT42" t="n">
+      <c r="KT42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KU42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -40101,7 +40227,10 @@
       <c r="KS43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KT43" t="n">
+      <c r="KT43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KU43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -41023,8 +41152,11 @@
       <c r="KS44" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="KT44" t="n">
+      <c r="KT44" s="2" t="n">
         <v>124</v>
+      </c>
+      <c r="KU44" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="3">
@@ -41945,8 +42077,11 @@
       <c r="KS45" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="KT45" t="n">
+      <c r="KT45" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="KU45" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="3">
@@ -42867,8 +43002,11 @@
       <c r="KS46" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="KT46" t="n">
+      <c r="KT46" s="2" t="n">
         <v>248</v>
+      </c>
+      <c r="KU46" t="n">
+        <v>277</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="3">
@@ -43789,8 +43927,11 @@
       <c r="KS47" s="2" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="KT47" t="n">
+      <c r="KT47" s="2" t="n">
         <v>71.90000000000001</v>
+      </c>
+      <c r="KU47" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="3">
@@ -44711,8 +44852,11 @@
       <c r="KS48" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KT48" t="n">
+      <c r="KT48" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KU48" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="3">
@@ -45633,8 +45777,11 @@
       <c r="KS49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KT49" t="n">
+      <c r="KT49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KU49" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="3">
@@ -46555,8 +46702,11 @@
       <c r="KS50" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KT50" t="n">
+      <c r="KT50" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KU50" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="3">
@@ -47477,8 +47627,11 @@
       <c r="KS51" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KT51" t="n">
+      <c r="KT51" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KU51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="3">
@@ -48399,8 +48552,11 @@
       <c r="KS52" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KT52" t="n">
+      <c r="KT52" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KU52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="3">
@@ -49321,8 +49477,11 @@
       <c r="KS53" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="KT53" t="n">
+      <c r="KT53" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KU53" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="3">
@@ -50243,8 +50402,11 @@
       <c r="KS54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KT54" t="n">
+      <c r="KT54" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KU54" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="3">
@@ -51165,8 +51327,11 @@
       <c r="KS55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KT55" t="n">
+      <c r="KT55" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KU55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="3">
@@ -52087,8 +52252,11 @@
       <c r="KS56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KT56" t="n">
+      <c r="KT56" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="KU56" t="n">
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="3">
@@ -53009,8 +53177,11 @@
       <c r="KS57" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="KT57" t="n">
+      <c r="KT57" s="2" t="n">
         <v>195</v>
+      </c>
+      <c r="KU57" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="3">
@@ -53931,8 +54102,11 @@
       <c r="KS58" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="KT58" t="n">
+      <c r="KT58" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="KU58" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="3">
@@ -54853,8 +55027,11 @@
       <c r="KS59" s="2" t="n">
         <v>355</v>
       </c>
-      <c r="KT59" t="n">
+      <c r="KT59" s="2" t="n">
         <v>339</v>
+      </c>
+      <c r="KU59" t="n">
+        <v>359</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="3">
@@ -55775,8 +55952,11 @@
       <c r="KS60" s="2" t="n">
         <v>1.26</v>
       </c>
-      <c r="KT60" t="n">
+      <c r="KT60" s="2" t="n">
         <v>1.35</v>
+      </c>
+      <c r="KU60" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="3">
@@ -56697,8 +56877,11 @@
       <c r="KS61" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="KT61" t="n">
+      <c r="KT61" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KU61" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="3">
@@ -57619,8 +57802,11 @@
       <c r="KS62" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KT62" t="n">
+      <c r="KT62" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KU62" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="3">
@@ -58541,8 +58727,11 @@
       <c r="KS63" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KT63" t="n">
+      <c r="KT63" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KU63" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="3">
@@ -59463,8 +59652,11 @@
       <c r="KS64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KT64" t="n">
+      <c r="KT64" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KU64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="3">
@@ -60385,8 +60577,11 @@
       <c r="KS65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KT65" t="n">
+      <c r="KT65" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KU65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="3">
@@ -61307,8 +61502,11 @@
       <c r="KS66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KT66" t="n">
+      <c r="KT66" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KU66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="3">
@@ -62229,8 +62427,11 @@
       <c r="KS67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KT67" t="n">
+      <c r="KT67" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KU67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="3">
@@ -63151,8 +63352,11 @@
       <c r="KS68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KT68" t="n">
+      <c r="KT68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KU68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="3">
@@ -64073,8 +64277,11 @@
       <c r="KS69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KT69" t="n">
+      <c r="KT69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KU69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="3">
@@ -64995,7 +65202,10 @@
       <c r="KS70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KT70" t="n">
+      <c r="KT70" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KU70" t="n">
         <v>20</v>
       </c>
     </row>
@@ -65917,8 +66127,11 @@
       <c r="KS71" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KT71" t="n">
+      <c r="KT71" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KU71" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="3">
@@ -66839,8 +67052,11 @@
       <c r="KS72" s="2" t="n">
         <v>32.27</v>
       </c>
-      <c r="KT72" t="n">
+      <c r="KT72" s="2" t="n">
         <v>42.38</v>
+      </c>
+      <c r="KU72" t="n">
+        <v>23.93</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="3">
@@ -67761,8 +67977,11 @@
       <c r="KS73" s="2" t="n">
         <v>17.75</v>
       </c>
-      <c r="KT73" t="n">
+      <c r="KT73" s="2" t="n">
         <v>16.95</v>
+      </c>
+      <c r="KU73" t="n">
+        <v>17.95</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="3">
@@ -68683,8 +68902,11 @@
       <c r="KS74" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KT74" t="n">
+      <c r="KT74" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KU74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="3">
@@ -69605,8 +69827,11 @@
       <c r="KS75" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KT75" t="n">
+      <c r="KT75" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KU75" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="3">
@@ -70527,7 +70752,10 @@
       <c r="KS76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KT76" t="n">
+      <c r="KT76" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KU76" t="n">
         <v>35</v>
       </c>
     </row>
@@ -71449,8 +71677,11 @@
       <c r="KS77" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KT77" t="n">
+      <c r="KT77" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KU77" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="3">
@@ -72371,8 +72602,11 @@
       <c r="KS78" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="KT78" t="n">
+      <c r="KT78" s="2" t="n">
         <v>2.5</v>
+      </c>
+      <c r="KU78" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="3">
@@ -73293,8 +73527,11 @@
       <c r="KS79" s="2" t="n">
         <v>4.45</v>
       </c>
-      <c r="KT79" t="n">
+      <c r="KT79" s="2" t="n">
         <v>6.25</v>
+      </c>
+      <c r="KU79" t="n">
+        <v>3.67</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="3">
@@ -74215,8 +74452,11 @@
       <c r="KS80" s="2" t="n">
         <v>36.7</v>
       </c>
-      <c r="KT80" t="n">
+      <c r="KT80" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KU80" t="n">
+        <v>36.4</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="3">
@@ -75137,8 +75377,11 @@
       <c r="KS81" s="2" t="n">
         <v>22.4</v>
       </c>
-      <c r="KT81" t="n">
+      <c r="KT81" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KU81" t="n">
+        <v>27.3</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="3">
@@ -76059,8 +76302,11 @@
       <c r="KS82" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="KT82" t="n">
+      <c r="KT82" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="KU82" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="3">
@@ -76981,8 +77227,11 @@
       <c r="KS83" s="2" t="n">
         <v>87.8</v>
       </c>
-      <c r="KT83" t="n">
+      <c r="KT83" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="KU83" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="3">
@@ -77903,8 +78152,11 @@
       <c r="KS84" s="2" t="n">
         <v>26.33</v>
       </c>
-      <c r="KT84" t="n">
+      <c r="KT84" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KU84" t="n">
+        <v>24.41</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="3">
@@ -78825,8 +79077,11 @@
       <c r="KS85" s="2" t="n">
         <v>124.6</v>
       </c>
-      <c r="KT85" t="n">
+      <c r="KT85" s="2" t="n">
         <v>117.1</v>
+      </c>
+      <c r="KU85" t="n">
+        <v>82.7</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="3">
@@ -79747,8 +80002,11 @@
       <c r="KS86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KT86" t="n">
+      <c r="KT86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KU86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="3">
@@ -80669,8 +80927,11 @@
       <c r="KS87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KT87" t="n">
+      <c r="KT87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KU87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="3">
@@ -81591,8 +81852,11 @@
       <c r="KS88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KT88" t="n">
+      <c r="KT88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KU88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="3">
@@ -82513,8 +82777,11 @@
       <c r="KS89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KT89" t="n">
+      <c r="KT89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KU89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="3">
@@ -83435,8 +83702,11 @@
       <c r="KS90" s="2" t="n">
         <v>132</v>
       </c>
-      <c r="KT90" t="n">
+      <c r="KT90" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="KU90" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="3">
@@ -84357,8 +84627,11 @@
       <c r="KS91" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="KT91" t="n">
+      <c r="KT91" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="KU91" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="3">
@@ -85279,8 +85552,11 @@
       <c r="KS92" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="KT92" t="n">
+      <c r="KT92" s="2" t="n">
         <v>244</v>
+      </c>
+      <c r="KU92" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="3">
@@ -86201,8 +86477,11 @@
       <c r="KS93" s="2" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="KT93" t="n">
+      <c r="KT93" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KU93" t="n">
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="3">
@@ -87123,8 +87402,11 @@
       <c r="KS94" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KT94" t="n">
+      <c r="KT94" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KU94" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="3">
@@ -88045,8 +88327,11 @@
       <c r="KS95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KT95" t="n">
+      <c r="KT95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KU95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="3">
@@ -88967,8 +89252,11 @@
       <c r="KS96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KT96" t="n">
+      <c r="KT96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KU96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="3">
@@ -89889,8 +90177,11 @@
       <c r="KS97" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KT97" t="n">
+      <c r="KT97" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KU97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="3">
@@ -90811,7 +91102,10 @@
       <c r="KS98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KT98" t="n">
+      <c r="KT98" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KU98" t="n">
         <v>35</v>
       </c>
     </row>
@@ -91733,8 +92027,11 @@
       <c r="KS99" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KT99" t="n">
+      <c r="KT99" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KU99" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="3">
@@ -92655,8 +92952,11 @@
       <c r="KS100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KT100" t="n">
+      <c r="KT100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KU100" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="3">
@@ -93577,8 +93877,11 @@
       <c r="KS101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KT101" t="n">
+      <c r="KT101" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KU101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="3">
@@ -94499,8 +94802,11 @@
       <c r="KS102" s="2" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="KT102" t="n">
+      <c r="KT102" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KU102" t="n">
+        <v>53.3</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KU102"/>
+  <dimension ref="A1:KV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KB100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KI101" activeCellId="0" sqref="KI101"/>
@@ -1380,8 +1380,11 @@
       <c r="KT1" s="2" t="n">
         <v>10903</v>
       </c>
-      <c r="KU1" t="n">
+      <c r="KU1" s="2" t="n">
         <v>10909</v>
+      </c>
+      <c r="KV1" t="n">
+        <v>10918</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="3">
@@ -2305,7 +2308,10 @@
       <c r="KT2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KU2" t="n">
+      <c r="KU2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KV2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3230,8 +3236,11 @@
       <c r="KT3" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KU3" t="n">
+      <c r="KU3" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="3">
@@ -4155,7 +4164,10 @@
       <c r="KT4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KU4" t="n">
+      <c r="KU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5080,8 +5092,11 @@
       <c r="KT5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KU5" t="n">
+      <c r="KU5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KV5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="3">
@@ -6005,8 +6020,11 @@
       <c r="KT6" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="KU6" t="n">
+      <c r="KU6" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="KV6" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="3">
@@ -6930,8 +6948,11 @@
       <c r="KT7" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KU7" t="n">
+      <c r="KU7" s="2" t="n">
         <v>95</v>
+      </c>
+      <c r="KV7" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="3">
@@ -7855,8 +7876,11 @@
       <c r="KT8" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KU8" t="n">
+      <c r="KU8" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KV8" t="n">
+        <v>-32</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="3">
@@ -8780,8 +8804,11 @@
       <c r="KT9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KU9" t="n">
+      <c r="KU9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KV9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="3">
@@ -9705,8 +9732,11 @@
       <c r="KT10" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KU10" t="n">
+      <c r="KU10" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KV10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="3">
@@ -10630,8 +10660,11 @@
       <c r="KT11" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="KU11" t="n">
+      <c r="KU11" s="2" t="n">
         <v>232</v>
+      </c>
+      <c r="KV11" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="3">
@@ -11555,8 +11588,11 @@
       <c r="KT12" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="KU12" t="n">
+      <c r="KU12" s="2" t="n">
         <v>146</v>
+      </c>
+      <c r="KV12" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="3">
@@ -12480,8 +12516,11 @@
       <c r="KT13" s="2" t="n">
         <v>345</v>
       </c>
-      <c r="KU13" t="n">
+      <c r="KU13" s="2" t="n">
         <v>378</v>
+      </c>
+      <c r="KV13" t="n">
+        <v>334</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="3">
@@ -13405,8 +13444,11 @@
       <c r="KT14" s="2" t="n">
         <v>1.24</v>
       </c>
-      <c r="KU14" t="n">
+      <c r="KU14" s="2" t="n">
         <v>1.59</v>
+      </c>
+      <c r="KV14" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="3">
@@ -14330,8 +14372,11 @@
       <c r="KT15" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="KU15" t="n">
+      <c r="KU15" s="2" t="n">
         <v>115</v>
+      </c>
+      <c r="KV15" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="3">
@@ -15255,8 +15300,11 @@
       <c r="KT16" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KU16" t="n">
+      <c r="KU16" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KV16" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="3">
@@ -16180,8 +16228,11 @@
       <c r="KT17" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KU17" t="n">
+      <c r="KU17" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KV17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="3">
@@ -17105,8 +17156,11 @@
       <c r="KT18" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KU18" t="n">
+      <c r="KU18" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KV18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="3">
@@ -18030,8 +18084,11 @@
       <c r="KT19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KU19" t="n">
+      <c r="KU19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KV19" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="3">
@@ -18955,8 +19012,11 @@
       <c r="KT20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KU20" t="n">
+      <c r="KU20" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KV20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="3">
@@ -19880,8 +19940,11 @@
       <c r="KT21" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KU21" t="n">
+      <c r="KU21" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KV21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="3">
@@ -20805,8 +20868,11 @@
       <c r="KT22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KU22" t="n">
+      <c r="KU22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KV22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="3">
@@ -21730,8 +21796,11 @@
       <c r="KT23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU23" t="n">
+      <c r="KU23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KV23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="3">
@@ -22655,8 +22724,11 @@
       <c r="KT24" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KU24" t="n">
+      <c r="KU24" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KV24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="3">
@@ -23580,8 +23652,11 @@
       <c r="KT25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KU25" t="n">
+      <c r="KU25" s="2" t="n">
         <v>53.8</v>
+      </c>
+      <c r="KV25" t="n">
+        <v>65.2</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="3">
@@ -24505,8 +24580,11 @@
       <c r="KT26" s="2" t="n">
         <v>24.64</v>
       </c>
-      <c r="KU26" t="n">
+      <c r="KU26" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KV26" t="n">
+        <v>22.27</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="3">
@@ -25430,8 +25508,11 @@
       <c r="KT27" s="2" t="n">
         <v>12.32</v>
       </c>
-      <c r="KU27" t="n">
+      <c r="KU27" s="2" t="n">
         <v>14.54</v>
+      </c>
+      <c r="KV27" t="n">
+        <v>14.52</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="3">
@@ -26355,8 +26436,11 @@
       <c r="KT28" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KU28" t="n">
+      <c r="KU28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KV28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="3">
@@ -27280,8 +27364,11 @@
       <c r="KT29" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KU29" t="n">
+      <c r="KU29" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="KV29" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="3">
@@ -28205,8 +28292,11 @@
       <c r="KT30" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KU30" t="n">
+      <c r="KU30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KV30" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="3">
@@ -29130,8 +29220,11 @@
       <c r="KT31" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KU31" t="n">
+      <c r="KU31" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KV31" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="3">
@@ -30055,7 +30148,10 @@
       <c r="KT32" s="2" t="n">
         <v>1.82</v>
       </c>
-      <c r="KU32" t="n">
+      <c r="KU32" s="2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="KV32" t="n">
         <v>1.96</v>
       </c>
     </row>
@@ -30980,8 +31076,11 @@
       <c r="KT33" s="2" t="n">
         <v>3.64</v>
       </c>
-      <c r="KU33" t="n">
+      <c r="KU33" s="2" t="n">
         <v>3.64</v>
+      </c>
+      <c r="KV33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="3">
@@ -31905,8 +32004,11 @@
       <c r="KT34" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KU34" t="n">
+      <c r="KU34" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KV34" t="n">
+        <v>46.7</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="3">
@@ -32830,8 +32932,11 @@
       <c r="KT35" s="2" t="n">
         <v>27.5</v>
       </c>
-      <c r="KU35" t="n">
+      <c r="KU35" s="2" t="n">
         <v>27.5</v>
+      </c>
+      <c r="KV35" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="3">
@@ -33755,7 +33860,10 @@
       <c r="KT36" s="2" t="n">
         <v>187.1</v>
       </c>
-      <c r="KU36" t="n">
+      <c r="KU36" s="2" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="KV36" t="n">
         <v>186.7</v>
       </c>
     </row>
@@ -34680,7 +34788,10 @@
       <c r="KT37" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="KU37" t="n">
+      <c r="KU37" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KV37" t="n">
         <v>85.8</v>
       </c>
     </row>
@@ -35605,8 +35716,11 @@
       <c r="KT38" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="KU38" t="n">
+      <c r="KU38" s="2" t="n">
         <v>27.16</v>
+      </c>
+      <c r="KV38" t="n">
+        <v>27.24</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="3">
@@ -36530,8 +36644,11 @@
       <c r="KT39" s="2" t="n">
         <v>127.6</v>
       </c>
-      <c r="KU39" t="n">
+      <c r="KU39" s="2" t="n">
         <v>127.3</v>
+      </c>
+      <c r="KV39" t="n">
+        <v>128.3</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="3">
@@ -37455,7 +37572,10 @@
       <c r="KT40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KU40" t="n">
+      <c r="KU40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KV40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -38380,7 +38500,10 @@
       <c r="KT41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KU41" t="n">
+      <c r="KU41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KV41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39305,7 +39428,10 @@
       <c r="KT42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KU42" t="n">
+      <c r="KU42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KV42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -40230,7 +40356,10 @@
       <c r="KT43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KU43" t="n">
+      <c r="KU43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KV43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -41155,8 +41284,11 @@
       <c r="KT44" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="KU44" t="n">
+      <c r="KU44" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="KV44" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="3">
@@ -42080,8 +42212,11 @@
       <c r="KT45" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="KU45" t="n">
+      <c r="KU45" s="2" t="n">
         <v>240</v>
+      </c>
+      <c r="KV45" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="3">
@@ -43005,8 +43140,11 @@
       <c r="KT46" s="2" t="n">
         <v>248</v>
       </c>
-      <c r="KU46" t="n">
+      <c r="KU46" s="2" t="n">
         <v>277</v>
+      </c>
+      <c r="KV46" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="3">
@@ -43930,8 +44068,11 @@
       <c r="KT47" s="2" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="KU47" t="n">
+      <c r="KU47" s="2" t="n">
         <v>73.3</v>
+      </c>
+      <c r="KV47" t="n">
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="3">
@@ -44855,8 +44996,11 @@
       <c r="KT48" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KU48" t="n">
+      <c r="KU48" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="KV48" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="3">
@@ -45780,8 +45924,11 @@
       <c r="KT49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KU49" t="n">
+      <c r="KU49" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KV49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="3">
@@ -46705,8 +46852,11 @@
       <c r="KT50" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KU50" t="n">
+      <c r="KU50" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KV50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="3">
@@ -47630,8 +47780,11 @@
       <c r="KT51" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KU51" t="n">
+      <c r="KU51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KV51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="3">
@@ -48555,8 +48708,11 @@
       <c r="KT52" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KU52" t="n">
+      <c r="KU52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KV52" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="3">
@@ -49480,8 +49636,11 @@
       <c r="KT53" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KU53" t="n">
+      <c r="KU53" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KV53" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="3">
@@ -50405,8 +50564,11 @@
       <c r="KT54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KU54" t="n">
+      <c r="KU54" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KV54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="3">
@@ -51330,8 +51492,11 @@
       <c r="KT55" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KU55" t="n">
+      <c r="KU55" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KV55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="3">
@@ -52255,8 +52420,11 @@
       <c r="KT56" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="KU56" t="n">
+      <c r="KU56" s="2" t="n">
         <v>78.59999999999999</v>
+      </c>
+      <c r="KV56" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="3">
@@ -53180,8 +53348,11 @@
       <c r="KT57" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="KU57" t="n">
+      <c r="KU57" s="2" t="n">
         <v>198</v>
+      </c>
+      <c r="KV57" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="3">
@@ -54105,8 +54276,11 @@
       <c r="KT58" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="KU58" t="n">
+      <c r="KU58" s="2" t="n">
         <v>161</v>
+      </c>
+      <c r="KV58" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="3">
@@ -55030,8 +55204,11 @@
       <c r="KT59" s="2" t="n">
         <v>339</v>
       </c>
-      <c r="KU59" t="n">
+      <c r="KU59" s="2" t="n">
         <v>359</v>
+      </c>
+      <c r="KV59" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="3">
@@ -55955,8 +56132,11 @@
       <c r="KT60" s="2" t="n">
         <v>1.35</v>
       </c>
-      <c r="KU60" t="n">
+      <c r="KU60" s="2" t="n">
         <v>1.23</v>
+      </c>
+      <c r="KV60" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="3">
@@ -56880,8 +57060,11 @@
       <c r="KT61" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KU61" t="n">
+      <c r="KU61" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="KV61" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="3">
@@ -57805,8 +57988,11 @@
       <c r="KT62" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KU62" t="n">
+      <c r="KU62" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KV62" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="3">
@@ -58730,8 +58916,11 @@
       <c r="KT63" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KU63" t="n">
+      <c r="KU63" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KV63" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="3">
@@ -59655,8 +59844,11 @@
       <c r="KT64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KU64" t="n">
+      <c r="KU64" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KV64" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="3">
@@ -60580,8 +60772,11 @@
       <c r="KT65" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KU65" t="n">
+      <c r="KU65" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KV65" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="3">
@@ -61505,8 +61700,11 @@
       <c r="KT66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KU66" t="n">
+      <c r="KU66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KV66" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="3">
@@ -62430,8 +62628,11 @@
       <c r="KT67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KU67" t="n">
+      <c r="KU67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KV67" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="3">
@@ -63355,8 +63556,11 @@
       <c r="KT68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KU68" t="n">
+      <c r="KU68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KV68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="3">
@@ -64280,8 +64484,11 @@
       <c r="KT69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KU69" t="n">
+      <c r="KU69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KV69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="3">
@@ -65205,8 +65412,11 @@
       <c r="KT70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KU70" t="n">
+      <c r="KU70" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KV70" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="3">
@@ -66130,8 +66340,11 @@
       <c r="KT71" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KU71" t="n">
+      <c r="KU71" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KV71" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="3">
@@ -67055,8 +67268,11 @@
       <c r="KT72" s="2" t="n">
         <v>42.38</v>
       </c>
-      <c r="KU72" t="n">
+      <c r="KU72" s="2" t="n">
         <v>23.93</v>
+      </c>
+      <c r="KV72" t="n">
+        <v>18.15</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="3">
@@ -67980,8 +68196,11 @@
       <c r="KT73" s="2" t="n">
         <v>16.95</v>
       </c>
-      <c r="KU73" t="n">
+      <c r="KU73" s="2" t="n">
         <v>17.95</v>
+      </c>
+      <c r="KV73" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="3">
@@ -68905,8 +69124,11 @@
       <c r="KT74" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KU74" t="n">
+      <c r="KU74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KV74" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="3">
@@ -69830,8 +70052,11 @@
       <c r="KT75" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KU75" t="n">
+      <c r="KU75" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KV75" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="3">
@@ -70755,8 +70980,11 @@
       <c r="KT76" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KU76" t="n">
+      <c r="KU76" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KV76" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="3">
@@ -71680,8 +71908,11 @@
       <c r="KT77" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KU77" t="n">
+      <c r="KU77" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KV77" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="3">
@@ -72605,8 +72836,11 @@
       <c r="KT78" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="KU78" t="n">
+      <c r="KU78" s="2" t="n">
         <v>2.75</v>
+      </c>
+      <c r="KV78" t="n">
+        <v>2.43</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="3">
@@ -73530,8 +73764,11 @@
       <c r="KT79" s="2" t="n">
         <v>6.25</v>
       </c>
-      <c r="KU79" t="n">
+      <c r="KU79" s="2" t="n">
         <v>3.67</v>
+      </c>
+      <c r="KV79" t="n">
+        <v>3.65</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="3">
@@ -74455,8 +74692,11 @@
       <c r="KT80" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KU80" t="n">
+      <c r="KU80" s="2" t="n">
         <v>36.4</v>
+      </c>
+      <c r="KV80" t="n">
+        <v>38.4</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="3">
@@ -75380,8 +75620,11 @@
       <c r="KT81" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KU81" t="n">
+      <c r="KU81" s="2" t="n">
         <v>27.3</v>
+      </c>
+      <c r="KV81" t="n">
+        <v>27.4</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="3">
@@ -76305,8 +76548,11 @@
       <c r="KT82" s="2" t="n">
         <v>188.7</v>
       </c>
-      <c r="KU82" t="n">
+      <c r="KU82" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="KV82" t="n">
+        <v>186.6</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="3">
@@ -77230,8 +77476,11 @@
       <c r="KT83" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="KU83" t="n">
+      <c r="KU83" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="KV83" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="3">
@@ -78155,8 +78404,11 @@
       <c r="KT84" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="KU84" t="n">
+      <c r="KU84" s="2" t="n">
         <v>24.41</v>
+      </c>
+      <c r="KV84" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="3">
@@ -79080,8 +79332,11 @@
       <c r="KT85" s="2" t="n">
         <v>117.1</v>
       </c>
-      <c r="KU85" t="n">
+      <c r="KU85" s="2" t="n">
         <v>82.7</v>
+      </c>
+      <c r="KV85" t="n">
+        <v>116.7</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="3">
@@ -80005,8 +80260,11 @@
       <c r="KT86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KU86" t="n">
+      <c r="KU86" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KV86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="3">
@@ -80930,8 +81188,11 @@
       <c r="KT87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU87" t="n">
+      <c r="KU87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KV87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="3">
@@ -81855,8 +82116,11 @@
       <c r="KT88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KU88" t="n">
+      <c r="KU88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KV88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="3">
@@ -82780,8 +83044,11 @@
       <c r="KT89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KU89" t="n">
+      <c r="KU89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KV89" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="3">
@@ -83705,8 +83972,11 @@
       <c r="KT90" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="KU90" t="n">
+      <c r="KU90" s="2" t="n">
         <v>128</v>
+      </c>
+      <c r="KV90" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="3">
@@ -84630,8 +84900,11 @@
       <c r="KT91" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="KU91" t="n">
+      <c r="KU91" s="2" t="n">
         <v>224</v>
+      </c>
+      <c r="KV91" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="3">
@@ -85555,7 +85828,10 @@
       <c r="KT92" s="2" t="n">
         <v>244</v>
       </c>
-      <c r="KU92" t="n">
+      <c r="KU92" s="2" t="n">
+        <v>258</v>
+      </c>
+      <c r="KV92" t="n">
         <v>258</v>
       </c>
     </row>
@@ -86480,8 +86756,11 @@
       <c r="KT93" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KU93" t="n">
+      <c r="KU93" s="2" t="n">
         <v>71.90000000000001</v>
+      </c>
+      <c r="KV93" t="n">
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="3">
@@ -87405,8 +87684,11 @@
       <c r="KT94" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KU94" t="n">
+      <c r="KU94" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KV94" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="3">
@@ -88330,8 +88612,11 @@
       <c r="KT95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KU95" t="n">
+      <c r="KU95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KV95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="3">
@@ -89255,8 +89540,11 @@
       <c r="KT96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KU96" t="n">
+      <c r="KU96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KV96" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="3">
@@ -90180,8 +90468,11 @@
       <c r="KT97" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KU97" t="n">
+      <c r="KU97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KV97" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="3">
@@ -91105,8 +91396,11 @@
       <c r="KT98" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KU98" t="n">
+      <c r="KU98" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KV98" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="3">
@@ -92030,8 +92324,11 @@
       <c r="KT99" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KU99" t="n">
+      <c r="KU99" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KV99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="3">
@@ -92955,8 +93252,11 @@
       <c r="KT100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KU100" t="n">
+      <c r="KU100" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KV100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="3">
@@ -93880,8 +94180,11 @@
       <c r="KT101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KU101" t="n">
+      <c r="KU101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KV101" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="3">
@@ -94805,8 +95108,11 @@
       <c r="KT102" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KU102" t="n">
+      <c r="KU102" s="2" t="n">
         <v>53.3</v>
+      </c>
+      <c r="KV102" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KV102"/>
+  <dimension ref="A1:KW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KB100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KI101" activeCellId="0" sqref="KI101"/>
@@ -1383,8 +1383,11 @@
       <c r="KU1" s="2" t="n">
         <v>10909</v>
       </c>
-      <c r="KV1" t="n">
+      <c r="KV1" s="2" t="n">
         <v>10918</v>
+      </c>
+      <c r="KW1" t="n">
+        <v>10928</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="3">
@@ -2311,7 +2314,10 @@
       <c r="KU2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KV2" t="n">
+      <c r="KV2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KW2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3239,8 +3245,11 @@
       <c r="KU3" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KV3" t="n">
+      <c r="KV3" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="3">
@@ -4167,8 +4176,11 @@
       <c r="KU4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KV4" t="n">
+      <c r="KV4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="3">
@@ -5095,8 +5107,11 @@
       <c r="KU5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KV5" t="n">
+      <c r="KV5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KW5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="3">
@@ -6023,8 +6038,11 @@
       <c r="KU6" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="KV6" t="n">
+      <c r="KV6" s="2" t="n">
         <v>98</v>
+      </c>
+      <c r="KW6" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="3">
@@ -6951,8 +6969,11 @@
       <c r="KU7" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="KV7" t="n">
+      <c r="KV7" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="KW7" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="3">
@@ -7879,8 +7900,11 @@
       <c r="KU8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KV8" t="n">
+      <c r="KV8" s="2" t="n">
         <v>-32</v>
+      </c>
+      <c r="KW8" t="n">
+        <v>-55</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="3">
@@ -8807,7 +8831,10 @@
       <c r="KU9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KV9" t="n">
+      <c r="KV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9735,8 +9762,11 @@
       <c r="KU10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KV10" t="n">
+      <c r="KV10" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KW10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="3">
@@ -10663,8 +10693,11 @@
       <c r="KU11" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="KV11" t="n">
+      <c r="KV11" s="2" t="n">
         <v>204</v>
+      </c>
+      <c r="KW11" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="3">
@@ -11591,8 +11624,11 @@
       <c r="KU12" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="KV12" t="n">
+      <c r="KV12" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="KW12" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="3">
@@ -12519,8 +12555,11 @@
       <c r="KU13" s="2" t="n">
         <v>378</v>
       </c>
-      <c r="KV13" t="n">
+      <c r="KV13" s="2" t="n">
         <v>334</v>
+      </c>
+      <c r="KW13" t="n">
+        <v>301</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="3">
@@ -13447,8 +13486,11 @@
       <c r="KU14" s="2" t="n">
         <v>1.59</v>
       </c>
-      <c r="KV14" t="n">
+      <c r="KV14" s="2" t="n">
         <v>1.57</v>
+      </c>
+      <c r="KW14" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="3">
@@ -14375,8 +14417,11 @@
       <c r="KU15" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="KV15" t="n">
+      <c r="KV15" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KW15" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="3">
@@ -15303,8 +15348,11 @@
       <c r="KU16" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KV16" t="n">
+      <c r="KV16" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KW16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="3">
@@ -16231,8 +16279,11 @@
       <c r="KU17" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KV17" t="n">
+      <c r="KV17" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KW17" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="3">
@@ -17159,8 +17210,11 @@
       <c r="KU18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KV18" t="n">
+      <c r="KV18" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KW18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="3">
@@ -18087,8 +18141,11 @@
       <c r="KU19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KV19" t="n">
+      <c r="KV19" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KW19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="3">
@@ -19015,8 +19072,11 @@
       <c r="KU20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KV20" t="n">
+      <c r="KV20" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KW20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="3">
@@ -19943,8 +20003,11 @@
       <c r="KU21" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KV21" t="n">
+      <c r="KV21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KW21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="3">
@@ -20871,8 +20934,11 @@
       <c r="KU22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KV22" t="n">
+      <c r="KV22" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KW22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="3">
@@ -21799,7 +21865,10 @@
       <c r="KU23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KV23" t="n">
+      <c r="KV23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KW23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22727,8 +22796,11 @@
       <c r="KU24" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KV24" t="n">
+      <c r="KV24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KW24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="3">
@@ -23655,8 +23727,11 @@
       <c r="KU25" s="2" t="n">
         <v>53.8</v>
       </c>
-      <c r="KV25" t="n">
+      <c r="KV25" s="2" t="n">
         <v>65.2</v>
+      </c>
+      <c r="KW25" t="n">
+        <v>47.6</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="3">
@@ -24583,8 +24658,11 @@
       <c r="KU26" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KV26" t="n">
+      <c r="KV26" s="2" t="n">
         <v>22.27</v>
+      </c>
+      <c r="KW26" t="n">
+        <v>30.1</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="3">
@@ -25511,8 +25589,11 @@
       <c r="KU27" s="2" t="n">
         <v>14.54</v>
       </c>
-      <c r="KV27" t="n">
+      <c r="KV27" s="2" t="n">
         <v>14.52</v>
+      </c>
+      <c r="KW27" t="n">
+        <v>14.33</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="3">
@@ -26439,8 +26520,11 @@
       <c r="KU28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KV28" t="n">
+      <c r="KV28" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KW28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="3">
@@ -27367,8 +27451,11 @@
       <c r="KU29" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="KV29" t="n">
+      <c r="KV29" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KW29" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="3">
@@ -28295,8 +28382,11 @@
       <c r="KU30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KV30" t="n">
+      <c r="KV30" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KW30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="3">
@@ -29223,8 +29313,11 @@
       <c r="KU31" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KV31" t="n">
+      <c r="KV31" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KW31" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="3">
@@ -30151,8 +30244,11 @@
       <c r="KU32" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="KV32" t="n">
+      <c r="KV32" s="2" t="n">
         <v>1.96</v>
+      </c>
+      <c r="KW32" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="3">
@@ -31079,8 +31175,11 @@
       <c r="KU33" s="2" t="n">
         <v>3.64</v>
       </c>
-      <c r="KV33" t="n">
+      <c r="KV33" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KW33" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="3">
@@ -32007,8 +32106,11 @@
       <c r="KU34" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KV34" t="n">
+      <c r="KV34" s="2" t="n">
         <v>46.7</v>
+      </c>
+      <c r="KW34" t="n">
+        <v>41.3</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="3">
@@ -32935,8 +33037,11 @@
       <c r="KU35" s="2" t="n">
         <v>27.5</v>
       </c>
-      <c r="KV35" t="n">
+      <c r="KV35" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="KW35" t="n">
+        <v>21.7</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="3">
@@ -33863,8 +33968,11 @@
       <c r="KU36" s="2" t="n">
         <v>186.7</v>
       </c>
-      <c r="KV36" t="n">
+      <c r="KV36" s="2" t="n">
         <v>186.7</v>
+      </c>
+      <c r="KW36" t="n">
+        <v>186.1</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="3">
@@ -34791,8 +34899,11 @@
       <c r="KU37" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="KV37" t="n">
+      <c r="KV37" s="2" t="n">
         <v>85.8</v>
+      </c>
+      <c r="KW37" t="n">
+        <v>84.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="3">
@@ -35719,8 +35830,11 @@
       <c r="KU38" s="2" t="n">
         <v>27.16</v>
       </c>
-      <c r="KV38" t="n">
+      <c r="KV38" s="2" t="n">
         <v>27.24</v>
+      </c>
+      <c r="KW38" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="3">
@@ -36647,8 +36761,11 @@
       <c r="KU39" s="2" t="n">
         <v>127.3</v>
       </c>
-      <c r="KV39" t="n">
+      <c r="KV39" s="2" t="n">
         <v>128.3</v>
+      </c>
+      <c r="KW39" t="n">
+        <v>105.7</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="3">
@@ -37575,8 +37692,11 @@
       <c r="KU40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KV40" t="n">
+      <c r="KV40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KW40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="3">
@@ -38503,7 +38623,10 @@
       <c r="KU41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KV41" t="n">
+      <c r="KV41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KW41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39431,8 +39554,11 @@
       <c r="KU42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KV42" t="n">
+      <c r="KV42" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KW42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="3">
@@ -40359,8 +40485,11 @@
       <c r="KU43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV43" t="n">
+      <c r="KV43" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KW43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="3">
@@ -41287,8 +41416,11 @@
       <c r="KU44" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="KV44" t="n">
+      <c r="KV44" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="KW44" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="3">
@@ -42215,8 +42347,11 @@
       <c r="KU45" s="2" t="n">
         <v>240</v>
       </c>
-      <c r="KV45" t="n">
+      <c r="KV45" s="2" t="n">
         <v>183</v>
+      </c>
+      <c r="KW45" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="3">
@@ -43143,8 +43278,11 @@
       <c r="KU46" s="2" t="n">
         <v>277</v>
       </c>
-      <c r="KV46" t="n">
+      <c r="KV46" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="KW46" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="3">
@@ -44071,8 +44209,11 @@
       <c r="KU47" s="2" t="n">
         <v>73.3</v>
       </c>
-      <c r="KV47" t="n">
+      <c r="KV47" s="2" t="n">
         <v>67.40000000000001</v>
+      </c>
+      <c r="KW47" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="3">
@@ -44999,8 +45140,11 @@
       <c r="KU48" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="KV48" t="n">
+      <c r="KV48" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KW48" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="3">
@@ -45927,8 +46071,11 @@
       <c r="KU49" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KV49" t="n">
+      <c r="KV49" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KW49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="3">
@@ -46855,7 +47002,10 @@
       <c r="KU50" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KV50" t="n">
+      <c r="KV50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KW50" t="n">
         <v>10</v>
       </c>
     </row>
@@ -47783,8 +47933,11 @@
       <c r="KU51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KV51" t="n">
+      <c r="KV51" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KW51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="3">
@@ -48711,8 +48864,11 @@
       <c r="KU52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KV52" t="n">
+      <c r="KV52" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KW52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="3">
@@ -49639,8 +49795,11 @@
       <c r="KU53" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KV53" t="n">
+      <c r="KV53" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KW53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="3">
@@ -50567,8 +50726,11 @@
       <c r="KU54" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KV54" t="n">
+      <c r="KV54" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KW54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="3">
@@ -51495,8 +51657,11 @@
       <c r="KU55" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KV55" t="n">
+      <c r="KV55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KW55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="3">
@@ -52423,7 +52588,10 @@
       <c r="KU56" s="2" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="KV56" t="n">
+      <c r="KV56" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KW56" t="n">
         <v>60</v>
       </c>
     </row>
@@ -53351,8 +53519,11 @@
       <c r="KU57" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="KV57" t="n">
+      <c r="KV57" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="KW57" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="3">
@@ -54279,8 +54450,11 @@
       <c r="KU58" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="KV58" t="n">
+      <c r="KV58" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="KW58" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="3">
@@ -55207,8 +55381,11 @@
       <c r="KU59" s="2" t="n">
         <v>359</v>
       </c>
-      <c r="KV59" t="n">
+      <c r="KV59" s="2" t="n">
         <v>363</v>
+      </c>
+      <c r="KW59" t="n">
+        <v>409</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="3">
@@ -56135,8 +56312,11 @@
       <c r="KU60" s="2" t="n">
         <v>1.23</v>
       </c>
-      <c r="KV60" t="n">
+      <c r="KV60" s="2" t="n">
         <v>1.67</v>
+      </c>
+      <c r="KW60" t="n">
+        <v>1.19</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="3">
@@ -57063,8 +57243,11 @@
       <c r="KU61" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="KV61" t="n">
+      <c r="KV61" s="2" t="n">
         <v>95</v>
+      </c>
+      <c r="KW61" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="3">
@@ -57991,8 +58174,11 @@
       <c r="KU62" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KV62" t="n">
+      <c r="KV62" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KW62" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="3">
@@ -58919,8 +59105,11 @@
       <c r="KU63" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KV63" t="n">
+      <c r="KV63" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KW63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="3">
@@ -59847,8 +60036,11 @@
       <c r="KU64" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KV64" t="n">
+      <c r="KV64" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KW64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="3">
@@ -60775,8 +60967,11 @@
       <c r="KU65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KV65" t="n">
+      <c r="KV65" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KW65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="3">
@@ -61703,8 +61898,11 @@
       <c r="KU66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KV66" t="n">
+      <c r="KV66" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KW66" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="3">
@@ -62631,8 +62829,11 @@
       <c r="KU67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV67" t="n">
+      <c r="KV67" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KW67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="3">
@@ -63559,8 +63760,11 @@
       <c r="KU68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KV68" t="n">
+      <c r="KV68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KW68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="3">
@@ -64487,7 +64691,10 @@
       <c r="KU69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KV69" t="n">
+      <c r="KV69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KW69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -65415,8 +65622,11 @@
       <c r="KU70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KV70" t="n">
+      <c r="KV70" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KW70" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="3">
@@ -66343,8 +66553,11 @@
       <c r="KU71" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KV71" t="n">
+      <c r="KV71" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KW71" t="n">
+        <v>61.3</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="3">
@@ -67271,8 +67484,11 @@
       <c r="KU72" s="2" t="n">
         <v>23.93</v>
       </c>
-      <c r="KV72" t="n">
+      <c r="KV72" s="2" t="n">
         <v>18.15</v>
+      </c>
+      <c r="KW72" t="n">
+        <v>21.53</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="3">
@@ -68199,8 +68415,11 @@
       <c r="KU73" s="2" t="n">
         <v>17.95</v>
       </c>
-      <c r="KV73" t="n">
+      <c r="KV73" s="2" t="n">
         <v>12.1</v>
+      </c>
+      <c r="KW73" t="n">
+        <v>13.19</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="3">
@@ -69127,8 +69346,11 @@
       <c r="KU74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KV74" t="n">
+      <c r="KV74" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KW74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="3">
@@ -70055,8 +70277,11 @@
       <c r="KU75" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KV75" t="n">
+      <c r="KV75" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KW75" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="3">
@@ -70983,8 +71208,11 @@
       <c r="KU76" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KV76" t="n">
+      <c r="KV76" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KW76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="3">
@@ -71911,8 +72139,11 @@
       <c r="KU77" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KV77" t="n">
+      <c r="KV77" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KW77" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="3">
@@ -72839,8 +73070,11 @@
       <c r="KU78" s="2" t="n">
         <v>2.75</v>
       </c>
-      <c r="KV78" t="n">
+      <c r="KV78" s="2" t="n">
         <v>2.43</v>
+      </c>
+      <c r="KW78" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="3">
@@ -73767,8 +74001,11 @@
       <c r="KU79" s="2" t="n">
         <v>3.67</v>
       </c>
-      <c r="KV79" t="n">
+      <c r="KV79" s="2" t="n">
         <v>3.65</v>
+      </c>
+      <c r="KW79" t="n">
+        <v>3.37</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="3">
@@ -74695,8 +74932,11 @@
       <c r="KU80" s="2" t="n">
         <v>36.4</v>
       </c>
-      <c r="KV80" t="n">
+      <c r="KV80" s="2" t="n">
         <v>38.4</v>
+      </c>
+      <c r="KW80" t="n">
+        <v>45.3</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="3">
@@ -75623,8 +75863,11 @@
       <c r="KU81" s="2" t="n">
         <v>27.3</v>
       </c>
-      <c r="KV81" t="n">
+      <c r="KV81" s="2" t="n">
         <v>27.4</v>
+      </c>
+      <c r="KW81" t="n">
+        <v>29.7</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="3">
@@ -76551,8 +76794,11 @@
       <c r="KU82" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="KV82" t="n">
+      <c r="KV82" s="2" t="n">
         <v>186.6</v>
+      </c>
+      <c r="KW82" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="3">
@@ -77479,8 +77725,11 @@
       <c r="KU83" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KV83" t="n">
+      <c r="KV83" s="2" t="n">
         <v>86.2</v>
+      </c>
+      <c r="KW83" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="3">
@@ -78407,8 +78656,11 @@
       <c r="KU84" s="2" t="n">
         <v>24.41</v>
       </c>
-      <c r="KV84" t="n">
+      <c r="KV84" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="KW84" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="3">
@@ -79335,8 +79587,11 @@
       <c r="KU85" s="2" t="n">
         <v>82.7</v>
       </c>
-      <c r="KV85" t="n">
+      <c r="KV85" s="2" t="n">
         <v>116.7</v>
+      </c>
+      <c r="KW85" t="n">
+        <v>117.9</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="3">
@@ -80263,7 +80518,10 @@
       <c r="KU86" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KV86" t="n">
+      <c r="KV86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KW86" t="n">
         <v>6</v>
       </c>
     </row>
@@ -81191,8 +81449,11 @@
       <c r="KU87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KV87" t="n">
+      <c r="KV87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KW87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="3">
@@ -82119,8 +82380,11 @@
       <c r="KU88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KV88" t="n">
+      <c r="KV88" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KW88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="3">
@@ -83047,8 +83311,11 @@
       <c r="KU89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KV89" t="n">
+      <c r="KV89" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KW89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="3">
@@ -83975,8 +84242,11 @@
       <c r="KU90" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="KV90" t="n">
+      <c r="KV90" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="KW90" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="3">
@@ -84903,8 +85173,11 @@
       <c r="KU91" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="KV91" t="n">
+      <c r="KV91" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="KW91" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="3">
@@ -85831,8 +86104,11 @@
       <c r="KU92" s="2" t="n">
         <v>258</v>
       </c>
-      <c r="KV92" t="n">
+      <c r="KV92" s="2" t="n">
         <v>258</v>
+      </c>
+      <c r="KW92" t="n">
+        <v>302</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="3">
@@ -86759,8 +87035,11 @@
       <c r="KU93" s="2" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="KV93" t="n">
+      <c r="KV93" s="2" t="n">
         <v>71.09999999999999</v>
+      </c>
+      <c r="KW93" t="n">
+        <v>73.8</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="3">
@@ -87687,8 +87966,11 @@
       <c r="KU94" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KV94" t="n">
+      <c r="KV94" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KW94" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="3">
@@ -88615,8 +88897,11 @@
       <c r="KU95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KV95" t="n">
+      <c r="KV95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KW95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="3">
@@ -89543,8 +89828,11 @@
       <c r="KU96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KV96" t="n">
+      <c r="KV96" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KW96" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="3">
@@ -90471,8 +90759,11 @@
       <c r="KU97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KV97" t="n">
+      <c r="KV97" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KW97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="3">
@@ -91399,8 +91690,11 @@
       <c r="KU98" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KV98" t="n">
+      <c r="KV98" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KW98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="3">
@@ -92327,8 +92621,11 @@
       <c r="KU99" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KV99" t="n">
+      <c r="KV99" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KW99" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="3">
@@ -93255,8 +93552,11 @@
       <c r="KU100" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KV100" t="n">
+      <c r="KV100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KW100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="3">
@@ -94183,8 +94483,11 @@
       <c r="KU101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV101" t="n">
+      <c r="KV101" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KW101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="3">
@@ -95111,8 +95414,11 @@
       <c r="KU102" s="2" t="n">
         <v>53.3</v>
       </c>
-      <c r="KV102" t="n">
+      <c r="KV102" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KW102" t="n">
+        <v>52.6</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KX102"/>
+  <dimension ref="A1:KY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KB100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KI101" activeCellId="0" sqref="KI101"/>
@@ -1389,8 +1389,11 @@
       <c r="KW1" s="2" t="n">
         <v>10928</v>
       </c>
-      <c r="KX1" t="n">
+      <c r="KX1" s="2" t="n">
         <v>10936</v>
+      </c>
+      <c r="KY1" t="n">
+        <v>10944</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="3">
@@ -2323,7 +2326,10 @@
       <c r="KW2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KX2" t="n">
+      <c r="KX2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KY2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3257,8 +3263,11 @@
       <c r="KW3" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KX3" t="n">
+      <c r="KX3" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="3">
@@ -4191,8 +4200,11 @@
       <c r="KW4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KX4" t="n">
+      <c r="KX4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="3">
@@ -5125,7 +5137,10 @@
       <c r="KW5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KX5" t="n">
+      <c r="KX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6059,8 +6074,11 @@
       <c r="KW6" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KX6" t="n">
+      <c r="KX6" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KY6" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="3">
@@ -6993,8 +7011,11 @@
       <c r="KW7" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="KX7" t="n">
+      <c r="KX7" s="2" t="n">
         <v>93</v>
+      </c>
+      <c r="KY7" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="3">
@@ -7927,8 +7948,11 @@
       <c r="KW8" s="2" t="n">
         <v>-55</v>
       </c>
-      <c r="KX8" t="n">
+      <c r="KX8" s="2" t="n">
         <v>-36</v>
+      </c>
+      <c r="KY8" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="3">
@@ -8861,8 +8885,11 @@
       <c r="KW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KX9" t="n">
+      <c r="KX9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KY9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="3">
@@ -9795,8 +9822,11 @@
       <c r="KW10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KX10" t="n">
+      <c r="KX10" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KY10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="3">
@@ -10729,8 +10759,11 @@
       <c r="KW11" s="2" t="n">
         <v>181</v>
       </c>
-      <c r="KX11" t="n">
+      <c r="KX11" s="2" t="n">
         <v>203</v>
+      </c>
+      <c r="KY11" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="3">
@@ -11663,8 +11696,11 @@
       <c r="KW12" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="KX12" t="n">
+      <c r="KX12" s="2" t="n">
         <v>153</v>
+      </c>
+      <c r="KY12" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="3">
@@ -12597,8 +12633,11 @@
       <c r="KW13" s="2" t="n">
         <v>301</v>
       </c>
-      <c r="KX13" t="n">
+      <c r="KX13" s="2" t="n">
         <v>356</v>
+      </c>
+      <c r="KY13" t="n">
+        <v>359</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="3">
@@ -13531,8 +13570,11 @@
       <c r="KW14" s="2" t="n">
         <v>1.51</v>
       </c>
-      <c r="KX14" t="n">
+      <c r="KX14" s="2" t="n">
         <v>1.33</v>
+      </c>
+      <c r="KY14" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="3">
@@ -14465,8 +14507,11 @@
       <c r="KW15" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="KX15" t="n">
+      <c r="KX15" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="KY15" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="3">
@@ -15399,8 +15444,11 @@
       <c r="KW16" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KX16" t="n">
+      <c r="KX16" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KY16" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="3">
@@ -16333,8 +16381,11 @@
       <c r="KW17" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KX17" t="n">
+      <c r="KX17" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KY17" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="3">
@@ -17267,7 +17318,10 @@
       <c r="KW18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KX18" t="n">
+      <c r="KX18" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KY18" t="n">
         <v>14</v>
       </c>
     </row>
@@ -18201,8 +18255,11 @@
       <c r="KW19" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KX19" t="n">
+      <c r="KX19" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KY19" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="3">
@@ -19135,8 +19192,11 @@
       <c r="KW20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KX20" t="n">
+      <c r="KX20" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KY20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="3">
@@ -20069,8 +20129,11 @@
       <c r="KW21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KX21" t="n">
+      <c r="KX21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KY21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="3">
@@ -21003,8 +21066,11 @@
       <c r="KW22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KX22" t="n">
+      <c r="KX22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KY22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="3">
@@ -21937,8 +22003,11 @@
       <c r="KW23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KX23" t="n">
+      <c r="KX23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KY23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="3">
@@ -22871,8 +22940,11 @@
       <c r="KW24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KX24" t="n">
+      <c r="KX24" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KY24" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="3">
@@ -23805,8 +23877,11 @@
       <c r="KW25" s="2" t="n">
         <v>47.6</v>
       </c>
-      <c r="KX25" t="n">
+      <c r="KX25" s="2" t="n">
         <v>47.1</v>
+      </c>
+      <c r="KY25" t="n">
+        <v>45.2</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="3">
@@ -24739,8 +24814,11 @@
       <c r="KW26" s="2" t="n">
         <v>30.1</v>
       </c>
-      <c r="KX26" t="n">
+      <c r="KX26" s="2" t="n">
         <v>44.5</v>
+      </c>
+      <c r="KY26" t="n">
+        <v>25.64</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="3">
@@ -25673,8 +25751,11 @@
       <c r="KW27" s="2" t="n">
         <v>14.33</v>
       </c>
-      <c r="KX27" t="n">
+      <c r="KX27" s="2" t="n">
         <v>20.94</v>
+      </c>
+      <c r="KY27" t="n">
+        <v>11.58</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="3">
@@ -26607,8 +26688,11 @@
       <c r="KW28" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KX28" t="n">
+      <c r="KX28" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KY28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="3">
@@ -27541,8 +27625,11 @@
       <c r="KW29" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KX29" t="n">
+      <c r="KX29" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KY29" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="3">
@@ -28475,8 +28562,11 @@
       <c r="KW30" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KX30" t="n">
+      <c r="KX30" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KY30" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="3">
@@ -29409,8 +29499,11 @@
       <c r="KW31" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KX31" t="n">
+      <c r="KX31" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KY31" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="3">
@@ -30343,8 +30436,11 @@
       <c r="KW32" s="2" t="n">
         <v>2.19</v>
       </c>
-      <c r="KX32" t="n">
+      <c r="KX32" s="2" t="n">
         <v>2.82</v>
+      </c>
+      <c r="KY32" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="3">
@@ -31277,8 +31373,11 @@
       <c r="KW33" s="2" t="n">
         <v>4.6</v>
       </c>
-      <c r="KX33" t="n">
+      <c r="KX33" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KY33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="3">
@@ -32211,8 +32310,11 @@
       <c r="KW34" s="2" t="n">
         <v>41.3</v>
       </c>
-      <c r="KX34" t="n">
+      <c r="KX34" s="2" t="n">
         <v>35.4</v>
+      </c>
+      <c r="KY34" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="3">
@@ -33145,8 +33247,11 @@
       <c r="KW35" s="2" t="n">
         <v>21.7</v>
       </c>
-      <c r="KX35" t="n">
+      <c r="KX35" s="2" t="n">
         <v>16.7</v>
+      </c>
+      <c r="KY35" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="3">
@@ -34079,8 +34184,11 @@
       <c r="KW36" s="2" t="n">
         <v>186.1</v>
       </c>
-      <c r="KX36" t="n">
+      <c r="KX36" s="2" t="n">
         <v>186.4</v>
+      </c>
+      <c r="KY36" t="n">
+        <v>186.6</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="3">
@@ -35013,8 +35121,11 @@
       <c r="KW37" s="2" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="KX37" t="n">
+      <c r="KX37" s="2" t="n">
         <v>85.90000000000001</v>
+      </c>
+      <c r="KY37" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="3">
@@ -35947,8 +36058,11 @@
       <c r="KW38" s="2" t="n">
         <v>26.33</v>
       </c>
-      <c r="KX38" t="n">
+      <c r="KX38" s="2" t="n">
         <v>27.8</v>
+      </c>
+      <c r="KY38" t="n">
+        <v>27.66</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="3">
@@ -36881,8 +36995,11 @@
       <c r="KW39" s="2" t="n">
         <v>105.7</v>
       </c>
-      <c r="KX39" t="n">
+      <c r="KX39" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="KY39" t="n">
+        <v>142.3</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="3">
@@ -37815,8 +37932,11 @@
       <c r="KW40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KX40" t="n">
+      <c r="KX40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KY40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="3">
@@ -38749,7 +38869,10 @@
       <c r="KW41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KX41" t="n">
+      <c r="KX41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KY41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39683,8 +39806,11 @@
       <c r="KW42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KX42" t="n">
+      <c r="KX42" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KY42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="3">
@@ -40617,8 +40743,11 @@
       <c r="KW43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KX43" t="n">
+      <c r="KX43" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KY43" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="3">
@@ -41551,8 +41680,11 @@
       <c r="KW44" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="KX44" t="n">
+      <c r="KX44" s="2" t="n">
         <v>118</v>
+      </c>
+      <c r="KY44" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="3">
@@ -42485,8 +42617,11 @@
       <c r="KW45" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="KX45" t="n">
+      <c r="KX45" s="2" t="n">
         <v>240</v>
+      </c>
+      <c r="KY45" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="3">
@@ -43419,8 +43554,11 @@
       <c r="KW46" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="KX46" t="n">
+      <c r="KX46" s="2" t="n">
         <v>256</v>
+      </c>
+      <c r="KY46" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="3">
@@ -44353,8 +44491,11 @@
       <c r="KW47" s="2" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="KX47" t="n">
+      <c r="KX47" s="2" t="n">
         <v>71.90000000000001</v>
+      </c>
+      <c r="KY47" t="n">
+        <v>75.5</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="3">
@@ -45287,8 +45428,11 @@
       <c r="KW48" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KX48" t="n">
+      <c r="KX48" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KY48" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="3">
@@ -46221,8 +46365,11 @@
       <c r="KW49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KX49" t="n">
+      <c r="KX49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KY49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="3">
@@ -47155,8 +47302,11 @@
       <c r="KW50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KX50" t="n">
+      <c r="KX50" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KY50" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="3">
@@ -48089,8 +48239,11 @@
       <c r="KW51" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KX51" t="n">
+      <c r="KX51" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KY51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="3">
@@ -49023,8 +49176,11 @@
       <c r="KW52" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KX52" t="n">
+      <c r="KX52" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KY52" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="3">
@@ -49957,8 +50113,11 @@
       <c r="KW53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KX53" t="n">
+      <c r="KX53" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KY53" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="3">
@@ -50891,8 +51050,11 @@
       <c r="KW54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KX54" t="n">
+      <c r="KX54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KY54" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="3">
@@ -51825,8 +51987,11 @@
       <c r="KW55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KX55" t="n">
+      <c r="KX55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KY55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="3">
@@ -52759,8 +52924,11 @@
       <c r="KW56" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KX56" t="n">
+      <c r="KX56" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KY56" t="n">
+        <v>64.3</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="3">
@@ -53693,8 +53861,11 @@
       <c r="KW57" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="KX57" t="n">
+      <c r="KX57" s="2" t="n">
         <v>243</v>
+      </c>
+      <c r="KY57" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="3">
@@ -54627,8 +54798,11 @@
       <c r="KW58" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="KX58" t="n">
+      <c r="KX58" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="KY58" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="3">
@@ -55561,8 +55735,11 @@
       <c r="KW59" s="2" t="n">
         <v>409</v>
       </c>
-      <c r="KX59" t="n">
+      <c r="KX59" s="2" t="n">
         <v>397</v>
+      </c>
+      <c r="KY59" t="n">
+        <v>359</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="3">
@@ -56495,8 +56672,11 @@
       <c r="KW60" s="2" t="n">
         <v>1.19</v>
       </c>
-      <c r="KX60" t="n">
+      <c r="KX60" s="2" t="n">
         <v>1.58</v>
+      </c>
+      <c r="KY60" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="3">
@@ -57429,8 +57609,11 @@
       <c r="KW61" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KX61" t="n">
+      <c r="KX61" s="2" t="n">
         <v>128</v>
+      </c>
+      <c r="KY61" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="3">
@@ -58363,8 +58546,11 @@
       <c r="KW62" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="KX62" t="n">
+      <c r="KX62" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KY62" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="3">
@@ -59297,8 +59483,11 @@
       <c r="KW63" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KX63" t="n">
+      <c r="KX63" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KY63" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="3">
@@ -60231,8 +60420,11 @@
       <c r="KW64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KX64" t="n">
+      <c r="KX64" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KY64" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="3">
@@ -61165,7 +61357,10 @@
       <c r="KW65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KX65" t="n">
+      <c r="KX65" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KY65" t="n">
         <v>14</v>
       </c>
     </row>
@@ -62099,8 +62294,11 @@
       <c r="KW66" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KX66" t="n">
+      <c r="KX66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KY66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="3">
@@ -63033,8 +63231,11 @@
       <c r="KW67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KX67" t="n">
+      <c r="KX67" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KY67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="3">
@@ -63967,8 +64168,11 @@
       <c r="KW68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KX68" t="n">
+      <c r="KX68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KY68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="3">
@@ -64901,8 +65105,11 @@
       <c r="KW69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KX69" t="n">
+      <c r="KX69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KY69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="3">
@@ -65835,8 +66042,11 @@
       <c r="KW70" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KX70" t="n">
+      <c r="KX70" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KY70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="3">
@@ -66769,8 +66979,11 @@
       <c r="KW71" s="2" t="n">
         <v>61.3</v>
       </c>
-      <c r="KX71" t="n">
+      <c r="KX71" s="2" t="n">
         <v>60.9</v>
+      </c>
+      <c r="KY71" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="3">
@@ -67703,8 +67916,11 @@
       <c r="KW72" s="2" t="n">
         <v>21.53</v>
       </c>
-      <c r="KX72" t="n">
+      <c r="KX72" s="2" t="n">
         <v>28.36</v>
+      </c>
+      <c r="KY72" t="n">
+        <v>35.9</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="3">
@@ -68637,8 +68853,11 @@
       <c r="KW73" s="2" t="n">
         <v>13.19</v>
       </c>
-      <c r="KX73" t="n">
+      <c r="KX73" s="2" t="n">
         <v>17.26</v>
+      </c>
+      <c r="KY73" t="n">
+        <v>16.32</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="3">
@@ -69571,8 +69790,11 @@
       <c r="KW74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KX74" t="n">
+      <c r="KX74" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KY74" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="3">
@@ -70505,7 +70727,10 @@
       <c r="KW75" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KX75" t="n">
+      <c r="KX75" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="KY75" t="n">
         <v>58</v>
       </c>
     </row>
@@ -71439,7 +71664,10 @@
       <c r="KW76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KX76" t="n">
+      <c r="KX76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KY76" t="n">
         <v>40</v>
       </c>
     </row>
@@ -72373,8 +72601,11 @@
       <c r="KW77" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KX77" t="n">
+      <c r="KX77" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KY77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="3">
@@ -73307,8 +73538,11 @@
       <c r="KW78" s="2" t="n">
         <v>2.06</v>
       </c>
-      <c r="KX78" t="n">
+      <c r="KX78" s="2" t="n">
         <v>2.52</v>
+      </c>
+      <c r="KY78" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="3">
@@ -74241,8 +74475,11 @@
       <c r="KW79" s="2" t="n">
         <v>3.37</v>
       </c>
-      <c r="KX79" t="n">
+      <c r="KX79" s="2" t="n">
         <v>4.14</v>
+      </c>
+      <c r="KY79" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="3">
@@ -75175,8 +75412,11 @@
       <c r="KW80" s="2" t="n">
         <v>45.3</v>
       </c>
-      <c r="KX80" t="n">
+      <c r="KX80" s="2" t="n">
         <v>36.2</v>
+      </c>
+      <c r="KY80" t="n">
+        <v>44.7</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="3">
@@ -76109,8 +76349,11 @@
       <c r="KW81" s="2" t="n">
         <v>29.7</v>
       </c>
-      <c r="KX81" t="n">
+      <c r="KX81" s="2" t="n">
         <v>24.1</v>
+      </c>
+      <c r="KY81" t="n">
+        <v>21.3</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="3">
@@ -77043,8 +77286,11 @@
       <c r="KW82" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="KX82" t="n">
+      <c r="KX82" s="2" t="n">
         <v>188.1</v>
+      </c>
+      <c r="KY82" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="3">
@@ -77977,8 +78223,11 @@
       <c r="KW83" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="KX83" t="n">
+      <c r="KX83" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="KY83" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="3">
@@ -78911,8 +79160,11 @@
       <c r="KW84" s="2" t="n">
         <v>26.16</v>
       </c>
-      <c r="KX84" t="n">
+      <c r="KX84" s="2" t="n">
         <v>25.74</v>
+      </c>
+      <c r="KY84" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="3">
@@ -79845,8 +80097,11 @@
       <c r="KW85" s="2" t="n">
         <v>117.9</v>
       </c>
-      <c r="KX85" t="n">
+      <c r="KX85" s="2" t="n">
         <v>107.2</v>
+      </c>
+      <c r="KY85" t="n">
+        <v>92.2</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="3">
@@ -80779,8 +81034,11 @@
       <c r="KW86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KX86" t="n">
+      <c r="KX86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KY86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="3">
@@ -81713,8 +81971,11 @@
       <c r="KW87" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KX87" t="n">
+      <c r="KX87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KY87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="3">
@@ -82647,8 +82908,11 @@
       <c r="KW88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KX88" t="n">
+      <c r="KX88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KY88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="3">
@@ -83581,8 +83845,11 @@
       <c r="KW89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KX89" t="n">
+      <c r="KX89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KY89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="3">
@@ -84515,8 +84782,11 @@
       <c r="KW90" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="KX90" t="n">
+      <c r="KX90" s="2" t="n">
         <v>117</v>
+      </c>
+      <c r="KY90" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="3">
@@ -85449,8 +85719,11 @@
       <c r="KW91" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="KX91" t="n">
+      <c r="KX91" s="2" t="n">
         <v>280</v>
+      </c>
+      <c r="KY91" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="3">
@@ -86383,8 +86656,11 @@
       <c r="KW92" s="2" t="n">
         <v>302</v>
       </c>
-      <c r="KX92" t="n">
+      <c r="KX92" s="2" t="n">
         <v>308</v>
+      </c>
+      <c r="KY92" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="3">
@@ -87317,8 +87593,11 @@
       <c r="KW93" s="2" t="n">
         <v>73.8</v>
       </c>
-      <c r="KX93" t="n">
+      <c r="KX93" s="2" t="n">
         <v>77.59999999999999</v>
+      </c>
+      <c r="KY93" t="n">
+        <v>73.5</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="3">
@@ -88251,7 +88530,10 @@
       <c r="KW94" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KX94" t="n">
+      <c r="KX94" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="KY94" t="n">
         <v>58</v>
       </c>
     </row>
@@ -89185,8 +89467,11 @@
       <c r="KW95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KX95" t="n">
+      <c r="KX95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KY95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="3">
@@ -90119,7 +90404,10 @@
       <c r="KW96" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KX96" t="n">
+      <c r="KX96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KY96" t="n">
         <v>13</v>
       </c>
     </row>
@@ -91053,8 +91341,11 @@
       <c r="KW97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KX97" t="n">
+      <c r="KX97" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KY97" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="3">
@@ -91987,7 +92278,10 @@
       <c r="KW98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KX98" t="n">
+      <c r="KX98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KY98" t="n">
         <v>40</v>
       </c>
     </row>
@@ -92921,8 +93215,11 @@
       <c r="KW99" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KX99" t="n">
+      <c r="KX99" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KY99" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="3">
@@ -93855,8 +94152,11 @@
       <c r="KW100" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KX100" t="n">
+      <c r="KX100" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KY100" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="3">
@@ -94789,8 +95089,11 @@
       <c r="KW101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KX101" t="n">
+      <c r="KX101" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KY101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="3">
@@ -95723,8 +96026,11 @@
       <c r="KW102" s="2" t="n">
         <v>52.6</v>
       </c>
-      <c r="KX102" t="n">
+      <c r="KX102" s="2" t="n">
         <v>78.59999999999999</v>
+      </c>
+      <c r="KY102" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KY102"/>
+  <dimension ref="A1:KZ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KB100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KI101" activeCellId="0" sqref="KI101"/>
@@ -1392,8 +1392,11 @@
       <c r="KX1" s="2" t="n">
         <v>10936</v>
       </c>
-      <c r="KY1" t="n">
+      <c r="KY1" s="2" t="n">
         <v>10944</v>
+      </c>
+      <c r="KZ1" t="n">
+        <v>10956</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="3">
@@ -2329,7 +2332,10 @@
       <c r="KX2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KY2" t="n">
+      <c r="KY2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KZ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3266,8 +3272,11 @@
       <c r="KX3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KY3" t="n">
+      <c r="KY3" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="3">
@@ -4203,8 +4212,11 @@
       <c r="KX4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KY4" t="n">
+      <c r="KY4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="3">
@@ -5140,7 +5152,10 @@
       <c r="KX5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KY5" t="n">
+      <c r="KY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6077,8 +6092,11 @@
       <c r="KX6" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KY6" t="n">
+      <c r="KY6" s="2" t="n">
         <v>101</v>
+      </c>
+      <c r="KZ6" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="3">
@@ -7014,8 +7032,11 @@
       <c r="KX7" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="KY7" t="n">
+      <c r="KY7" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KZ7" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="3">
@@ -7951,8 +7972,11 @@
       <c r="KX8" s="2" t="n">
         <v>-36</v>
       </c>
-      <c r="KY8" t="n">
+      <c r="KY8" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KZ8" t="n">
+        <v>-31</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="3">
@@ -8888,8 +8912,11 @@
       <c r="KX9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KY9" t="n">
+      <c r="KY9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KZ9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="3">
@@ -9825,8 +9852,11 @@
       <c r="KX10" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KY10" t="n">
+      <c r="KY10" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KZ10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="3">
@@ -10762,8 +10792,11 @@
       <c r="KX11" s="2" t="n">
         <v>203</v>
       </c>
-      <c r="KY11" t="n">
+      <c r="KY11" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="KZ11" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="3">
@@ -11699,8 +11732,11 @@
       <c r="KX12" s="2" t="n">
         <v>153</v>
       </c>
-      <c r="KY12" t="n">
+      <c r="KY12" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="KZ12" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="3">
@@ -12636,8 +12672,11 @@
       <c r="KX13" s="2" t="n">
         <v>356</v>
       </c>
-      <c r="KY13" t="n">
+      <c r="KY13" s="2" t="n">
         <v>359</v>
+      </c>
+      <c r="KZ13" t="n">
+        <v>346</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="3">
@@ -13573,8 +13612,11 @@
       <c r="KX14" s="2" t="n">
         <v>1.33</v>
       </c>
-      <c r="KY14" t="n">
+      <c r="KY14" s="2" t="n">
         <v>1.55</v>
+      </c>
+      <c r="KZ14" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="3">
@@ -14510,8 +14552,11 @@
       <c r="KX15" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="KY15" t="n">
+      <c r="KY15" s="2" t="n">
         <v>106</v>
+      </c>
+      <c r="KZ15" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="3">
@@ -15447,8 +15492,11 @@
       <c r="KX16" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KY16" t="n">
+      <c r="KY16" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KZ16" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="3">
@@ -16384,8 +16432,11 @@
       <c r="KX17" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KY17" t="n">
+      <c r="KY17" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KZ17" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="3">
@@ -17321,8 +17372,11 @@
       <c r="KX18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KY18" t="n">
+      <c r="KY18" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KZ18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="3">
@@ -18258,8 +18312,11 @@
       <c r="KX19" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KY19" t="n">
+      <c r="KY19" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KZ19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="3">
@@ -19195,8 +19252,11 @@
       <c r="KX20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KY20" t="n">
+      <c r="KY20" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KZ20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="3">
@@ -20132,8 +20192,11 @@
       <c r="KX21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KY21" t="n">
+      <c r="KY21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KZ21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="3">
@@ -21069,8 +21132,11 @@
       <c r="KX22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KY22" t="n">
+      <c r="KY22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KZ22" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="3">
@@ -22006,8 +22072,11 @@
       <c r="KX23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KY23" t="n">
+      <c r="KY23" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KZ23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="3">
@@ -22943,8 +23012,11 @@
       <c r="KX24" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KY24" t="n">
+      <c r="KY24" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KZ24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="3">
@@ -23880,8 +23952,11 @@
       <c r="KX25" s="2" t="n">
         <v>47.1</v>
       </c>
-      <c r="KY25" t="n">
+      <c r="KY25" s="2" t="n">
         <v>45.2</v>
+      </c>
+      <c r="KZ25" t="n">
+        <v>34.8</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="3">
@@ -24817,8 +24892,11 @@
       <c r="KX26" s="2" t="n">
         <v>44.5</v>
       </c>
-      <c r="KY26" t="n">
+      <c r="KY26" s="2" t="n">
         <v>25.64</v>
+      </c>
+      <c r="KZ26" t="n">
+        <v>43.25</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="3">
@@ -25754,8 +25832,11 @@
       <c r="KX27" s="2" t="n">
         <v>20.94</v>
       </c>
-      <c r="KY27" t="n">
+      <c r="KY27" s="2" t="n">
         <v>11.58</v>
+      </c>
+      <c r="KZ27" t="n">
+        <v>15.04</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="3">
@@ -26691,8 +26772,11 @@
       <c r="KX28" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KY28" t="n">
+      <c r="KY28" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KZ28" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="3">
@@ -27628,8 +27712,11 @@
       <c r="KX29" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KY29" t="n">
+      <c r="KY29" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KZ29" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="3">
@@ -28565,7 +28652,10 @@
       <c r="KX30" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KY30" t="n">
+      <c r="KY30" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KZ30" t="n">
         <v>37</v>
       </c>
     </row>
@@ -29502,8 +29592,11 @@
       <c r="KX31" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KY31" t="n">
+      <c r="KY31" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KZ31" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="3">
@@ -30439,8 +30532,11 @@
       <c r="KX32" s="2" t="n">
         <v>2.82</v>
       </c>
-      <c r="KY32" t="n">
+      <c r="KY32" s="2" t="n">
         <v>1.81</v>
+      </c>
+      <c r="KZ32" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="3">
@@ -31376,8 +31472,11 @@
       <c r="KX33" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KY33" t="n">
+      <c r="KY33" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KZ33" t="n">
+        <v>7.25</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="3">
@@ -32313,8 +32412,11 @@
       <c r="KX34" s="2" t="n">
         <v>35.4</v>
       </c>
-      <c r="KY34" t="n">
+      <c r="KY34" s="2" t="n">
         <v>42.9</v>
+      </c>
+      <c r="KZ34" t="n">
+        <v>36.2</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="3">
@@ -33250,8 +33352,11 @@
       <c r="KX35" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="KY35" t="n">
+      <c r="KY35" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KZ35" t="n">
+        <v>13.8</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="3">
@@ -34187,8 +34292,11 @@
       <c r="KX36" s="2" t="n">
         <v>186.4</v>
       </c>
-      <c r="KY36" t="n">
+      <c r="KY36" s="2" t="n">
         <v>186.6</v>
+      </c>
+      <c r="KZ36" t="n">
+        <v>186.8</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="3">
@@ -35124,8 +35232,11 @@
       <c r="KX37" s="2" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="KY37" t="n">
+      <c r="KY37" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="KZ37" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="3">
@@ -36061,8 +36172,11 @@
       <c r="KX38" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="KY38" t="n">
+      <c r="KY38" s="2" t="n">
         <v>27.66</v>
+      </c>
+      <c r="KZ38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="3">
@@ -36998,8 +37112,11 @@
       <c r="KX39" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="KY39" t="n">
+      <c r="KY39" s="2" t="n">
         <v>142.3</v>
+      </c>
+      <c r="KZ39" t="n">
+        <v>96.7</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="3">
@@ -37935,8 +38052,11 @@
       <c r="KX40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KY40" t="n">
+      <c r="KY40" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KZ40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="3">
@@ -38872,8 +38992,11 @@
       <c r="KX41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KY41" t="n">
+      <c r="KY41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KZ41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="3">
@@ -39809,7 +39932,10 @@
       <c r="KX42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KY42" t="n">
+      <c r="KY42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KZ42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -40746,8 +40872,11 @@
       <c r="KX43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KY43" t="n">
+      <c r="KY43" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KZ43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="3">
@@ -41683,8 +41812,11 @@
       <c r="KX44" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="KY44" t="n">
+      <c r="KY44" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="KZ44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="3">
@@ -42620,8 +42752,11 @@
       <c r="KX45" s="2" t="n">
         <v>240</v>
       </c>
-      <c r="KY45" t="n">
+      <c r="KY45" s="2" t="n">
         <v>232</v>
+      </c>
+      <c r="KZ45" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="3">
@@ -43557,8 +43692,11 @@
       <c r="KX46" s="2" t="n">
         <v>256</v>
       </c>
-      <c r="KY46" t="n">
+      <c r="KY46" s="2" t="n">
         <v>271</v>
+      </c>
+      <c r="KZ46" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="3">
@@ -44494,8 +44632,11 @@
       <c r="KX47" s="2" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="KY47" t="n">
+      <c r="KY47" s="2" t="n">
         <v>75.5</v>
+      </c>
+      <c r="KZ47" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="3">
@@ -45431,8 +45572,11 @@
       <c r="KX48" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KY48" t="n">
+      <c r="KY48" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KZ48" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="3">
@@ -46368,8 +46512,11 @@
       <c r="KX49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KY49" t="n">
+      <c r="KY49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KZ49" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="3">
@@ -47305,8 +47452,11 @@
       <c r="KX50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KY50" t="n">
+      <c r="KY50" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KZ50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="3">
@@ -48242,8 +48392,11 @@
       <c r="KX51" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KY51" t="n">
+      <c r="KY51" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KZ51" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="3">
@@ -49179,7 +49332,10 @@
       <c r="KX52" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KY52" t="n">
+      <c r="KY52" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KZ52" t="n">
         <v>37</v>
       </c>
     </row>
@@ -50116,8 +50272,11 @@
       <c r="KX53" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KY53" t="n">
+      <c r="KY53" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KZ53" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="3">
@@ -51053,8 +51212,11 @@
       <c r="KX54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KY54" t="n">
+      <c r="KY54" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KZ54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="3">
@@ -51990,8 +52152,11 @@
       <c r="KX55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KY55" t="n">
+      <c r="KY55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KZ55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="3">
@@ -52927,8 +53092,11 @@
       <c r="KX56" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KY56" t="n">
+      <c r="KY56" s="2" t="n">
         <v>64.3</v>
+      </c>
+      <c r="KZ56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="3">
@@ -53864,8 +54032,11 @@
       <c r="KX57" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="KY57" t="n">
+      <c r="KY57" s="2" t="n">
         <v>193</v>
+      </c>
+      <c r="KZ57" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="3">
@@ -54801,8 +54972,11 @@
       <c r="KX58" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="KY58" t="n">
+      <c r="KY58" s="2" t="n">
         <v>166</v>
+      </c>
+      <c r="KZ58" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="3">
@@ -55738,8 +55912,11 @@
       <c r="KX59" s="2" t="n">
         <v>397</v>
       </c>
-      <c r="KY59" t="n">
+      <c r="KY59" s="2" t="n">
         <v>359</v>
+      </c>
+      <c r="KZ59" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="3">
@@ -56675,8 +56852,11 @@
       <c r="KX60" s="2" t="n">
         <v>1.58</v>
       </c>
-      <c r="KY60" t="n">
+      <c r="KY60" s="2" t="n">
         <v>1.16</v>
+      </c>
+      <c r="KZ60" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="3">
@@ -57612,8 +57792,11 @@
       <c r="KX61" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="KY61" t="n">
+      <c r="KY61" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KZ61" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="3">
@@ -58549,8 +58732,11 @@
       <c r="KX62" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KY62" t="n">
+      <c r="KY62" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KZ62" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="3">
@@ -59486,8 +59672,11 @@
       <c r="KX63" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KY63" t="n">
+      <c r="KY63" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KZ63" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="3">
@@ -60423,8 +60612,11 @@
       <c r="KX64" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KY64" t="n">
+      <c r="KY64" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KZ64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="3">
@@ -61360,8 +61552,11 @@
       <c r="KX65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KY65" t="n">
+      <c r="KY65" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KZ65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="3">
@@ -62297,8 +62492,11 @@
       <c r="KX66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KY66" t="n">
+      <c r="KY66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KZ66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="3">
@@ -63234,8 +63432,11 @@
       <c r="KX67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KY67" t="n">
+      <c r="KY67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KZ67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="3">
@@ -64171,8 +64372,11 @@
       <c r="KX68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KY68" t="n">
+      <c r="KY68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KZ68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="3">
@@ -65108,8 +65312,11 @@
       <c r="KX69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KY69" t="n">
+      <c r="KY69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KZ69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="3">
@@ -66045,8 +66252,11 @@
       <c r="KX70" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KY70" t="n">
+      <c r="KY70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KZ70" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="3">
@@ -66982,8 +67192,11 @@
       <c r="KX71" s="2" t="n">
         <v>60.9</v>
       </c>
-      <c r="KY71" t="n">
+      <c r="KY71" s="2" t="n">
         <v>45.5</v>
+      </c>
+      <c r="KZ71" t="n">
+        <v>44.8</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="3">
@@ -67919,8 +68132,11 @@
       <c r="KX72" s="2" t="n">
         <v>28.36</v>
       </c>
-      <c r="KY72" t="n">
+      <c r="KY72" s="2" t="n">
         <v>35.9</v>
+      </c>
+      <c r="KZ72" t="n">
+        <v>27.92</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="3">
@@ -68856,8 +69072,11 @@
       <c r="KX73" s="2" t="n">
         <v>17.26</v>
       </c>
-      <c r="KY73" t="n">
+      <c r="KY73" s="2" t="n">
         <v>16.32</v>
+      </c>
+      <c r="KZ73" t="n">
+        <v>12.52</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="3">
@@ -69793,8 +70012,11 @@
       <c r="KX74" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KY74" t="n">
+      <c r="KY74" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KZ74" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="3">
@@ -70730,8 +70952,11 @@
       <c r="KX75" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KY75" t="n">
+      <c r="KY75" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KZ75" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="3">
@@ -71667,8 +71892,11 @@
       <c r="KX76" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KY76" t="n">
+      <c r="KY76" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KZ76" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="3">
@@ -72604,8 +72832,11 @@
       <c r="KX77" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KY77" t="n">
+      <c r="KY77" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KZ77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="3">
@@ -73541,8 +73772,11 @@
       <c r="KX78" s="2" t="n">
         <v>2.52</v>
       </c>
-      <c r="KY78" t="n">
+      <c r="KY78" s="2" t="n">
         <v>2.14</v>
+      </c>
+      <c r="KZ78" t="n">
+        <v>1.76</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="3">
@@ -74478,8 +74712,11 @@
       <c r="KX79" s="2" t="n">
         <v>4.14</v>
       </c>
-      <c r="KY79" t="n">
+      <c r="KY79" s="2" t="n">
         <v>4.7</v>
+      </c>
+      <c r="KZ79" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="3">
@@ -75415,8 +75652,11 @@
       <c r="KX80" s="2" t="n">
         <v>36.2</v>
       </c>
-      <c r="KY80" t="n">
+      <c r="KY80" s="2" t="n">
         <v>44.7</v>
+      </c>
+      <c r="KZ80" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="3">
@@ -76352,8 +76592,11 @@
       <c r="KX81" s="2" t="n">
         <v>24.1</v>
       </c>
-      <c r="KY81" t="n">
+      <c r="KY81" s="2" t="n">
         <v>21.3</v>
+      </c>
+      <c r="KZ81" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="3">
@@ -77289,8 +77532,11 @@
       <c r="KX82" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="KY82" t="n">
+      <c r="KY82" s="2" t="n">
         <v>188.9</v>
+      </c>
+      <c r="KZ82" t="n">
+        <v>186.8</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="3">
@@ -78226,8 +78472,11 @@
       <c r="KX83" s="2" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="KY83" t="n">
+      <c r="KY83" s="2" t="n">
         <v>84.59999999999999</v>
+      </c>
+      <c r="KZ83" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="3">
@@ -79163,8 +79412,11 @@
       <c r="KX84" s="2" t="n">
         <v>25.74</v>
       </c>
-      <c r="KY84" t="n">
+      <c r="KY84" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KZ84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="3">
@@ -80100,8 +80352,11 @@
       <c r="KX85" s="2" t="n">
         <v>107.2</v>
       </c>
-      <c r="KY85" t="n">
+      <c r="KY85" s="2" t="n">
         <v>92.2</v>
+      </c>
+      <c r="KZ85" t="n">
+        <v>100.5</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="3">
@@ -81037,8 +81292,11 @@
       <c r="KX86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KY86" t="n">
+      <c r="KY86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KZ86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="3">
@@ -81974,8 +82232,11 @@
       <c r="KX87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KY87" t="n">
+      <c r="KY87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KZ87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="3">
@@ -82911,7 +83172,10 @@
       <c r="KX88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KY88" t="n">
+      <c r="KY88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KZ88" t="n">
         <v>6</v>
       </c>
     </row>
@@ -83848,8 +84112,11 @@
       <c r="KX89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KY89" t="n">
+      <c r="KY89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KZ89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="3">
@@ -84785,8 +85052,11 @@
       <c r="KX90" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="KY90" t="n">
+      <c r="KY90" s="2" t="n">
         <v>113</v>
+      </c>
+      <c r="KZ90" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="3">
@@ -85722,8 +85992,11 @@
       <c r="KX91" s="2" t="n">
         <v>280</v>
       </c>
-      <c r="KY91" t="n">
+      <c r="KY91" s="2" t="n">
         <v>235</v>
+      </c>
+      <c r="KZ91" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="3">
@@ -86659,8 +86932,11 @@
       <c r="KX92" s="2" t="n">
         <v>308</v>
       </c>
-      <c r="KY92" t="n">
+      <c r="KY92" s="2" t="n">
         <v>264</v>
+      </c>
+      <c r="KZ92" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="3">
@@ -87596,8 +87872,11 @@
       <c r="KX93" s="2" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="KY93" t="n">
+      <c r="KY93" s="2" t="n">
         <v>73.5</v>
+      </c>
+      <c r="KZ93" t="n">
+        <v>75.5</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="3">
@@ -88533,8 +88812,11 @@
       <c r="KX94" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KY94" t="n">
+      <c r="KY94" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KZ94" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="3">
@@ -89470,8 +89752,11 @@
       <c r="KX95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KY95" t="n">
+      <c r="KY95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KZ95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="3">
@@ -90407,8 +90692,11 @@
       <c r="KX96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KY96" t="n">
+      <c r="KY96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KZ96" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="3">
@@ -91344,8 +91632,11 @@
       <c r="KX97" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KY97" t="n">
+      <c r="KY97" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KZ97" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="3">
@@ -92281,8 +92572,11 @@
       <c r="KX98" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KY98" t="n">
+      <c r="KY98" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KZ98" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="3">
@@ -93218,8 +93512,11 @@
       <c r="KX99" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KY99" t="n">
+      <c r="KY99" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KZ99" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="3">
@@ -94155,8 +94452,11 @@
       <c r="KX100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KY100" t="n">
+      <c r="KY100" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KZ100" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="3">
@@ -95092,8 +95392,11 @@
       <c r="KX101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KY101" t="n">
+      <c r="KY101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KZ101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="3">
@@ -96029,8 +96332,11 @@
       <c r="KX102" s="2" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="KY102" t="n">
+      <c r="KY102" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KZ102" t="n">
+        <v>53.8</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Richmond_stats.xlsx
+++ b/AFL_ML/Data/Richmond_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LB102"/>
+  <dimension ref="A1:LE102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KB100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KI101" activeCellId="0" sqref="KI101"/>
@@ -1401,8 +1401,17 @@
       <c r="LA1" s="2" t="n">
         <v>11176</v>
       </c>
-      <c r="LB1" t="n">
+      <c r="LB1" s="2" t="n">
         <v>10971</v>
+      </c>
+      <c r="LC1" s="2" t="n">
+        <v>10986</v>
+      </c>
+      <c r="LD1" s="2" t="n">
+        <v>10994</v>
+      </c>
+      <c r="LE1" t="n">
+        <v>11003</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="3">
@@ -2347,7 +2356,16 @@
       <c r="LA2" s="2" t="n">
         <v>2024</v>
       </c>
-      <c r="LB2" t="n">
+      <c r="LB2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LC2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LD2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LE2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3293,8 +3311,17 @@
       <c r="LA3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LB3" t="n">
+      <c r="LB3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LC3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LD3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="3">
@@ -4239,8 +4266,17 @@
       <c r="LA4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LB4" t="n">
+      <c r="LB4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="3">
@@ -5185,8 +5221,17 @@
       <c r="LA5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LB5" t="n">
+      <c r="LB5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LC5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="3">
@@ -6131,8 +6176,17 @@
       <c r="LA6" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="LB6" t="n">
+      <c r="LB6" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="LC6" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="LD6" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="LE6" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="3">
@@ -7077,8 +7131,17 @@
       <c r="LA7" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="LB7" t="n">
+      <c r="LB7" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="LC7" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="LD7" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="LE7" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="3">
@@ -8023,8 +8086,17 @@
       <c r="LA8" s="2" t="n">
         <v>-39</v>
       </c>
-      <c r="LB8" t="n">
+      <c r="LB8" s="2" t="n">
         <v>-5</v>
+      </c>
+      <c r="LC8" s="2" t="n">
+        <v>-30</v>
+      </c>
+      <c r="LD8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE8" t="n">
+        <v>-7</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="3">
@@ -8969,7 +9041,16 @@
       <c r="LA9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LB9" t="n">
+      <c r="LB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LE9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9915,8 +9996,17 @@
       <c r="LA10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LB10" t="n">
+      <c r="LB10" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LC10" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LD10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LE10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="3">
@@ -10861,8 +10951,17 @@
       <c r="LA11" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="LB11" t="n">
+      <c r="LB11" s="2" t="n">
         <v>203</v>
+      </c>
+      <c r="LC11" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="LD11" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="LE11" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="3">
@@ -11807,8 +11906,17 @@
       <c r="LA12" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="LB12" t="n">
+      <c r="LB12" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="LC12" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="LD12" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="LE12" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="3">
@@ -12753,8 +12861,17 @@
       <c r="LA13" s="2" t="n">
         <v>273</v>
       </c>
-      <c r="LB13" t="n">
+      <c r="LB13" s="2" t="n">
         <v>322</v>
+      </c>
+      <c r="LC13" s="2" t="n">
+        <v>324</v>
+      </c>
+      <c r="LD13" s="2" t="n">
+        <v>368</v>
+      </c>
+      <c r="LE13" t="n">
+        <v>358</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="3">
@@ -13699,8 +13816,17 @@
       <c r="LA14" s="2" t="n">
         <v>1.94</v>
       </c>
-      <c r="LB14" t="n">
+      <c r="LB14" s="2" t="n">
         <v>1.71</v>
+      </c>
+      <c r="LC14" s="2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="LD14" s="2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="LE14" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="3">
@@ -14645,8 +14771,17 @@
       <c r="LA15" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="LB15" t="n">
+      <c r="LB15" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="LC15" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="LD15" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="LE15" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="3">
@@ -15591,8 +15726,17 @@
       <c r="LA16" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="LB16" t="n">
+      <c r="LB16" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="LC16" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="LD16" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LE16" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="3">
@@ -16537,8 +16681,17 @@
       <c r="LA17" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="LB17" t="n">
+      <c r="LB17" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="LC17" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="LD17" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LE17" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="3">
@@ -17483,8 +17636,17 @@
       <c r="LA18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="LB18" t="n">
+      <c r="LB18" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="LC18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LD18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LE18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="3">
@@ -18429,8 +18591,17 @@
       <c r="LA19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="LB19" t="n">
+      <c r="LB19" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="LC19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="LD19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LE19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="3">
@@ -19375,8 +19546,17 @@
       <c r="LA20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LB20" t="n">
+      <c r="LB20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LC20" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LD20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LE20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="3">
@@ -20321,7 +20501,16 @@
       <c r="LA21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LB21" t="n">
+      <c r="LB21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC21" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LD21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LE21" t="n">
         <v>7</v>
       </c>
     </row>
@@ -21267,8 +21456,17 @@
       <c r="LA22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LB22" t="n">
+      <c r="LB22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LC22" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LD22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LE22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="3">
@@ -22213,8 +22411,17 @@
       <c r="LA23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LB23" t="n">
+      <c r="LB23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LC23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LD23" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LE23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="3">
@@ -23159,8 +23366,17 @@
       <c r="LA24" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="LB24" t="n">
+      <c r="LB24" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="LC24" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="LD24" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="LE24" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="3">
@@ -24105,8 +24321,17 @@
       <c r="LA25" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="LB25" t="n">
+      <c r="LB25" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="LC25" s="2" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="LD25" s="2" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="LE25" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="3">
@@ -25051,8 +25276,17 @@
       <c r="LA26" s="2" t="n">
         <v>30.33</v>
       </c>
-      <c r="LB26" t="n">
+      <c r="LB26" s="2" t="n">
         <v>26.83</v>
+      </c>
+      <c r="LC26" s="2" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="LD26" s="2" t="n">
+        <v>33.45</v>
+      </c>
+      <c r="LE26" t="n">
+        <v>39.78</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="3">
@@ -25997,8 +26231,17 @@
       <c r="LA27" s="2" t="n">
         <v>18.2</v>
       </c>
-      <c r="LB27" t="n">
+      <c r="LB27" s="2" t="n">
         <v>15.33</v>
+      </c>
+      <c r="LC27" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LD27" s="2" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="LE27" t="n">
+        <v>23.87</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="3">
@@ -26943,8 +27186,17 @@
       <c r="LA28" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="LB28" t="n">
+      <c r="LB28" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="LC28" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="LD28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="LE28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="3">
@@ -27889,8 +28141,17 @@
       <c r="LA29" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="LB29" t="n">
+      <c r="LB29" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="LC29" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="LD29" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="LE29" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="3">
@@ -28835,8 +29096,17 @@
       <c r="LA30" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="LB30" t="n">
+      <c r="LB30" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="LC30" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LD30" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LE30" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="3">
@@ -29781,8 +30051,17 @@
       <c r="LA31" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="LB31" t="n">
+      <c r="LB31" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="LC31" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LD31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LE31" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="3">
@@ -30727,8 +31006,17 @@
       <c r="LA32" s="2" t="n">
         <v>2.73</v>
       </c>
-      <c r="LB32" t="n">
+      <c r="LB32" s="2" t="n">
         <v>2.38</v>
+      </c>
+      <c r="LC32" s="2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="LD32" s="2" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="LE32" t="n">
+        <v>3.67</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="3">
@@ -31673,8 +31961,17 @@
       <c r="LA33" s="2" t="n">
         <v>4.56</v>
       </c>
-      <c r="LB33" t="n">
+      <c r="LB33" s="2" t="n">
         <v>4.17</v>
+      </c>
+      <c r="LC33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LD33" s="2" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="LE33" t="n">
+        <v>6.11</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="3">
@@ -32619,8 +32916,17 @@
       <c r="LA34" s="2" t="n">
         <v>34.1</v>
       </c>
-      <c r="LB34" t="n">
+      <c r="LB34" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LC34" s="2" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="LD34" s="2" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="LE34" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="3">
@@ -33565,8 +33871,17 @@
       <c r="LA35" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="LB35" t="n">
+      <c r="LB35" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="LC35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LD35" s="2" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="LE35" t="n">
+        <v>16.4</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="3">
@@ -34511,8 +34826,17 @@
       <c r="LA36" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="LB36" t="n">
+      <c r="LB36" s="2" t="n">
         <v>186.4</v>
+      </c>
+      <c r="LC36" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="LD36" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="LE36" t="n">
+        <v>186.9</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="3">
@@ -35457,8 +35781,17 @@
       <c r="LA37" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="LB37" t="n">
+      <c r="LB37" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="LC37" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="LD37" s="2" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="LE37" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="3">
@@ -36403,8 +36736,17 @@
       <c r="LA38" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="LB38" t="n">
+      <c r="LB38" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="LC38" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="LD38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="LE38" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="3">
@@ -37349,8 +37691,17 @@
       <c r="LA39" s="2" t="n">
         <v>94.7</v>
       </c>
-      <c r="LB39" t="n">
+      <c r="LB39" s="2" t="n">
         <v>120.5</v>
+      </c>
+      <c r="LC39" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="LD39" s="2" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="LE39" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="3">
@@ -38295,8 +38646,17 @@
       <c r="LA40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LB40" t="n">
+      <c r="LB40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LC40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LD40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LE40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="3">
@@ -39241,7 +39601,16 @@
       <c r="LA41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LB41" t="n">
+      <c r="LB41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LD41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LE41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -40187,8 +40556,17 @@
       <c r="LA42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LB42" t="n">
+      <c r="LB42" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LC42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LD42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="3">
@@ -41133,8 +41511,17 @@
       <c r="LA43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LB43" t="n">
+      <c r="LB43" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LC43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LD43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="3">
@@ -42079,8 +42466,17 @@
       <c r="LA44" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="LB44" t="n">
+      <c r="LB44" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="LC44" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="LD44" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="LE44" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="3">
@@ -43025,8 +43421,17 @@
       <c r="LA45" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="LB45" t="n">
+      <c r="LB45" s="2" t="n">
         <v>169</v>
+      </c>
+      <c r="LC45" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="LD45" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="LE45" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="3">
@@ -43971,8 +44376,17 @@
       <c r="LA46" s="2" t="n">
         <v>193</v>
       </c>
-      <c r="LB46" t="n">
+      <c r="LB46" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="LC46" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="LD46" s="2" t="n">
+        <v>271</v>
+      </c>
+      <c r="LE46" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="3">
@@ -44917,8 +45331,17 @@
       <c r="LA47" s="2" t="n">
         <v>70.7</v>
       </c>
-      <c r="LB47" t="n">
+      <c r="LB47" s="2" t="n">
         <v>66.09999999999999</v>
+      </c>
+      <c r="LC47" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="LD47" s="2" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="LE47" t="n">
+        <v>69.3</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="3">
@@ -45863,8 +46286,17 @@
       <c r="LA48" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="LB48" t="n">
+      <c r="LB48" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="LC48" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="LD48" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="LE48" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="3">
@@ -46809,8 +47241,17 @@
       <c r="LA49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LB49" t="n">
+      <c r="LB49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LC49" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LD49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LE49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="3">
@@ -47755,7 +48196,16 @@
       <c r="LA50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LB50" t="n">
+      <c r="LB50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LC50" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LD50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LE50" t="n">
         <v>10</v>
       </c>
     </row>
@@ -48701,8 +49151,17 @@
       <c r="LA51" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="LB51" t="n">
+      <c r="LB51" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="LC51" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="LD51" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="LE51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="3">
@@ -49647,8 +50106,17 @@
       <c r="LA52" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="LB52" t="n">
+      <c r="LB52" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="LC52" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LD52" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LE52" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="3">
@@ -50593,8 +51061,17 @@
       <c r="LA53" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="LB53" t="n">
+      <c r="LB53" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="LC53" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LD53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="LE53" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="3">
@@ -51539,7 +52016,16 @@
       <c r="LA54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LB54" t="n">
+      <c r="LB54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LC54" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LD54" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LE54" t="n">
         <v>9</v>
       </c>
     </row>
@@ -52485,7 +52971,16 @@
       <c r="LA55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LB55" t="n">
+      <c r="LB55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC55" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LD55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LE55" t="n">
         <v>7</v>
       </c>
     </row>
@@ -53431,8 +53926,17 @@
       <c r="LA56" s="2" t="n">
         <v>55.6</v>
       </c>
-      <c r="LB56" t="n">
+      <c r="LB56" s="2" t="n">
         <v>58.3</v>
+      </c>
+      <c r="LC56" s="2" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="LD56" s="2" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="LE56" t="n">
+        <v>77.8</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="3">
@@ -54377,8 +54881,17 @@
       <c r="LA57" s="2" t="n">
         <v>240</v>
       </c>
-      <c r="LB57" t="n">
+      <c r="LB57" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="LC57" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="LD57" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="LE57" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="3">
@@ -55323,8 +55836,17 @@
       <c r="LA58" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="LB58" t="n">
+      <c r="LB58" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="LC58" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="LD58" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="LE58" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="3">
@@ -56269,8 +56791,17 @@
       <c r="LA59" s="2" t="n">
         <v>364</v>
       </c>
-      <c r="LB59" t="n">
+      <c r="LB59" s="2" t="n">
         <v>355</v>
+      </c>
+      <c r="LC59" s="2" t="n">
+        <v>366</v>
+      </c>
+      <c r="LD59" s="2" t="n">
+        <v>384</v>
+      </c>
+      <c r="LE59" t="n">
+        <v>402</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="3">
@@ -57215,8 +57746,17 @@
       <c r="LA60" s="2" t="n">
         <v>1.94</v>
       </c>
-      <c r="LB60" t="n">
+      <c r="LB60" s="2" t="n">
         <v>1.59</v>
+      </c>
+      <c r="LC60" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="LD60" s="2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="LE60" t="n">
+        <v>1.64</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="3">
@@ -58161,8 +58701,17 @@
       <c r="LA61" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="LB61" t="n">
+      <c r="LB61" s="2" t="n">
         <v>98</v>
+      </c>
+      <c r="LC61" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="LD61" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="LE61" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="3">
@@ -59107,8 +59656,17 @@
       <c r="LA62" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="LB62" t="n">
+      <c r="LB62" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="LC62" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="LD62" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LE62" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="3">
@@ -60053,8 +60611,17 @@
       <c r="LA63" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="LB63" t="n">
+      <c r="LB63" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="LC63" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LD63" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="LE63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="3">
@@ -60999,8 +61566,17 @@
       <c r="LA64" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="LB64" t="n">
+      <c r="LB64" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="LC64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="LD64" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LE64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="3">
@@ -61945,8 +62521,17 @@
       <c r="LA65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="LB65" t="n">
+      <c r="LB65" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="LC65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LD65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LE65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="3">
@@ -62891,8 +63476,17 @@
       <c r="LA66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="LB66" t="n">
+      <c r="LB66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LC66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="LD66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LE66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="3">
@@ -63837,8 +64431,17 @@
       <c r="LA67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LB67" t="n">
+      <c r="LB67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LC67" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LD67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LE67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="3">
@@ -64783,8 +65386,17 @@
       <c r="LA68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LB68" t="n">
+      <c r="LB68" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LC68" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LD68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LE68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="3">
@@ -65729,8 +66341,17 @@
       <c r="LA69" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LB69" t="n">
+      <c r="LB69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LC69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LE69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="3">
@@ -66675,8 +67296,17 @@
       <c r="LA70" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="LB70" t="n">
+      <c r="LB70" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="LC70" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="LD70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="LE70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="3">
@@ -67621,8 +68251,17 @@
       <c r="LA71" s="2" t="n">
         <v>48.3</v>
       </c>
-      <c r="LB71" t="n">
+      <c r="LB71" s="2" t="n">
         <v>46.2</v>
+      </c>
+      <c r="LC71" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="LD71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LE71" t="n">
+        <v>40.9</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="3">
@@ -68567,8 +69206,17 @@
       <c r="LA72" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="LB72" t="n">
+      <c r="LB72" s="2" t="n">
         <v>29.58</v>
+      </c>
+      <c r="LC72" s="2" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="LD72" s="2" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="LE72" t="n">
+        <v>44.67</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="3">
@@ -69513,8 +70161,17 @@
       <c r="LA73" s="2" t="n">
         <v>12.55</v>
       </c>
-      <c r="LB73" t="n">
+      <c r="LB73" s="2" t="n">
         <v>13.65</v>
+      </c>
+      <c r="LC73" s="2" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="LD73" s="2" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="LE73" t="n">
+        <v>18.27</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="3">
@@ -70459,8 +71116,17 @@
       <c r="LA74" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="LB74" t="n">
+      <c r="LB74" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="LC74" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="LD74" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="LE74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="3">
@@ -71405,8 +72071,17 @@
       <c r="LA75" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="LB75" t="n">
+      <c r="LB75" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="LC75" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LD75" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="LE75" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="3">
@@ -72351,8 +73026,17 @@
       <c r="LA76" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="LB76" t="n">
+      <c r="LB76" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LC76" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="LD76" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LE76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="3">
@@ -73297,8 +73981,17 @@
       <c r="LA77" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="LB77" t="n">
+      <c r="LB77" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="LC77" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="LD77" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="LE77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="3">
@@ -74243,8 +74936,17 @@
       <c r="LA78" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="LB78" t="n">
+      <c r="LB78" s="2" t="n">
         <v>2.5</v>
+      </c>
+      <c r="LC78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="LD78" s="2" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="LE78" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="3">
@@ -75189,8 +75891,17 @@
       <c r="LA79" s="2" t="n">
         <v>4.36</v>
       </c>
-      <c r="LB79" t="n">
+      <c r="LB79" s="2" t="n">
         <v>5.42</v>
+      </c>
+      <c r="LC79" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="LD79" s="2" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="LE79" t="n">
+        <v>6.22</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="3">
@@ -76135,8 +76846,17 @@
       <c r="LA80" s="2" t="n">
         <v>37.7</v>
       </c>
-      <c r="LB80" t="n">
+      <c r="LB80" s="2" t="n">
         <v>36.9</v>
+      </c>
+      <c r="LC80" s="2" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="LD80" s="2" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="LE80" t="n">
+        <v>30.4</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="3">
@@ -77081,8 +77801,17 @@
       <c r="LA81" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="LB81" t="n">
+      <c r="LB81" s="2" t="n">
         <v>18.5</v>
+      </c>
+      <c r="LC81" s="2" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="LD81" s="2" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="LE81" t="n">
+        <v>16.1</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="3">
@@ -78027,8 +78756,17 @@
       <c r="LA82" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="LB82" t="n">
+      <c r="LB82" s="2" t="n">
         <v>187.5</v>
+      </c>
+      <c r="LC82" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="LD82" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="LE82" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="3">
@@ -78973,8 +79711,17 @@
       <c r="LA83" s="2" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="LB83" t="n">
+      <c r="LB83" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="LC83" s="2" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="LD83" s="2" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="LE83" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="3">
@@ -79919,8 +80666,17 @@
       <c r="LA84" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="LB84" t="n">
+      <c r="LB84" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="LC84" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="LD84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="LE84" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="3">
@@ -80865,8 +81621,17 @@
       <c r="LA85" s="2" t="n">
         <v>103.2</v>
       </c>
-      <c r="LB85" t="n">
+      <c r="LB85" s="2" t="n">
         <v>87.7</v>
+      </c>
+      <c r="LC85" s="2" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="LD85" s="2" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="LE85" t="n">
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="3">
@@ -81811,8 +82576,17 @@
       <c r="LA86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LB86" t="n">
+      <c r="LB86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LC86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LD86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="3">
@@ -82757,8 +83531,17 @@
       <c r="LA87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LB87" t="n">
+      <c r="LB87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LC87" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LD87" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LE87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="3">
@@ -83703,8 +84486,17 @@
       <c r="LA88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LB88" t="n">
+      <c r="LB88" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LC88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LD88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LE88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="3">
@@ -84649,8 +85441,17 @@
       <c r="LA89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LB89" t="n">
+      <c r="LB89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LC89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LD89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="3">
@@ -85595,8 +86396,17 @@
       <c r="LA90" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="LB90" t="n">
+      <c r="LB90" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="LC90" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="LD90" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="LE90" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="3">
@@ -86541,8 +87351,17 @@
       <c r="LA91" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="LB91" t="n">
+      <c r="LB91" s="2" t="n">
         <v>219</v>
+      </c>
+      <c r="LC91" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="LD91" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="LE91" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="3">
@@ -87487,8 +88306,17 @@
       <c r="LA92" s="2" t="n">
         <v>259</v>
       </c>
-      <c r="LB92" t="n">
+      <c r="LB92" s="2" t="n">
         <v>257</v>
+      </c>
+      <c r="LC92" s="2" t="n">
+        <v>275</v>
+      </c>
+      <c r="LD92" s="2" t="n">
+        <v>289</v>
+      </c>
+      <c r="LE92" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="3">
@@ -88433,8 +89261,17 @@
       <c r="LA93" s="2" t="n">
         <v>71.2</v>
       </c>
-      <c r="LB93" t="n">
+      <c r="LB93" s="2" t="n">
         <v>72.40000000000001</v>
+      </c>
+      <c r="LC93" s="2" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="LD93" s="2" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="LE93" t="n">
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="3">
@@ -89379,8 +90216,17 @@
       <c r="LA94" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="LB94" t="n">
+      <c r="LB94" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="LC94" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LD94" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="LE94" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="3">
@@ -90325,8 +91171,17 @@
       <c r="LA95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LB95" t="n">
+      <c r="LB95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LC95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LD95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="3">
@@ -91271,8 +92126,17 @@
       <c r="LA96" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="LB96" t="n">
+      <c r="LB96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="LC96" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LD96" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LE96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="3">
@@ -92217,8 +93081,17 @@
       <c r="LA97" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="LB97" t="n">
+      <c r="LB97" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="LC97" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="LD97" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="LE97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="3">
@@ -93163,8 +94036,17 @@
       <c r="LA98" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="LB98" t="n">
+      <c r="LB98" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LC98" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="LD98" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LE98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="3">
@@ -94109,8 +94991,17 @@
       <c r="LA99" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="LB99" t="n">
+      <c r="LB99" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LC99" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LD99" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LE99" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="3">
@@ -95055,8 +95946,17 @@
       <c r="LA100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LB100" t="n">
+      <c r="LB100" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LC100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LD100" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LE100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="3">
@@ -96001,8 +96901,17 @@
       <c r="LA101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LB101" t="n">
+      <c r="LB101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LC101" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LD101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LE101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="3">
@@ -96947,8 +97856,17 @@
       <c r="LA102" s="2" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="LB102" t="n">
+      <c r="LB102" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="LC102" s="2" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="LD102" s="2" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="LE102" t="n">
+        <v>77.8</v>
       </c>
     </row>
   </sheetData>
